--- a/Input/Deflatores/Deflatores_EstimaMIP_12.xlsx
+++ b/Input/Deflatores/Deflatores_EstimaMIP_12.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Consum_Intermed" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Demanda_Final" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Producao" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Componentes_Demanda_Final" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1058,40 +1059,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>117.1465580509675</v>
+        <v>117.1257070364495</v>
       </c>
       <c r="D14" t="n">
-        <v>101.8954111679232</v>
+        <v>101.641282319396</v>
       </c>
       <c r="E14" t="n">
-        <v>115.9060052599627</v>
+        <v>115.8355686792496</v>
       </c>
       <c r="F14" t="n">
-        <v>97.55401291718499</v>
+        <v>96.42502940818993</v>
       </c>
       <c r="G14" t="n">
-        <v>106.0378212554115</v>
+        <v>107.6597613004757</v>
       </c>
       <c r="H14" t="n">
-        <v>119.3275956892964</v>
+        <v>118.8247777209095</v>
       </c>
       <c r="I14" t="n">
-        <v>103.6652429239048</v>
+        <v>114.0155345593048</v>
       </c>
       <c r="J14" t="n">
-        <v>109.947390165161</v>
+        <v>117.634387798361</v>
       </c>
       <c r="K14" t="n">
-        <v>115.9249417200807</v>
+        <v>116.9666738994578</v>
       </c>
       <c r="L14" t="n">
-        <v>95.07926275620871</v>
+        <v>93.48982519674173</v>
       </c>
       <c r="M14" t="n">
-        <v>109.0408049394086</v>
+        <v>109.8595590721067</v>
       </c>
       <c r="N14" t="n">
-        <v>111.2097226031177</v>
+        <v>110.1933276674409</v>
       </c>
     </row>
     <row r="15">
@@ -1102,40 +1103,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>118.3349061933156</v>
+        <v>123.7266375800881</v>
       </c>
       <c r="D15" t="n">
-        <v>111.1766069465634</v>
+        <v>111.2235537058487</v>
       </c>
       <c r="E15" t="n">
-        <v>127.7637753452225</v>
+        <v>128.0233209260347</v>
       </c>
       <c r="F15" t="n">
-        <v>114.7172430356168</v>
+        <v>112.0514865990886</v>
       </c>
       <c r="G15" t="n">
-        <v>119.1194450254764</v>
+        <v>114.6428002746147</v>
       </c>
       <c r="H15" t="n">
-        <v>101.9582718229239</v>
+        <v>88.292706479689</v>
       </c>
       <c r="I15" t="n">
-        <v>107.6010047339111</v>
+        <v>95.24217647491859</v>
       </c>
       <c r="J15" t="n">
-        <v>111.1077034438633</v>
+        <v>100.3706510327384</v>
       </c>
       <c r="K15" t="n">
-        <v>110.6953388330886</v>
+        <v>77.92508996297968</v>
       </c>
       <c r="L15" t="n">
-        <v>125.199543721184</v>
+        <v>124.0040888594998</v>
       </c>
       <c r="M15" t="n">
-        <v>114.1619526628446</v>
+        <v>102.8755917751015</v>
       </c>
       <c r="N15" t="n">
-        <v>107.2784241004743</v>
+        <v>111.3734226222348</v>
       </c>
     </row>
     <row r="16">
@@ -1146,40 +1147,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>114.8657236122113</v>
+        <v>117.4024533395963</v>
       </c>
       <c r="D16" t="n">
-        <v>103.9189579207456</v>
+        <v>103.6109886862774</v>
       </c>
       <c r="E16" t="n">
-        <v>106.0438948438611</v>
+        <v>105.3506741506593</v>
       </c>
       <c r="F16" t="n">
-        <v>105.5017111499115</v>
+        <v>106.1113300738639</v>
       </c>
       <c r="G16" t="n">
-        <v>107.7092552141353</v>
+        <v>106.9057775261293</v>
       </c>
       <c r="H16" t="n">
-        <v>108.3882704856311</v>
+        <v>108.0485060358392</v>
       </c>
       <c r="I16" t="n">
-        <v>104.788271590981</v>
+        <v>103.6167576974007</v>
       </c>
       <c r="J16" t="n">
-        <v>103.2383030345022</v>
+        <v>101.8548003834398</v>
       </c>
       <c r="K16" t="n">
-        <v>112.0794489526982</v>
+        <v>109.9822713296017</v>
       </c>
       <c r="L16" t="n">
-        <v>102.4273872518626</v>
+        <v>101.5600757945595</v>
       </c>
       <c r="M16" t="n">
-        <v>109.0605188081515</v>
+        <v>110.8730729267079</v>
       </c>
       <c r="N16" t="n">
-        <v>106.5007045045349</v>
+        <v>106.458729460976</v>
       </c>
     </row>
     <row r="17">
@@ -1190,40 +1191,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>103.8976138833554</v>
+        <v>103.8916400969461</v>
       </c>
       <c r="D17" t="n">
-        <v>104.6644138012424</v>
+        <v>104.8099109291813</v>
       </c>
       <c r="E17" t="n">
-        <v>98.83169369957803</v>
+        <v>98.8892067491972</v>
       </c>
       <c r="F17" t="n">
-        <v>104.4767719148866</v>
+        <v>104.4783664465567</v>
       </c>
       <c r="G17" t="n">
-        <v>103.7866136625176</v>
+        <v>103.6634179313646</v>
       </c>
       <c r="H17" t="n">
-        <v>104.8818967684228</v>
+        <v>104.8643953145478</v>
       </c>
       <c r="I17" t="n">
-        <v>103.8587867946656</v>
+        <v>103.7851782820718</v>
       </c>
       <c r="J17" t="n">
-        <v>103.8900257894374</v>
+        <v>103.8460942087304</v>
       </c>
       <c r="K17" t="n">
-        <v>110.7914286332909</v>
+        <v>110.5792344605856</v>
       </c>
       <c r="L17" t="n">
-        <v>106.8825998813189</v>
+        <v>106.7822470446576</v>
       </c>
       <c r="M17" t="n">
-        <v>105.0978339739054</v>
+        <v>105.0762347336981</v>
       </c>
       <c r="N17" t="n">
-        <v>105.4816281450888</v>
+        <v>105.549787233579</v>
       </c>
     </row>
     <row r="18">
@@ -1234,40 +1235,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>106.6167912569432</v>
+        <v>105.8042742883745</v>
       </c>
       <c r="D18" t="n">
-        <v>104.299082896382</v>
+        <v>104.2136317265952</v>
       </c>
       <c r="E18" t="n">
-        <v>104.2183607904992</v>
+        <v>103.1769229206377</v>
       </c>
       <c r="F18" t="n">
-        <v>93.1950154054837</v>
+        <v>92.94235855919068</v>
       </c>
       <c r="G18" t="n">
-        <v>106.7276721382927</v>
+        <v>106.7890311449222</v>
       </c>
       <c r="H18" t="n">
-        <v>107.8797419168406</v>
+        <v>102.7177683534134</v>
       </c>
       <c r="I18" t="n">
-        <v>107.8826713714515</v>
+        <v>106.9490218766724</v>
       </c>
       <c r="J18" t="n">
-        <v>115.4925303760759</v>
+        <v>115.1132510871588</v>
       </c>
       <c r="K18" t="n">
-        <v>117.0229611318371</v>
+        <v>115.592429029359</v>
       </c>
       <c r="L18" t="n">
-        <v>87.9812761519477</v>
+        <v>87.81594829488955</v>
       </c>
       <c r="M18" t="n">
-        <v>112.3528820766008</v>
+        <v>110.6417101059141</v>
       </c>
       <c r="N18" t="n">
-        <v>107.9301842839812</v>
+        <v>107.6608792650234</v>
       </c>
     </row>
     <row r="19">
@@ -1278,40 +1279,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>118.2971837494637</v>
+        <v>107.0744952663876</v>
       </c>
       <c r="D19" t="n">
-        <v>109.278387963279</v>
+        <v>109.7910381147884</v>
       </c>
       <c r="E19" t="n">
-        <v>110.326877932485</v>
+        <v>110.5696233737062</v>
       </c>
       <c r="F19" t="n">
-        <v>108.8243070326621</v>
+        <v>111.3819975261237</v>
       </c>
       <c r="G19" t="n">
-        <v>112.5779394595146</v>
+        <v>121.6202318167024</v>
       </c>
       <c r="H19" t="n">
-        <v>112.6414171546846</v>
+        <v>114.7264606870353</v>
       </c>
       <c r="I19" t="n">
-        <v>108.790871416349</v>
+        <v>106.9170464424751</v>
       </c>
       <c r="J19" t="n">
-        <v>109.7320347903298</v>
+        <v>113.0135579514177</v>
       </c>
       <c r="K19" t="n">
-        <v>119.1813052607804</v>
+        <v>123.5337339012835</v>
       </c>
       <c r="L19" t="n">
-        <v>107.7866474067818</v>
+        <v>117.6827736590938</v>
       </c>
       <c r="M19" t="n">
-        <v>113.5222026854971</v>
+        <v>109.3791294897531</v>
       </c>
       <c r="N19" t="n">
-        <v>112.5999207507794</v>
+        <v>112.7113467849447</v>
       </c>
     </row>
     <row r="20">
@@ -1322,40 +1323,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>103.7898852305463</v>
+        <v>102.972537355645</v>
       </c>
       <c r="D20" t="n">
-        <v>117.9921456041599</v>
+        <v>119.3320428278098</v>
       </c>
       <c r="E20" t="n">
-        <v>108.6373957923487</v>
+        <v>108.0821721911194</v>
       </c>
       <c r="F20" t="n">
-        <v>116.2969959890575</v>
+        <v>116.6913810851968</v>
       </c>
       <c r="G20" t="n">
-        <v>110.1828767988288</v>
+        <v>110.477467969616</v>
       </c>
       <c r="H20" t="n">
-        <v>111.7256064810928</v>
+        <v>111.7597045896839</v>
       </c>
       <c r="I20" t="n">
-        <v>104.775530250748</v>
+        <v>104.5104828931606</v>
       </c>
       <c r="J20" t="n">
-        <v>109.2948178593189</v>
+        <v>110.3366019680944</v>
       </c>
       <c r="K20" t="n">
-        <v>117.6304677285758</v>
+        <v>117.4658714862633</v>
       </c>
       <c r="L20" t="n">
-        <v>99.38714297404321</v>
+        <v>102.4179851041537</v>
       </c>
       <c r="M20" t="n">
-        <v>104.8570843802365</v>
+        <v>106.1565590010868</v>
       </c>
       <c r="N20" t="n">
-        <v>115.4708250276681</v>
+        <v>115.4777129602173</v>
       </c>
     </row>
     <row r="21">
@@ -1366,40 +1367,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>78.99450661603146</v>
+        <v>62.94273278530336</v>
       </c>
       <c r="D21" t="n">
-        <v>95.72034127170322</v>
+        <v>96.21461655353491</v>
       </c>
       <c r="E21" t="n">
-        <v>97.07313758486626</v>
+        <v>97.43501601839374</v>
       </c>
       <c r="F21" t="n">
-        <v>98.85734760307064</v>
+        <v>99.33956525549341</v>
       </c>
       <c r="G21" t="n">
-        <v>103.4205588702114</v>
+        <v>103.836035561549</v>
       </c>
       <c r="H21" t="n">
-        <v>103.0106060972909</v>
+        <v>103.2470215186219</v>
       </c>
       <c r="I21" t="n">
-        <v>99.58142005132012</v>
+        <v>100.3496327487046</v>
       </c>
       <c r="J21" t="n">
-        <v>102.6551761643868</v>
+        <v>102.7866799446584</v>
       </c>
       <c r="K21" t="n">
-        <v>108.282024318714</v>
+        <v>108.2922789855925</v>
       </c>
       <c r="L21" t="n">
-        <v>105.533993237022</v>
+        <v>105.3545689665675</v>
       </c>
       <c r="M21" t="n">
-        <v>106.3006543944193</v>
+        <v>106.6628604486603</v>
       </c>
       <c r="N21" t="n">
-        <v>108.2820022802601</v>
+        <v>107.3812490245955</v>
       </c>
     </row>
     <row r="22">
@@ -1410,40 +1411,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>107.3492146229383</v>
+        <v>107.3548452813082</v>
       </c>
       <c r="D22" t="n">
-        <v>98.92713887088466</v>
+        <v>99.00013509926546</v>
       </c>
       <c r="E22" t="n">
-        <v>104.3901331697238</v>
+        <v>104.5933555791546</v>
       </c>
       <c r="F22" t="n">
-        <v>101.1797399781102</v>
+        <v>101.5594562001228</v>
       </c>
       <c r="G22" t="n">
-        <v>103.3443885923056</v>
+        <v>103.6512400058179</v>
       </c>
       <c r="H22" t="n">
-        <v>104.6632075418614</v>
+        <v>107.6707544332902</v>
       </c>
       <c r="I22" t="n">
-        <v>103.0125260560836</v>
+        <v>103.6336611482743</v>
       </c>
       <c r="J22" t="n">
-        <v>103.6160277868366</v>
+        <v>104.7427346934205</v>
       </c>
       <c r="K22" t="n">
-        <v>98.88882909249028</v>
+        <v>99.19475692797766</v>
       </c>
       <c r="L22" t="n">
-        <v>102.3813754368006</v>
+        <v>102.609027511741</v>
       </c>
       <c r="M22" t="n">
-        <v>102.5411516056054</v>
+        <v>105.1372773743984</v>
       </c>
       <c r="N22" t="n">
-        <v>95.29832990165224</v>
+        <v>95.48169521594068</v>
       </c>
     </row>
     <row r="23">
@@ -1454,40 +1455,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>106.255121442739</v>
+        <v>106.5927152440675</v>
       </c>
       <c r="D23" t="n">
-        <v>100.4048394621271</v>
+        <v>100.723843363966</v>
       </c>
       <c r="E23" t="n">
-        <v>106.2239663688041</v>
+        <v>106.561458816813</v>
       </c>
       <c r="F23" t="n">
-        <v>107.6974986568939</v>
+        <v>108.0396727493592</v>
       </c>
       <c r="G23" t="n">
-        <v>108.0560557044804</v>
+        <v>108.3993690979894</v>
       </c>
       <c r="H23" t="n">
-        <v>113.8032559596156</v>
+        <v>114.1648291782167</v>
       </c>
       <c r="I23" t="n">
-        <v>109.9128763028859</v>
+        <v>110.262089100523</v>
       </c>
       <c r="J23" t="n">
-        <v>112.4633331332932</v>
+        <v>112.820649183087</v>
       </c>
       <c r="K23" t="n">
-        <v>118.3535997381161</v>
+        <v>118.7296302067364</v>
       </c>
       <c r="L23" t="n">
-        <v>111.8781839909248</v>
+        <v>112.2336409204406</v>
       </c>
       <c r="M23" t="n">
-        <v>113.2770491281775</v>
+        <v>113.6369504914169</v>
       </c>
       <c r="N23" t="n">
-        <v>111.5637671134885</v>
+        <v>111.9182251008049</v>
       </c>
     </row>
     <row r="24">
@@ -1498,40 +1499,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>104.5226443693257</v>
+        <v>104.5387141758428</v>
       </c>
       <c r="D24" t="n">
-        <v>103.9758540321407</v>
+        <v>105.37576867005</v>
       </c>
       <c r="E24" t="n">
-        <v>107.1852493938761</v>
+        <v>107.6157875390655</v>
       </c>
       <c r="F24" t="n">
-        <v>105.4533511067644</v>
+        <v>106.2629346886177</v>
       </c>
       <c r="G24" t="n">
-        <v>107.4779725288721</v>
+        <v>109.0157073050906</v>
       </c>
       <c r="H24" t="n">
-        <v>108.940013534987</v>
+        <v>108.7192919933473</v>
       </c>
       <c r="I24" t="n">
-        <v>106.2751663190413</v>
+        <v>107.4819313342957</v>
       </c>
       <c r="J24" t="n">
-        <v>110.0111574735223</v>
+        <v>109.555224301814</v>
       </c>
       <c r="K24" t="n">
-        <v>116.1283216172945</v>
+        <v>115.8915735023281</v>
       </c>
       <c r="L24" t="n">
-        <v>108.8364695244801</v>
+        <v>108.2382343322275</v>
       </c>
       <c r="M24" t="n">
-        <v>106.4850270155804</v>
+        <v>106.2639380447933</v>
       </c>
       <c r="N24" t="n">
-        <v>112.9311653849517</v>
+        <v>112.953179913286</v>
       </c>
     </row>
     <row r="25">
@@ -1542,40 +1543,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>130.5881534194997</v>
+        <v>139.3046569360204</v>
       </c>
       <c r="D25" t="n">
-        <v>106.6202614584455</v>
+        <v>108.3710298829651</v>
       </c>
       <c r="E25" t="n">
-        <v>116.572119863148</v>
+        <v>114.0621650021714</v>
       </c>
       <c r="F25" t="n">
-        <v>105.4507368097733</v>
+        <v>104.4991153280865</v>
       </c>
       <c r="G25" t="n">
-        <v>108.1546956914262</v>
+        <v>107.4025682947969</v>
       </c>
       <c r="H25" t="n">
-        <v>109.8866371497915</v>
+        <v>104.7157056179958</v>
       </c>
       <c r="I25" t="n">
-        <v>106.0282781646002</v>
+        <v>107.7752934506216</v>
       </c>
       <c r="J25" t="n">
-        <v>111.4234070337426</v>
+        <v>102.899445430522</v>
       </c>
       <c r="K25" t="n">
-        <v>119.1680452673259</v>
+        <v>110.5934528205727</v>
       </c>
       <c r="L25" t="n">
-        <v>123.4565568820421</v>
+        <v>117.6748538104752</v>
       </c>
       <c r="M25" t="n">
-        <v>107.2470108499047</v>
+        <v>103.2042439124347</v>
       </c>
       <c r="N25" t="n">
-        <v>114.0164739688089</v>
+        <v>111.8687420869314</v>
       </c>
     </row>
     <row r="26">
@@ -1588,40 +1589,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>127.0310643787645</v>
+        <v>125.8800440886436</v>
       </c>
       <c r="D26" t="n">
-        <v>103.2642996115565</v>
+        <v>94.67586927481371</v>
       </c>
       <c r="E26" t="n">
-        <v>127.7147470380697</v>
+        <v>128.2700113755096</v>
       </c>
       <c r="F26" t="n">
-        <v>106.170698707291</v>
+        <v>106.6431062365339</v>
       </c>
       <c r="G26" t="n">
-        <v>115.8851258216426</v>
+        <v>115.7273536917798</v>
       </c>
       <c r="H26" t="n">
-        <v>151.3097353762525</v>
+        <v>152.4688836387844</v>
       </c>
       <c r="I26" t="n">
-        <v>117.4379447425381</v>
+        <v>117.1517058338299</v>
       </c>
       <c r="J26" t="n">
-        <v>109.2707827336236</v>
+        <v>109.4956692815337</v>
       </c>
       <c r="K26" t="n">
-        <v>118.0592563347885</v>
+        <v>117.4232341237644</v>
       </c>
       <c r="L26" t="n">
-        <v>141.8814775223392</v>
+        <v>131.0384962894055</v>
       </c>
       <c r="M26" t="n">
-        <v>117.6062478305531</v>
+        <v>117.7779144819272</v>
       </c>
       <c r="N26" t="n">
-        <v>121.4057114543763</v>
+        <v>119.228684462867</v>
       </c>
     </row>
     <row r="27">
@@ -1632,40 +1633,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>130.3477862576192</v>
+        <v>124.4900831488801</v>
       </c>
       <c r="D27" t="n">
-        <v>119.59624605528</v>
+        <v>119.1461815914696</v>
       </c>
       <c r="E27" t="n">
-        <v>148.6703464039828</v>
+        <v>148.9984979407589</v>
       </c>
       <c r="F27" t="n">
-        <v>131.9871191211012</v>
+        <v>127.9355851786451</v>
       </c>
       <c r="G27" t="n">
-        <v>116.2552765178745</v>
+        <v>116.0225660812405</v>
       </c>
       <c r="H27" t="n">
-        <v>123.7311793492616</v>
+        <v>100.0211705134673</v>
       </c>
       <c r="I27" t="n">
-        <v>127.0465160637538</v>
+        <v>107.8832746631839</v>
       </c>
       <c r="J27" t="n">
-        <v>115.3503041700413</v>
+        <v>94.57779543863184</v>
       </c>
       <c r="K27" t="n">
-        <v>128.6896730626015</v>
+        <v>66.47894692933379</v>
       </c>
       <c r="L27" t="n">
-        <v>171.8399194127587</v>
+        <v>174.5800688732015</v>
       </c>
       <c r="M27" t="n">
-        <v>134.7645624150137</v>
+        <v>100.2380010918124</v>
       </c>
       <c r="N27" t="n">
-        <v>116.8806536725914</v>
+        <v>113.3484018626636</v>
       </c>
     </row>
     <row r="28">
@@ -1676,40 +1677,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>131.1765446662333</v>
+        <v>132.0036487892413</v>
       </c>
       <c r="D28" t="n">
-        <v>97.96776957347349</v>
+        <v>97.1240473386942</v>
       </c>
       <c r="E28" t="n">
-        <v>113.7604234244186</v>
+        <v>113.0261440472494</v>
       </c>
       <c r="F28" t="n">
-        <v>112.8153546413638</v>
+        <v>113.3382136256088</v>
       </c>
       <c r="G28" t="n">
-        <v>114.632024533133</v>
+        <v>114.5064249555779</v>
       </c>
       <c r="H28" t="n">
-        <v>115.8746878000085</v>
+        <v>114.7574398864531</v>
       </c>
       <c r="I28" t="n">
-        <v>108.370881346526</v>
+        <v>106.0736162035448</v>
       </c>
       <c r="J28" t="n">
-        <v>104.1539605000653</v>
+        <v>100.6933641196667</v>
       </c>
       <c r="K28" t="n">
-        <v>109.6650077580571</v>
+        <v>105.6500401105665</v>
       </c>
       <c r="L28" t="n">
-        <v>145.7098184446668</v>
+        <v>145.2174746425779</v>
       </c>
       <c r="M28" t="n">
-        <v>117.390749308171</v>
+        <v>117.8720730925773</v>
       </c>
       <c r="N28" t="n">
-        <v>108.595570026565</v>
+        <v>106.9225980155431</v>
       </c>
     </row>
     <row r="29">
@@ -1720,40 +1721,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>107.75085304893</v>
+        <v>107.8788166196704</v>
       </c>
       <c r="D29" t="n">
-        <v>95.12398822934377</v>
+        <v>95.2989346048705</v>
       </c>
       <c r="E29" t="n">
-        <v>105.9713349333092</v>
+        <v>105.9925763967234</v>
       </c>
       <c r="F29" t="n">
-        <v>121.593261117531</v>
+        <v>121.7331357322129</v>
       </c>
       <c r="G29" t="n">
-        <v>109.5396570754503</v>
+        <v>109.3944373970201</v>
       </c>
       <c r="H29" t="n">
-        <v>109.5909051830735</v>
+        <v>109.7670768218187</v>
       </c>
       <c r="I29" t="n">
-        <v>102.1685745880614</v>
+        <v>102.1588198384127</v>
       </c>
       <c r="J29" t="n">
-        <v>95.15006051571309</v>
+        <v>95.27228696703695</v>
       </c>
       <c r="K29" t="n">
-        <v>103.6930782373763</v>
+        <v>103.6756720589276</v>
       </c>
       <c r="L29" t="n">
-        <v>117.6137327302914</v>
+        <v>117.6356654423285</v>
       </c>
       <c r="M29" t="n">
-        <v>112.0275145684117</v>
+        <v>111.9768362522882</v>
       </c>
       <c r="N29" t="n">
-        <v>110.0079366737843</v>
+        <v>109.8486167899549</v>
       </c>
     </row>
     <row r="30">
@@ -1764,40 +1765,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>113.0407303296762</v>
+        <v>111.7418116274594</v>
       </c>
       <c r="D30" t="n">
-        <v>102.8182023520062</v>
+        <v>102.2206598327263</v>
       </c>
       <c r="E30" t="n">
-        <v>115.9450326665639</v>
+        <v>114.4947555706528</v>
       </c>
       <c r="F30" t="n">
-        <v>84.98190910558954</v>
+        <v>84.75371325218167</v>
       </c>
       <c r="G30" t="n">
-        <v>121.7681987221475</v>
+        <v>121.8314720987531</v>
       </c>
       <c r="H30" t="n">
-        <v>102.7436153123757</v>
+        <v>92.51908542375853</v>
       </c>
       <c r="I30" t="n">
-        <v>103.7554608890117</v>
+        <v>102.101609586524</v>
       </c>
       <c r="J30" t="n">
-        <v>108.998749831267</v>
+        <v>108.4003985178531</v>
       </c>
       <c r="K30" t="n">
-        <v>115.7040488982463</v>
+        <v>112.7107822827154</v>
       </c>
       <c r="L30" t="n">
-        <v>129.0792723658425</v>
+        <v>127.8873561778818</v>
       </c>
       <c r="M30" t="n">
-        <v>124.9999391602447</v>
+        <v>120.6019456692132</v>
       </c>
       <c r="N30" t="n">
-        <v>112.5394938079894</v>
+        <v>112.2876631615403</v>
       </c>
     </row>
     <row r="31">
@@ -1808,40 +1809,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>139.418459362232</v>
+        <v>137.7769012629662</v>
       </c>
       <c r="D31" t="n">
-        <v>105.0454980450486</v>
+        <v>101.449101519869</v>
       </c>
       <c r="E31" t="n">
-        <v>123.0575055227158</v>
+        <v>122.7607479462494</v>
       </c>
       <c r="F31" t="n">
-        <v>119.988542280627</v>
+        <v>123.1446177267615</v>
       </c>
       <c r="G31" t="n">
-        <v>123.76519427715</v>
+        <v>127.630798638226</v>
       </c>
       <c r="H31" t="n">
-        <v>127.1741936203381</v>
+        <v>131.3311315240854</v>
       </c>
       <c r="I31" t="n">
-        <v>115.2521857906415</v>
+        <v>116.1057711820756</v>
       </c>
       <c r="J31" t="n">
-        <v>111.6946286744352</v>
+        <v>115.8818003321802</v>
       </c>
       <c r="K31" t="n">
-        <v>124.8283226524102</v>
+        <v>131.6003382474749</v>
       </c>
       <c r="L31" t="n">
-        <v>156.9209641219761</v>
+        <v>160.3896222537284</v>
       </c>
       <c r="M31" t="n">
-        <v>126.6155618659369</v>
+        <v>124.2890717313961</v>
       </c>
       <c r="N31" t="n">
-        <v>121.0139771795012</v>
+        <v>121.1613780115867</v>
       </c>
     </row>
     <row r="32">
@@ -1852,40 +1853,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>108.432889012699</v>
+        <v>106.7204155105994</v>
       </c>
       <c r="D32" t="n">
-        <v>116.3555374519182</v>
+        <v>118.4223079096974</v>
       </c>
       <c r="E32" t="n">
-        <v>117.9366389941375</v>
+        <v>117.2825546663068</v>
       </c>
       <c r="F32" t="n">
-        <v>133.6754583531146</v>
+        <v>133.9417410807981</v>
       </c>
       <c r="G32" t="n">
-        <v>116.3934635339337</v>
+        <v>116.7241569921937</v>
       </c>
       <c r="H32" t="n">
-        <v>120.5698653396579</v>
+        <v>119.923809425638</v>
       </c>
       <c r="I32" t="n">
-        <v>107.2492964428048</v>
+        <v>106.6297966735808</v>
       </c>
       <c r="J32" t="n">
-        <v>104.1506239587721</v>
+        <v>103.2114222321041</v>
       </c>
       <c r="K32" t="n">
-        <v>111.4042254154548</v>
+        <v>110.3035222885108</v>
       </c>
       <c r="L32" t="n">
-        <v>120.5882687839762</v>
+        <v>123.012308919988</v>
       </c>
       <c r="M32" t="n">
-        <v>107.3830476562782</v>
+        <v>107.5549620027557</v>
       </c>
       <c r="N32" t="n">
-        <v>126.5194342493211</v>
+        <v>125.979544117174</v>
       </c>
     </row>
     <row r="33">
@@ -1896,40 +1897,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>94.12182099961257</v>
+        <v>80.92917892533546</v>
       </c>
       <c r="D33" t="n">
-        <v>90.03697614831958</v>
+        <v>90.82408362629651</v>
       </c>
       <c r="E33" t="n">
-        <v>104.9240758053354</v>
+        <v>105.6195392819871</v>
       </c>
       <c r="F33" t="n">
-        <v>110.5726354070034</v>
+        <v>110.7242260155825</v>
       </c>
       <c r="G33" t="n">
-        <v>109.2623812572688</v>
+        <v>110.2709309249598</v>
       </c>
       <c r="H33" t="n">
-        <v>110.2422571552832</v>
+        <v>110.6982599041449</v>
       </c>
       <c r="I33" t="n">
-        <v>97.07592440731426</v>
+        <v>97.65684007844082</v>
       </c>
       <c r="J33" t="n">
-        <v>95.62718215627211</v>
+        <v>96.33676602373333</v>
       </c>
       <c r="K33" t="n">
-        <v>108.1510141177502</v>
+        <v>107.7400481885326</v>
       </c>
       <c r="L33" t="n">
-        <v>112.1687204191457</v>
+        <v>112.160856498009</v>
       </c>
       <c r="M33" t="n">
-        <v>112.8333266075916</v>
+        <v>114.0202118577703</v>
       </c>
       <c r="N33" t="n">
-        <v>111.1034768036909</v>
+        <v>109.6675915981162</v>
       </c>
     </row>
     <row r="34">
@@ -1940,40 +1941,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>115.8069784817829</v>
+        <v>115.8028457592477</v>
       </c>
       <c r="D34" t="n">
-        <v>98.28786580767739</v>
+        <v>98.27541811855771</v>
       </c>
       <c r="E34" t="n">
-        <v>113.3893194460093</v>
+        <v>113.4934929048384</v>
       </c>
       <c r="F34" t="n">
-        <v>113.6041904258635</v>
+        <v>113.7864668662298</v>
       </c>
       <c r="G34" t="n">
-        <v>110.0718493765263</v>
+        <v>110.1842668077443</v>
       </c>
       <c r="H34" t="n">
-        <v>110.4658917501967</v>
+        <v>112.2514651880213</v>
       </c>
       <c r="I34" t="n">
-        <v>107.2379516872685</v>
+        <v>107.4784443374024</v>
       </c>
       <c r="J34" t="n">
-        <v>103.6380112473317</v>
+        <v>104.0482201791731</v>
       </c>
       <c r="K34" t="n">
-        <v>106.8889261340195</v>
+        <v>107.0052833804479</v>
       </c>
       <c r="L34" t="n">
-        <v>106.0178767084079</v>
+        <v>106.1015463093313</v>
       </c>
       <c r="M34" t="n">
-        <v>106.6007109852476</v>
+        <v>107.807537206387</v>
       </c>
       <c r="N34" t="n">
-        <v>98.58046384938478</v>
+        <v>98.71190399307022</v>
       </c>
     </row>
     <row r="35">
@@ -1984,40 +1985,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>107.16799172487</v>
+        <v>109.1634911968657</v>
       </c>
       <c r="D35" t="n">
-        <v>95.84984807206776</v>
+        <v>97.63459721106464</v>
       </c>
       <c r="E35" t="n">
-        <v>119.468835922044</v>
+        <v>121.6933762095446</v>
       </c>
       <c r="F35" t="n">
-        <v>121.3563158861006</v>
+        <v>123.6160013318221</v>
       </c>
       <c r="G35" t="n">
-        <v>115.5186221004007</v>
+        <v>117.6696085165174</v>
       </c>
       <c r="H35" t="n">
-        <v>124.3470078247863</v>
+        <v>126.6623809317155</v>
       </c>
       <c r="I35" t="n">
-        <v>113.010434762379</v>
+        <v>115.1147179854648</v>
       </c>
       <c r="J35" t="n">
-        <v>108.5564461624109</v>
+        <v>110.5777949546831</v>
       </c>
       <c r="K35" t="n">
-        <v>113.7188124446658</v>
+        <v>115.8362858301014</v>
       </c>
       <c r="L35" t="n">
-        <v>115.3279857921752</v>
+        <v>117.4754224116557</v>
       </c>
       <c r="M35" t="n">
-        <v>118.3153661650372</v>
+        <v>120.518428556683</v>
       </c>
       <c r="N35" t="n">
-        <v>119.9279336656875</v>
+        <v>122.1610224666908</v>
       </c>
     </row>
     <row r="36">
@@ -2028,40 +2029,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>109.1548283861343</v>
+        <v>107.8509492585955</v>
       </c>
       <c r="D36" t="n">
-        <v>108.2190979960018</v>
+        <v>107.1256182782728</v>
       </c>
       <c r="E36" t="n">
-        <v>120.513311390067</v>
+        <v>120.4803112262837</v>
       </c>
       <c r="F36" t="n">
-        <v>121.089884585777</v>
+        <v>121.3456420261243</v>
       </c>
       <c r="G36" t="n">
-        <v>120.5346743419601</v>
+        <v>119.9219508631853</v>
       </c>
       <c r="H36" t="n">
-        <v>123.8244122213753</v>
+        <v>123.3817648492065</v>
       </c>
       <c r="I36" t="n">
-        <v>110.5889252945529</v>
+        <v>109.7063807606018</v>
       </c>
       <c r="J36" t="n">
-        <v>113.7120480296855</v>
+        <v>112.1551424332125</v>
       </c>
       <c r="K36" t="n">
-        <v>114.6111086906626</v>
+        <v>114.5977217194864</v>
       </c>
       <c r="L36" t="n">
-        <v>124.9983935097205</v>
+        <v>124.6174183357354</v>
       </c>
       <c r="M36" t="n">
-        <v>117.2980948734929</v>
+        <v>117.032689111036</v>
       </c>
       <c r="N36" t="n">
-        <v>120.6126319732081</v>
+        <v>120.6854393066102</v>
       </c>
     </row>
     <row r="37">
@@ -2072,40 +2073,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>142.0236265756355</v>
+        <v>150.3193235972766</v>
       </c>
       <c r="D37" t="n">
-        <v>113.2376175199277</v>
+        <v>126.5486344448952</v>
       </c>
       <c r="E37" t="n">
-        <v>132.3034325315517</v>
+        <v>131.5995498024727</v>
       </c>
       <c r="F37" t="n">
-        <v>125.5298328271192</v>
+        <v>117.3744878150331</v>
       </c>
       <c r="G37" t="n">
-        <v>122.6331640900554</v>
+        <v>121.3399909481154</v>
       </c>
       <c r="H37" t="n">
-        <v>126.6500768929411</v>
+        <v>118.3796228058057</v>
       </c>
       <c r="I37" t="n">
-        <v>116.5751729832147</v>
+        <v>137.7209543496896</v>
       </c>
       <c r="J37" t="n">
-        <v>116.2727242556958</v>
+        <v>102.4768543368579</v>
       </c>
       <c r="K37" t="n">
-        <v>119.6567697080195</v>
+        <v>108.8367015375338</v>
       </c>
       <c r="L37" t="n">
-        <v>140.4674721516099</v>
+        <v>130.6375519571599</v>
       </c>
       <c r="M37" t="n">
-        <v>119.3678229117374</v>
+        <v>111.6447505198613</v>
       </c>
       <c r="N37" t="n">
-        <v>122.8188440364411</v>
+        <v>125.319854495074</v>
       </c>
     </row>
     <row r="38">
@@ -2118,40 +2119,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>135.6498691787854</v>
+        <v>134.2904162523573</v>
       </c>
       <c r="D38" t="n">
-        <v>131.4842730862717</v>
+        <v>100.8221953573963</v>
       </c>
       <c r="E38" t="n">
-        <v>134.5569898108645</v>
+        <v>135.298535436732</v>
       </c>
       <c r="F38" t="n">
-        <v>128.3862637970914</v>
+        <v>121.4181305634481</v>
       </c>
       <c r="G38" t="n">
-        <v>130.8315437487272</v>
+        <v>121.3741333751474</v>
       </c>
       <c r="H38" t="n">
-        <v>184.8768028776749</v>
+        <v>188.5018032253126</v>
       </c>
       <c r="I38" t="n">
-        <v>160.6988558905978</v>
+        <v>133.8173471994405</v>
       </c>
       <c r="J38" t="n">
-        <v>127.7191178331794</v>
+        <v>114.4311451531169</v>
       </c>
       <c r="K38" t="n">
-        <v>139.7467805145429</v>
+        <v>129.5027795326799</v>
       </c>
       <c r="L38" t="n">
-        <v>151.5566831901037</v>
+        <v>118.9355629036372</v>
       </c>
       <c r="M38" t="n">
-        <v>132.9249301810452</v>
+        <v>132.3526703039074</v>
       </c>
       <c r="N38" t="n">
-        <v>130.5887777684407</v>
+        <v>125.6595299594389</v>
       </c>
     </row>
     <row r="39">
@@ -2162,40 +2163,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>132.0222195934298</v>
+        <v>111.7147496294795</v>
       </c>
       <c r="D39" t="n">
-        <v>130.2432101490429</v>
+        <v>129.6519343812262</v>
       </c>
       <c r="E39" t="n">
-        <v>157.5097516783092</v>
+        <v>158.0775009624808</v>
       </c>
       <c r="F39" t="n">
-        <v>141.930371744623</v>
+        <v>139.5744868902518</v>
       </c>
       <c r="G39" t="n">
-        <v>121.1263758833765</v>
+        <v>119.8274103386308</v>
       </c>
       <c r="H39" t="n">
-        <v>131.3239462078705</v>
+        <v>107.9893752433713</v>
       </c>
       <c r="I39" t="n">
-        <v>132.4285874906722</v>
+        <v>108.668296765129</v>
       </c>
       <c r="J39" t="n">
-        <v>119.5944308331108</v>
+        <v>98.89465320289568</v>
       </c>
       <c r="K39" t="n">
-        <v>133.4749063275629</v>
+        <v>61.39346454751674</v>
       </c>
       <c r="L39" t="n">
-        <v>161.6020698414378</v>
+        <v>164.0012208293087</v>
       </c>
       <c r="M39" t="n">
-        <v>141.8356095505464</v>
+        <v>102.3647911585425</v>
       </c>
       <c r="N39" t="n">
-        <v>125.857148686846</v>
+        <v>120.8263370957705</v>
       </c>
     </row>
     <row r="40">
@@ -2206,40 +2207,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>135.1049241112111</v>
+        <v>135.2874218527521</v>
       </c>
       <c r="D40" t="n">
-        <v>108.4076759211348</v>
+        <v>107.820917181241</v>
       </c>
       <c r="E40" t="n">
-        <v>121.972712481879</v>
+        <v>122.6192918379111</v>
       </c>
       <c r="F40" t="n">
-        <v>118.8113286444329</v>
+        <v>120.946869578183</v>
       </c>
       <c r="G40" t="n">
-        <v>120.2065300651235</v>
+        <v>121.4049664014148</v>
       </c>
       <c r="H40" t="n">
-        <v>126.2847024733947</v>
+        <v>126.2441685877364</v>
       </c>
       <c r="I40" t="n">
-        <v>117.9541449547</v>
+        <v>116.0598359846989</v>
       </c>
       <c r="J40" t="n">
-        <v>112.3755698620748</v>
+        <v>107.9156852874676</v>
       </c>
       <c r="K40" t="n">
-        <v>112.622151114417</v>
+        <v>108.1725372650207</v>
       </c>
       <c r="L40" t="n">
-        <v>138.6437536104062</v>
+        <v>138.7905161059762</v>
       </c>
       <c r="M40" t="n">
-        <v>125.5800187113083</v>
+        <v>124.9687569246703</v>
       </c>
       <c r="N40" t="n">
-        <v>119.0501364561988</v>
+        <v>116.4382985118499</v>
       </c>
     </row>
     <row r="41">
@@ -2250,40 +2251,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>89.00909002548612</v>
+        <v>89.80363718167685</v>
       </c>
       <c r="D41" t="n">
-        <v>86.78792572649344</v>
+        <v>87.36132301156103</v>
       </c>
       <c r="E41" t="n">
-        <v>101.9864744472395</v>
+        <v>101.8239136273229</v>
       </c>
       <c r="F41" t="n">
-        <v>121.4386033763069</v>
+        <v>122.5257604003334</v>
       </c>
       <c r="G41" t="n">
-        <v>100.9145292766046</v>
+        <v>101.4281231715716</v>
       </c>
       <c r="H41" t="n">
-        <v>102.8211749490978</v>
+        <v>104.8785468787321</v>
       </c>
       <c r="I41" t="n">
-        <v>95.76051886244905</v>
+        <v>96.20895925469856</v>
       </c>
       <c r="J41" t="n">
-        <v>82.23182471562939</v>
+        <v>84.12780934124844</v>
       </c>
       <c r="K41" t="n">
-        <v>89.32771140882672</v>
+        <v>91.3562025887294</v>
       </c>
       <c r="L41" t="n">
-        <v>109.0884845138549</v>
+        <v>110.5852096798654</v>
       </c>
       <c r="M41" t="n">
-        <v>109.1785400451444</v>
+        <v>109.5327276740682</v>
       </c>
       <c r="N41" t="n">
-        <v>114.2454088832739</v>
+        <v>112.4588257757758</v>
       </c>
     </row>
     <row r="42">
@@ -2294,40 +2295,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>120.8416946842388</v>
+        <v>119.3181300455449</v>
       </c>
       <c r="D42" t="n">
-        <v>112.9350520245799</v>
+        <v>112.2113280346182</v>
       </c>
       <c r="E42" t="n">
-        <v>126.9098451630593</v>
+        <v>124.8811556986633</v>
       </c>
       <c r="F42" t="n">
-        <v>94.43725425272129</v>
+        <v>94.06301584256218</v>
       </c>
       <c r="G42" t="n">
-        <v>125.6213986936816</v>
+        <v>125.7255351589597</v>
       </c>
       <c r="H42" t="n">
-        <v>100.3673183360529</v>
+        <v>88.99628244526356</v>
       </c>
       <c r="I42" t="n">
-        <v>109.6105192726963</v>
+        <v>107.731454283681</v>
       </c>
       <c r="J42" t="n">
-        <v>110.9938317132928</v>
+        <v>110.3097819788623</v>
       </c>
       <c r="K42" t="n">
-        <v>122.1250417228347</v>
+        <v>118.1649291586539</v>
       </c>
       <c r="L42" t="n">
-        <v>117.3347881156251</v>
+        <v>116.1782958267853</v>
       </c>
       <c r="M42" t="n">
-        <v>133.3969832224403</v>
+        <v>127.9364103497886</v>
       </c>
       <c r="N42" t="n">
-        <v>121.0457834787225</v>
+        <v>120.7779581689243</v>
       </c>
     </row>
     <row r="43">
@@ -2338,40 +2339,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>147.3241429137702</v>
+        <v>141.5927243094812</v>
       </c>
       <c r="D43" t="n">
-        <v>117.8128998170449</v>
+        <v>111.1487171749245</v>
       </c>
       <c r="E43" t="n">
-        <v>134.3095462373524</v>
+        <v>131.9100143003169</v>
       </c>
       <c r="F43" t="n">
-        <v>127.7580506631408</v>
+        <v>125.2090132841419</v>
       </c>
       <c r="G43" t="n">
-        <v>132.0090128679059</v>
+        <v>132.3731586563977</v>
       </c>
       <c r="H43" t="n">
-        <v>141.010099801452</v>
+        <v>144.8231055104373</v>
       </c>
       <c r="I43" t="n">
-        <v>126.6393977195655</v>
+        <v>127.6878066376967</v>
       </c>
       <c r="J43" t="n">
-        <v>117.0880941037128</v>
+        <v>121.8947089998364</v>
       </c>
       <c r="K43" t="n">
-        <v>127.1786178699764</v>
+        <v>132.8866898882787</v>
       </c>
       <c r="L43" t="n">
-        <v>151.9459876542835</v>
+        <v>154.7884337137289</v>
       </c>
       <c r="M43" t="n">
-        <v>137.0379997188255</v>
+        <v>135.9925414203551</v>
       </c>
       <c r="N43" t="n">
-        <v>133.4917114388272</v>
+        <v>135.0393820190255</v>
       </c>
     </row>
     <row r="44">
@@ -2382,40 +2383,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>118.1435967277207</v>
+        <v>116.7443917681974</v>
       </c>
       <c r="D44" t="n">
-        <v>135.2814747270664</v>
+        <v>137.4100692132293</v>
       </c>
       <c r="E44" t="n">
-        <v>129.6441190673782</v>
+        <v>129.0470758779236</v>
       </c>
       <c r="F44" t="n">
-        <v>135.1435521350558</v>
+        <v>135.5398080320123</v>
       </c>
       <c r="G44" t="n">
-        <v>123.6459105948095</v>
+        <v>124.1372625600496</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5634279932668</v>
+        <v>136.276566447672</v>
       </c>
       <c r="I44" t="n">
-        <v>119.3035270108152</v>
+        <v>118.8135178613477</v>
       </c>
       <c r="J44" t="n">
-        <v>111.2652598775072</v>
+        <v>110.3071804414889</v>
       </c>
       <c r="K44" t="n">
-        <v>120.5653441652987</v>
+        <v>118.5675304062086</v>
       </c>
       <c r="L44" t="n">
-        <v>118.7203486850444</v>
+        <v>120.8969128164523</v>
       </c>
       <c r="M44" t="n">
-        <v>115.8282024056908</v>
+        <v>115.1765440651397</v>
       </c>
       <c r="N44" t="n">
-        <v>142.2502440162354</v>
+        <v>141.24840305995</v>
       </c>
     </row>
     <row r="45">
@@ -2426,40 +2427,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>91.76217254264434</v>
+        <v>78.73835409903691</v>
       </c>
       <c r="D45" t="n">
-        <v>97.08863186396681</v>
+        <v>98.33638033006606</v>
       </c>
       <c r="E45" t="n">
-        <v>104.2824108120717</v>
+        <v>105.1948469802264</v>
       </c>
       <c r="F45" t="n">
-        <v>112.4482200302491</v>
+        <v>113.3367367388208</v>
       </c>
       <c r="G45" t="n">
-        <v>104.200918339216</v>
+        <v>105.2364820017828</v>
       </c>
       <c r="H45" t="n">
-        <v>116.8860661865585</v>
+        <v>118.3082727457315</v>
       </c>
       <c r="I45" t="n">
-        <v>101.9654574436078</v>
+        <v>103.1880433451029</v>
       </c>
       <c r="J45" t="n">
-        <v>95.8434600201272</v>
+        <v>96.81250189015134</v>
       </c>
       <c r="K45" t="n">
-        <v>109.1670565639327</v>
+        <v>109.2924663847095</v>
       </c>
       <c r="L45" t="n">
-        <v>108.0785949935959</v>
+        <v>108.6234293648168</v>
       </c>
       <c r="M45" t="n">
-        <v>118.2002381568932</v>
+        <v>119.5035326582111</v>
       </c>
       <c r="N45" t="n">
-        <v>119.635373614794</v>
+        <v>117.8664478050012</v>
       </c>
     </row>
     <row r="46">
@@ -2470,40 +2471,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>118.9873083158397</v>
+        <v>118.9858111456047</v>
       </c>
       <c r="D46" t="n">
-        <v>99.94766655685541</v>
+        <v>99.98714720406583</v>
       </c>
       <c r="E46" t="n">
-        <v>116.3558065949761</v>
+        <v>116.4343814021358</v>
       </c>
       <c r="F46" t="n">
-        <v>115.4905105343791</v>
+        <v>115.5678013100174</v>
       </c>
       <c r="G46" t="n">
-        <v>112.8074310250012</v>
+        <v>112.8435131735491</v>
       </c>
       <c r="H46" t="n">
-        <v>113.3358169571773</v>
+        <v>114.8622076148243</v>
       </c>
       <c r="I46" t="n">
-        <v>108.9789521040742</v>
+        <v>109.1810226023609</v>
       </c>
       <c r="J46" t="n">
-        <v>107.4499765458663</v>
+        <v>107.4781068480408</v>
       </c>
       <c r="K46" t="n">
-        <v>115.3437322023629</v>
+        <v>115.3207825084863</v>
       </c>
       <c r="L46" t="n">
-        <v>107.3560853215753</v>
+        <v>107.3673166998452</v>
       </c>
       <c r="M46" t="n">
-        <v>108.7014770534385</v>
+        <v>109.4968089515392</v>
       </c>
       <c r="N46" t="n">
-        <v>100.4577766223789</v>
+        <v>100.5934347885678</v>
       </c>
     </row>
     <row r="47">
@@ -2514,40 +2515,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>135.8764187210693</v>
+        <v>138.5854918343471</v>
       </c>
       <c r="D47" t="n">
-        <v>110.7055039848316</v>
+        <v>112.9127210862049</v>
       </c>
       <c r="E47" t="n">
-        <v>125.0299074137643</v>
+        <v>127.5227196365719</v>
       </c>
       <c r="F47" t="n">
-        <v>121.0635765393865</v>
+        <v>123.4773089183219</v>
       </c>
       <c r="G47" t="n">
-        <v>117.0557397435041</v>
+        <v>119.3895653621939</v>
       </c>
       <c r="H47" t="n">
-        <v>134.8245945600003</v>
+        <v>137.5126905643468</v>
       </c>
       <c r="I47" t="n">
-        <v>122.4363121641367</v>
+        <v>124.8774140128721</v>
       </c>
       <c r="J47" t="n">
-        <v>108.5549735166934</v>
+        <v>110.7193129511834</v>
       </c>
       <c r="K47" t="n">
-        <v>100.3803305489452</v>
+        <v>102.3816862010233</v>
       </c>
       <c r="L47" t="n">
-        <v>113.1644129231393</v>
+        <v>115.4206541206281</v>
       </c>
       <c r="M47" t="n">
-        <v>124.0797193297788</v>
+        <v>126.5535869393516</v>
       </c>
       <c r="N47" t="n">
-        <v>135.3636133225559</v>
+        <v>138.0624561507942</v>
       </c>
     </row>
     <row r="48">
@@ -2558,40 +2559,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>117.360587695136</v>
+        <v>117.9470123088312</v>
       </c>
       <c r="D48" t="n">
-        <v>122.9462633283567</v>
+        <v>120.4794610777569</v>
       </c>
       <c r="E48" t="n">
-        <v>132.2896931984806</v>
+        <v>131.6012130852731</v>
       </c>
       <c r="F48" t="n">
-        <v>125.5388295372216</v>
+        <v>124.8549614076867</v>
       </c>
       <c r="G48" t="n">
-        <v>126.4505167547526</v>
+        <v>124.9239659524418</v>
       </c>
       <c r="H48" t="n">
-        <v>136.0163416172595</v>
+        <v>134.6123476734616</v>
       </c>
       <c r="I48" t="n">
-        <v>123.9510034833904</v>
+        <v>122.832879661761</v>
       </c>
       <c r="J48" t="n">
-        <v>120.9996390940072</v>
+        <v>118.4301052473282</v>
       </c>
       <c r="K48" t="n">
-        <v>116.9063289465355</v>
+        <v>116.3604224636597</v>
       </c>
       <c r="L48" t="n">
-        <v>125.0336700931254</v>
+        <v>124.7116218021513</v>
       </c>
       <c r="M48" t="n">
-        <v>126.8890720515278</v>
+        <v>126.471913251468</v>
       </c>
       <c r="N48" t="n">
-        <v>134.0971106106209</v>
+        <v>134.0887717793286</v>
       </c>
     </row>
     <row r="49">
@@ -2602,40 +2603,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>134.0693313268137</v>
+        <v>147.4316285930082</v>
       </c>
       <c r="D49" t="n">
-        <v>119.3014746855182</v>
+        <v>135.1146911123744</v>
       </c>
       <c r="E49" t="n">
-        <v>132.3794039390302</v>
+        <v>134.9508193743225</v>
       </c>
       <c r="F49" t="n">
-        <v>133.2673666042687</v>
+        <v>119.5835166186312</v>
       </c>
       <c r="G49" t="n">
-        <v>119.8390041311335</v>
+        <v>121.2675436143441</v>
       </c>
       <c r="H49" t="n">
-        <v>129.1744375755663</v>
+        <v>122.6099919279752</v>
       </c>
       <c r="I49" t="n">
-        <v>119.8609321676934</v>
+        <v>134.0994188648385</v>
       </c>
       <c r="J49" t="n">
-        <v>114.5429300192406</v>
+        <v>104.625154857603</v>
       </c>
       <c r="K49" t="n">
-        <v>110.9734446030345</v>
+        <v>103.0892099212833</v>
       </c>
       <c r="L49" t="n">
-        <v>118.2077472392108</v>
+        <v>112.5128458505386</v>
       </c>
       <c r="M49" t="n">
-        <v>120.2017059356904</v>
+        <v>110.3373637133177</v>
       </c>
       <c r="N49" t="n">
-        <v>126.355285177567</v>
+        <v>131.6853570957601</v>
       </c>
     </row>
     <row r="50">
@@ -2648,40 +2649,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>132.8770912405795</v>
+        <v>132.0106036402915</v>
       </c>
       <c r="D50" t="n">
-        <v>134.6347040071693</v>
+        <v>116.3242139395389</v>
       </c>
       <c r="E50" t="n">
-        <v>142.3144263931258</v>
+        <v>142.7572343587532</v>
       </c>
       <c r="F50" t="n">
-        <v>133.265623406064</v>
+        <v>126.9663671552053</v>
       </c>
       <c r="G50" t="n">
-        <v>130.9700325243875</v>
+        <v>130.0596552330661</v>
       </c>
       <c r="H50" t="n">
-        <v>180.563244925724</v>
+        <v>185.7996262480749</v>
       </c>
       <c r="I50" t="n">
-        <v>142.9315078875693</v>
+        <v>150.4355064779919</v>
       </c>
       <c r="J50" t="n">
-        <v>120.6170978393332</v>
+        <v>120.2907341329456</v>
       </c>
       <c r="K50" t="n">
-        <v>133.2766430159205</v>
+        <v>144.2921074988379</v>
       </c>
       <c r="L50" t="n">
-        <v>129.8272926716902</v>
+        <v>114.1903949544811</v>
       </c>
       <c r="M50" t="n">
-        <v>129.7047943088068</v>
+        <v>128.256337987636</v>
       </c>
       <c r="N50" t="n">
-        <v>130.2807091234463</v>
+        <v>125.745717613571</v>
       </c>
     </row>
     <row r="51">
@@ -2692,40 +2693,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>140.2719436127885</v>
+        <v>116.5354603994093</v>
       </c>
       <c r="D51" t="n">
-        <v>135.1237116513934</v>
+        <v>134.2719985117463</v>
       </c>
       <c r="E51" t="n">
-        <v>160.2615103029073</v>
+        <v>160.9093756490498</v>
       </c>
       <c r="F51" t="n">
-        <v>147.4612256434298</v>
+        <v>146.5575712379034</v>
       </c>
       <c r="G51" t="n">
-        <v>127.6945521606181</v>
+        <v>126.5211969771975</v>
       </c>
       <c r="H51" t="n">
-        <v>154.3739560433615</v>
+        <v>148.9295620026431</v>
       </c>
       <c r="I51" t="n">
-        <v>144.822991853248</v>
+        <v>120.9677483007305</v>
       </c>
       <c r="J51" t="n">
-        <v>122.9914759767583</v>
+        <v>107.5346470966756</v>
       </c>
       <c r="K51" t="n">
-        <v>144.9726370039508</v>
+        <v>101.8999782380662</v>
       </c>
       <c r="L51" t="n">
-        <v>137.2823868017959</v>
+        <v>139.349627388367</v>
       </c>
       <c r="M51" t="n">
-        <v>158.7016973405313</v>
+        <v>129.2323169084478</v>
       </c>
       <c r="N51" t="n">
-        <v>132.6559800472446</v>
+        <v>127.0424444224631</v>
       </c>
     </row>
     <row r="52">
@@ -2736,40 +2737,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>144.7678628589529</v>
+        <v>144.5327167985076</v>
       </c>
       <c r="D52" t="n">
-        <v>127.0969793737399</v>
+        <v>125.7081812287637</v>
       </c>
       <c r="E52" t="n">
-        <v>133.2576557372961</v>
+        <v>135.5727743218314</v>
       </c>
       <c r="F52" t="n">
-        <v>139.9875912364893</v>
+        <v>142.6779328523895</v>
       </c>
       <c r="G52" t="n">
-        <v>131.5841174673858</v>
+        <v>133.2598794836957</v>
       </c>
       <c r="H52" t="n">
-        <v>136.286944362875</v>
+        <v>137.3561124954855</v>
       </c>
       <c r="I52" t="n">
-        <v>124.4722884679792</v>
+        <v>124.3397053056983</v>
       </c>
       <c r="J52" t="n">
-        <v>112.4706068150918</v>
+        <v>105.2276538868917</v>
       </c>
       <c r="K52" t="n">
-        <v>112.2086569887717</v>
+        <v>106.5186562195957</v>
       </c>
       <c r="L52" t="n">
-        <v>128.6765389978951</v>
+        <v>128.5017901951663</v>
       </c>
       <c r="M52" t="n">
-        <v>136.4687247693724</v>
+        <v>135.4161879239536</v>
       </c>
       <c r="N52" t="n">
-        <v>124.1881224637114</v>
+        <v>121.7013593372338</v>
       </c>
     </row>
     <row r="53">
@@ -2780,40 +2781,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>96.86052164634914</v>
+        <v>97.99636174919739</v>
       </c>
       <c r="D53" t="n">
-        <v>92.19090243356486</v>
+        <v>92.99221789048971</v>
       </c>
       <c r="E53" t="n">
-        <v>111.4490758806914</v>
+        <v>111.1489834151134</v>
       </c>
       <c r="F53" t="n">
-        <v>147.6011029408063</v>
+        <v>149.3499075072202</v>
       </c>
       <c r="G53" t="n">
-        <v>109.1585298839701</v>
+        <v>109.4695971915421</v>
       </c>
       <c r="H53" t="n">
-        <v>110.0736778201397</v>
+        <v>112.3752214491128</v>
       </c>
       <c r="I53" t="n">
-        <v>100.3875628202511</v>
+        <v>100.5563413645576</v>
       </c>
       <c r="J53" t="n">
-        <v>85.80293163459693</v>
+        <v>87.90590295120117</v>
       </c>
       <c r="K53" t="n">
-        <v>94.85805492547986</v>
+        <v>96.98145391956216</v>
       </c>
       <c r="L53" t="n">
-        <v>117.5716858507499</v>
+        <v>119.4654243266804</v>
       </c>
       <c r="M53" t="n">
-        <v>114.6832434081366</v>
+        <v>114.9078211245136</v>
       </c>
       <c r="N53" t="n">
-        <v>122.3231320291945</v>
+        <v>119.8228154535189</v>
       </c>
     </row>
     <row r="54">
@@ -2824,40 +2825,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>129.8344448645103</v>
+        <v>128.3026075549834</v>
       </c>
       <c r="D54" t="n">
-        <v>128.2634059604107</v>
+        <v>128.1999519364965</v>
       </c>
       <c r="E54" t="n">
-        <v>141.9069908969203</v>
+        <v>140.1187975994458</v>
       </c>
       <c r="F54" t="n">
-        <v>104.8832082704587</v>
+        <v>104.6816678216134</v>
       </c>
       <c r="G54" t="n">
-        <v>138.7861082925424</v>
+        <v>138.9178705447303</v>
       </c>
       <c r="H54" t="n">
-        <v>112.9621364522999</v>
+        <v>100.597923691277</v>
       </c>
       <c r="I54" t="n">
-        <v>116.9762900398529</v>
+        <v>115.518296099324</v>
       </c>
       <c r="J54" t="n">
-        <v>112.9179491385406</v>
+        <v>112.3996336702558</v>
       </c>
       <c r="K54" t="n">
-        <v>128.7921787462077</v>
+        <v>124.4655132036564</v>
       </c>
       <c r="L54" t="n">
-        <v>111.3366147161989</v>
+        <v>110.3949783459707</v>
       </c>
       <c r="M54" t="n">
-        <v>135.6523521513459</v>
+        <v>130.4683800475545</v>
       </c>
       <c r="N54" t="n">
-        <v>130.3841442425332</v>
+        <v>130.1864618626268</v>
       </c>
     </row>
     <row r="55">
@@ -2868,40 +2869,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>158.9130060492007</v>
+        <v>152.2430735855495</v>
       </c>
       <c r="D55" t="n">
-        <v>137.2329738352296</v>
+        <v>128.0615203218013</v>
       </c>
       <c r="E55" t="n">
-        <v>147.8910042889278</v>
+        <v>144.1430261255781</v>
       </c>
       <c r="F55" t="n">
-        <v>151.215807349245</v>
+        <v>149.0012245199359</v>
       </c>
       <c r="G55" t="n">
-        <v>146.7807470003535</v>
+        <v>146.3395643073077</v>
       </c>
       <c r="H55" t="n">
-        <v>153.8628869364806</v>
+        <v>156.0623813782834</v>
       </c>
       <c r="I55" t="n">
-        <v>135.5900007835363</v>
+        <v>134.0282666008939</v>
       </c>
       <c r="J55" t="n">
-        <v>118.050967842694</v>
+        <v>124.1020688011272</v>
       </c>
       <c r="K55" t="n">
-        <v>126.795427078865</v>
+        <v>132.035712419161</v>
       </c>
       <c r="L55" t="n">
-        <v>144.4932214037579</v>
+        <v>150.1333265664764</v>
       </c>
       <c r="M55" t="n">
-        <v>150.4818825633395</v>
+        <v>150.9817772123925</v>
       </c>
       <c r="N55" t="n">
-        <v>141.6855255424069</v>
+        <v>143.7050147978423</v>
       </c>
     </row>
     <row r="56">
@@ -2912,40 +2913,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>127.1434223180936</v>
+        <v>125.7257341409694</v>
       </c>
       <c r="D56" t="n">
-        <v>148.8441922910861</v>
+        <v>145.1795500289388</v>
       </c>
       <c r="E56" t="n">
-        <v>143.1540485953201</v>
+        <v>142.1137889539952</v>
       </c>
       <c r="F56" t="n">
-        <v>144.9309655092376</v>
+        <v>145.3899040771212</v>
       </c>
       <c r="G56" t="n">
-        <v>134.2968401597452</v>
+        <v>134.9152975741757</v>
       </c>
       <c r="H56" t="n">
-        <v>151.7804393797816</v>
+        <v>150.5606315239704</v>
       </c>
       <c r="I56" t="n">
-        <v>129.3212688529812</v>
+        <v>129.4929848613642</v>
       </c>
       <c r="J56" t="n">
-        <v>115.1753369372084</v>
+        <v>113.5057014789852</v>
       </c>
       <c r="K56" t="n">
-        <v>123.1212081079332</v>
+        <v>120.3569224359795</v>
       </c>
       <c r="L56" t="n">
-        <v>120.9201135627905</v>
+        <v>123.5470811607426</v>
       </c>
       <c r="M56" t="n">
-        <v>120.8269238502572</v>
+        <v>119.7513046996062</v>
       </c>
       <c r="N56" t="n">
-        <v>150.8287810772697</v>
+        <v>150.0838723290879</v>
       </c>
     </row>
     <row r="57">
@@ -2956,40 +2957,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>80.88858861854038</v>
+        <v>60.9000536571403</v>
       </c>
       <c r="D57" t="n">
-        <v>106.2991343807479</v>
+        <v>107.5448055846647</v>
       </c>
       <c r="E57" t="n">
-        <v>106.5006438936592</v>
+        <v>107.6130323763158</v>
       </c>
       <c r="F57" t="n">
-        <v>131.656863543203</v>
+        <v>132.6170264143057</v>
       </c>
       <c r="G57" t="n">
-        <v>105.7213331120803</v>
+        <v>107.0236148892573</v>
       </c>
       <c r="H57" t="n">
-        <v>120.5721418204884</v>
+        <v>121.8948500296775</v>
       </c>
       <c r="I57" t="n">
-        <v>101.1113303136664</v>
+        <v>102.3022441715288</v>
       </c>
       <c r="J57" t="n">
-        <v>95.21537324689214</v>
+        <v>96.28256903793989</v>
       </c>
       <c r="K57" t="n">
-        <v>108.8924076560991</v>
+        <v>108.9801218225966</v>
       </c>
       <c r="L57" t="n">
-        <v>118.5453732222295</v>
+        <v>119.0887769298094</v>
       </c>
       <c r="M57" t="n">
-        <v>123.2116041426154</v>
+        <v>124.0839270514736</v>
       </c>
       <c r="N57" t="n">
-        <v>124.4670754427884</v>
+        <v>122.7072949060306</v>
       </c>
     </row>
     <row r="58">
@@ -3000,40 +3001,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>133.3852035342491</v>
+        <v>133.3703475002539</v>
       </c>
       <c r="D58" t="n">
-        <v>112.6382669235491</v>
+        <v>112.6882535505225</v>
       </c>
       <c r="E58" t="n">
-        <v>124.2234606255848</v>
+        <v>124.1691746685092</v>
       </c>
       <c r="F58" t="n">
-        <v>125.1343575608886</v>
+        <v>125.0425652310382</v>
       </c>
       <c r="G58" t="n">
-        <v>125.4249155981695</v>
+        <v>125.262991712051</v>
       </c>
       <c r="H58" t="n">
-        <v>125.9584011348067</v>
+        <v>125.7027393149761</v>
       </c>
       <c r="I58" t="n">
-        <v>118.8381257648704</v>
+        <v>118.6121968995507</v>
       </c>
       <c r="J58" t="n">
-        <v>117.0796166653048</v>
+        <v>116.3560829915479</v>
       </c>
       <c r="K58" t="n">
-        <v>125.5976273406196</v>
+        <v>125.4356904691631</v>
       </c>
       <c r="L58" t="n">
-        <v>130.1585355402777</v>
+        <v>130.0315369625783</v>
       </c>
       <c r="M58" t="n">
-        <v>121.8263465778303</v>
+        <v>121.1050722556134</v>
       </c>
       <c r="N58" t="n">
-        <v>116.3091587313084</v>
+        <v>116.3367750118316</v>
       </c>
     </row>
     <row r="59">
@@ -3044,40 +3045,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>114.7338435154651</v>
+        <v>119.1432171257096</v>
       </c>
       <c r="D59" t="n">
-        <v>143.8962368233043</v>
+        <v>149.4263547780793</v>
       </c>
       <c r="E59" t="n">
-        <v>140.033372640992</v>
+        <v>145.4150346779011</v>
       </c>
       <c r="F59" t="n">
-        <v>147.5950675731427</v>
+        <v>153.2673348815046</v>
       </c>
       <c r="G59" t="n">
-        <v>134.9486949968042</v>
+        <v>140.1349464812137</v>
       </c>
       <c r="H59" t="n">
-        <v>150.1368219543052</v>
+        <v>155.9067724725389</v>
       </c>
       <c r="I59" t="n">
-        <v>130.9648062244731</v>
+        <v>135.9979516525717</v>
       </c>
       <c r="J59" t="n">
-        <v>112.4762923777608</v>
+        <v>116.7989004347473</v>
       </c>
       <c r="K59" t="n">
-        <v>103.4788382844994</v>
+        <v>107.4556626741486</v>
       </c>
       <c r="L59" t="n">
-        <v>141.5588412275773</v>
+        <v>146.9991289422421</v>
       </c>
       <c r="M59" t="n">
-        <v>137.2560808003457</v>
+        <v>142.5310079216993</v>
       </c>
       <c r="N59" t="n">
-        <v>141.8265445447728</v>
+        <v>147.2771204780451</v>
       </c>
     </row>
     <row r="60">
@@ -3088,40 +3089,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>119.4632735186241</v>
+        <v>120.5990666593505</v>
       </c>
       <c r="D60" t="n">
-        <v>145.5118059423045</v>
+        <v>138.4396770919962</v>
       </c>
       <c r="E60" t="n">
-        <v>145.1621464879499</v>
+        <v>143.4755448409253</v>
       </c>
       <c r="F60" t="n">
-        <v>148.0260071971981</v>
+        <v>146.3601715711279</v>
       </c>
       <c r="G60" t="n">
-        <v>139.4344612995068</v>
+        <v>136.7484740907717</v>
       </c>
       <c r="H60" t="n">
-        <v>151.879014029135</v>
+        <v>150.2109794728742</v>
       </c>
       <c r="I60" t="n">
-        <v>131.9592933689041</v>
+        <v>130.4313056974338</v>
       </c>
       <c r="J60" t="n">
-        <v>127.811979636545</v>
+        <v>124.9022226648965</v>
       </c>
       <c r="K60" t="n">
-        <v>122.2707478173967</v>
+        <v>121.8211288759004</v>
       </c>
       <c r="L60" t="n">
-        <v>146.6885931965335</v>
+        <v>146.2220648324442</v>
       </c>
       <c r="M60" t="n">
-        <v>140.4792955137987</v>
+        <v>140.3553608308578</v>
       </c>
       <c r="N60" t="n">
-        <v>143.3319757589326</v>
+        <v>143.5030982108053</v>
       </c>
     </row>
     <row r="61">
@@ -3132,40 +3133,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>112.9648278650737</v>
+        <v>113.0375766453291</v>
       </c>
       <c r="D61" t="n">
-        <v>131.4431650038341</v>
+        <v>134.9633926764446</v>
       </c>
       <c r="E61" t="n">
-        <v>130.7487133720325</v>
+        <v>130.247422782751</v>
       </c>
       <c r="F61" t="n">
-        <v>144.8055844842324</v>
+        <v>138.4022982092171</v>
       </c>
       <c r="G61" t="n">
-        <v>126.334609616147</v>
+        <v>128.9849459124049</v>
       </c>
       <c r="H61" t="n">
-        <v>136.4408506491301</v>
+        <v>127.4965847334703</v>
       </c>
       <c r="I61" t="n">
-        <v>118.2774833460184</v>
+        <v>121.8661892931683</v>
       </c>
       <c r="J61" t="n">
-        <v>119.31405802177</v>
+        <v>107.391146846723</v>
       </c>
       <c r="K61" t="n">
-        <v>113.389110902435</v>
+        <v>105.8420298752621</v>
       </c>
       <c r="L61" t="n">
-        <v>132.1686170047002</v>
+        <v>124.291207269102</v>
       </c>
       <c r="M61" t="n">
-        <v>128.5175508054662</v>
+        <v>116.4251113139997</v>
       </c>
       <c r="N61" t="n">
-        <v>131.5416774030677</v>
+        <v>133.7897219163334</v>
       </c>
     </row>
     <row r="62">
@@ -3178,40 +3179,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>138.1114074676154</v>
+        <v>136.784926592426</v>
       </c>
       <c r="D62" t="n">
-        <v>137.0473445185157</v>
+        <v>122.9186892938654</v>
       </c>
       <c r="E62" t="n">
-        <v>148.9689933672183</v>
+        <v>150.4673199895398</v>
       </c>
       <c r="F62" t="n">
-        <v>141.7246344505336</v>
+        <v>130.6806774651205</v>
       </c>
       <c r="G62" t="n">
-        <v>138.6367560833847</v>
+        <v>140.3860375735033</v>
       </c>
       <c r="H62" t="n">
-        <v>194.4278062818497</v>
+        <v>201.2277746619035</v>
       </c>
       <c r="I62" t="n">
-        <v>138.0774098363963</v>
+        <v>161.0472310096008</v>
       </c>
       <c r="J62" t="n">
-        <v>116.7337273411159</v>
+        <v>117.4360580109981</v>
       </c>
       <c r="K62" t="n">
-        <v>140.015202539493</v>
+        <v>159.3401380052627</v>
       </c>
       <c r="L62" t="n">
-        <v>119.2863267496746</v>
+        <v>110.479976825026</v>
       </c>
       <c r="M62" t="n">
-        <v>145.6361741760095</v>
+        <v>142.4096129180299</v>
       </c>
       <c r="N62" t="n">
-        <v>136.0186122799352</v>
+        <v>129.7859275580238</v>
       </c>
     </row>
     <row r="63">
@@ -3222,40 +3223,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>156.7195981000076</v>
+        <v>160.329302478408</v>
       </c>
       <c r="D63" t="n">
-        <v>148.0504162256691</v>
+        <v>149.9519643845229</v>
       </c>
       <c r="E63" t="n">
-        <v>121.9327546910175</v>
+        <v>122.4416904691736</v>
       </c>
       <c r="F63" t="n">
-        <v>154.4348648036881</v>
+        <v>156.4383214078304</v>
       </c>
       <c r="G63" t="n">
-        <v>135.1851010279212</v>
+        <v>135.8240760757686</v>
       </c>
       <c r="H63" t="n">
-        <v>160.5773349241842</v>
+        <v>153.889041863752</v>
       </c>
       <c r="I63" t="n">
-        <v>143.9583889941362</v>
+        <v>129.6376217446648</v>
       </c>
       <c r="J63" t="n">
-        <v>119.2309805750946</v>
+        <v>103.3390307011415</v>
       </c>
       <c r="K63" t="n">
-        <v>143.4985870472731</v>
+        <v>85.8676276498949</v>
       </c>
       <c r="L63" t="n">
-        <v>137.5367743189305</v>
+        <v>142.3367338801453</v>
       </c>
       <c r="M63" t="n">
-        <v>151.8904152257169</v>
+        <v>115.4372240641265</v>
       </c>
       <c r="N63" t="n">
-        <v>136.7289032782072</v>
+        <v>145.6376629873787</v>
       </c>
     </row>
     <row r="64">
@@ -3266,40 +3267,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>165.6844130224733</v>
+        <v>165.2668164867252</v>
       </c>
       <c r="D64" t="n">
-        <v>138.243092690323</v>
+        <v>133.858895912799</v>
       </c>
       <c r="E64" t="n">
-        <v>143.8946984070841</v>
+        <v>144.5020857542659</v>
       </c>
       <c r="F64" t="n">
-        <v>155.5383059737942</v>
+        <v>156.2733482190546</v>
       </c>
       <c r="G64" t="n">
-        <v>134.3983279430511</v>
+        <v>134.6776862482806</v>
       </c>
       <c r="H64" t="n">
-        <v>151.0114908909339</v>
+        <v>150.7773619871115</v>
       </c>
       <c r="I64" t="n">
-        <v>134.6402141367048</v>
+        <v>137.9707557501987</v>
       </c>
       <c r="J64" t="n">
-        <v>120.0036090894874</v>
+        <v>107.5220644755685</v>
       </c>
       <c r="K64" t="n">
-        <v>124.8405250411834</v>
+        <v>117.4502530831041</v>
       </c>
       <c r="L64" t="n">
-        <v>124.0747446647737</v>
+        <v>122.8794525942049</v>
       </c>
       <c r="M64" t="n">
-        <v>146.2720593959282</v>
+        <v>147.7556925372932</v>
       </c>
       <c r="N64" t="n">
-        <v>128.4374693208038</v>
+        <v>125.1590474566588</v>
       </c>
     </row>
     <row r="65">
@@ -3310,40 +3311,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>132.1142101495084</v>
+        <v>132.5357886239784</v>
       </c>
       <c r="D65" t="n">
-        <v>112.7640893054911</v>
+        <v>113.2767719567081</v>
       </c>
       <c r="E65" t="n">
-        <v>136.9757168147007</v>
+        <v>137.0467293623069</v>
       </c>
       <c r="F65" t="n">
-        <v>166.3932993165357</v>
+        <v>167.0274958108951</v>
       </c>
       <c r="G65" t="n">
-        <v>128.3844866865223</v>
+        <v>128.541801286304</v>
       </c>
       <c r="H65" t="n">
-        <v>148.4629825834915</v>
+        <v>150.4051760125688</v>
       </c>
       <c r="I65" t="n">
-        <v>117.0850227267136</v>
+        <v>117.4312930857203</v>
       </c>
       <c r="J65" t="n">
-        <v>107.2170039017423</v>
+        <v>108.4856577912486</v>
       </c>
       <c r="K65" t="n">
-        <v>128.085471714474</v>
+        <v>129.8693306592006</v>
       </c>
       <c r="L65" t="n">
-        <v>131.7291062971774</v>
+        <v>133.7290388559581</v>
       </c>
       <c r="M65" t="n">
-        <v>139.3793213094096</v>
+        <v>140.1443485751056</v>
       </c>
       <c r="N65" t="n">
-        <v>139.45334957152</v>
+        <v>139.1522756124113</v>
       </c>
     </row>
     <row r="66">
@@ -3354,40 +3355,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>139.0072531633467</v>
+        <v>137.1792279877527</v>
       </c>
       <c r="D66" t="n">
-        <v>133.3098234250604</v>
+        <v>133.4626613323301</v>
       </c>
       <c r="E66" t="n">
-        <v>156.4314278456123</v>
+        <v>154.2264771619792</v>
       </c>
       <c r="F66" t="n">
-        <v>115.3201581027774</v>
+        <v>114.5743090588434</v>
       </c>
       <c r="G66" t="n">
-        <v>145.5229501056659</v>
+        <v>145.6577529814878</v>
       </c>
       <c r="H66" t="n">
-        <v>124.3866135052184</v>
+        <v>107.9202111614369</v>
       </c>
       <c r="I66" t="n">
-        <v>124.1531620709661</v>
+        <v>123.1206584266497</v>
       </c>
       <c r="J66" t="n">
-        <v>111.9134661701116</v>
+        <v>111.2519461582888</v>
       </c>
       <c r="K66" t="n">
-        <v>143.8463476837911</v>
+        <v>137.9614234991803</v>
       </c>
       <c r="L66" t="n">
-        <v>110.9353871650148</v>
+        <v>109.5738638793746</v>
       </c>
       <c r="M66" t="n">
-        <v>140.8305924409264</v>
+        <v>134.7208134308699</v>
       </c>
       <c r="N66" t="n">
-        <v>136.9341131925845</v>
+        <v>136.309164680466</v>
       </c>
     </row>
     <row r="67">
@@ -3398,40 +3399,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>186.9556855786558</v>
+        <v>180.6336562439946</v>
       </c>
       <c r="D67" t="n">
-        <v>155.0156391722101</v>
+        <v>142.4894096833214</v>
       </c>
       <c r="E67" t="n">
-        <v>164.140411026481</v>
+        <v>163.1042864763075</v>
       </c>
       <c r="F67" t="n">
-        <v>173.3303308161598</v>
+        <v>170.5440897019381</v>
       </c>
       <c r="G67" t="n">
-        <v>155.8476251028574</v>
+        <v>166.1037199152741</v>
       </c>
       <c r="H67" t="n">
-        <v>178.0213189022656</v>
+        <v>185.6143367615242</v>
       </c>
       <c r="I67" t="n">
-        <v>153.6065431296028</v>
+        <v>152.5282303974747</v>
       </c>
       <c r="J67" t="n">
-        <v>119.7420418150574</v>
+        <v>128.5431315777899</v>
       </c>
       <c r="K67" t="n">
-        <v>145.6152606166759</v>
+        <v>156.8508645455668</v>
       </c>
       <c r="L67" t="n">
-        <v>144.6530656057569</v>
+        <v>158.6212962418656</v>
       </c>
       <c r="M67" t="n">
-        <v>167.7949035320864</v>
+        <v>166.3134438022419</v>
       </c>
       <c r="N67" t="n">
-        <v>151.7285022097467</v>
+        <v>154.5642386603081</v>
       </c>
     </row>
     <row r="68">
@@ -3442,40 +3443,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>137.2567572700421</v>
+        <v>133.3698261159901</v>
       </c>
       <c r="D68" t="n">
-        <v>154.990269661702</v>
+        <v>148.3647299305996</v>
       </c>
       <c r="E68" t="n">
-        <v>152.8113391850678</v>
+        <v>151.5905056523918</v>
       </c>
       <c r="F68" t="n">
-        <v>166.4599225750803</v>
+        <v>165.8217401681892</v>
       </c>
       <c r="G68" t="n">
-        <v>134.5093177675848</v>
+        <v>135.4368173222052</v>
       </c>
       <c r="H68" t="n">
-        <v>172.0659502705103</v>
+        <v>170.9138104566185</v>
       </c>
       <c r="I68" t="n">
-        <v>142.3022304704022</v>
+        <v>142.4324027111176</v>
       </c>
       <c r="J68" t="n">
-        <v>112.3201681327189</v>
+        <v>109.3323335629419</v>
       </c>
       <c r="K68" t="n">
-        <v>130.9732849561756</v>
+        <v>128.8663182384825</v>
       </c>
       <c r="L68" t="n">
-        <v>113.5174658303092</v>
+        <v>115.5522398294426</v>
       </c>
       <c r="M68" t="n">
-        <v>126.6467420091008</v>
+        <v>127.4689391598914</v>
       </c>
       <c r="N68" t="n">
-        <v>152.3144754778264</v>
+        <v>152.2970309323396</v>
       </c>
     </row>
     <row r="69">
@@ -3486,40 +3487,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>98.18681710482727</v>
+        <v>102.3641294320697</v>
       </c>
       <c r="D69" t="n">
-        <v>109.0721670647991</v>
+        <v>110.3764645378484</v>
       </c>
       <c r="E69" t="n">
-        <v>109.6319289574276</v>
+        <v>111.4906551312185</v>
       </c>
       <c r="F69" t="n">
-        <v>150.7736479249641</v>
+        <v>151.2369139248271</v>
       </c>
       <c r="G69" t="n">
-        <v>101.7008997300742</v>
+        <v>105.0619207772166</v>
       </c>
       <c r="H69" t="n">
-        <v>130.2622738002728</v>
+        <v>130.5744048276502</v>
       </c>
       <c r="I69" t="n">
-        <v>107.2846064651726</v>
+        <v>108.5918861681155</v>
       </c>
       <c r="J69" t="n">
-        <v>92.87492082023719</v>
+        <v>94.1261335920863</v>
       </c>
       <c r="K69" t="n">
-        <v>118.6010476151951</v>
+        <v>118.0695994887012</v>
       </c>
       <c r="L69" t="n">
-        <v>105.5963522317604</v>
+        <v>105.6668338083491</v>
       </c>
       <c r="M69" t="n">
-        <v>126.466421379176</v>
+        <v>126.9010517439413</v>
       </c>
       <c r="N69" t="n">
-        <v>132.5591680584093</v>
+        <v>129.5199329649257</v>
       </c>
     </row>
     <row r="70">
@@ -3530,40 +3531,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>153.0545881863207</v>
+        <v>153.02726306189</v>
       </c>
       <c r="D70" t="n">
-        <v>126.4360184248637</v>
+        <v>126.3012135873441</v>
       </c>
       <c r="E70" t="n">
-        <v>136.1952958839701</v>
+        <v>135.9758175629643</v>
       </c>
       <c r="F70" t="n">
-        <v>139.5963863407285</v>
+        <v>139.277927464737</v>
       </c>
       <c r="G70" t="n">
-        <v>142.9656777362743</v>
+        <v>142.5096737693154</v>
       </c>
       <c r="H70" t="n">
-        <v>143.5174130310632</v>
+        <v>141.8265946704094</v>
       </c>
       <c r="I70" t="n">
-        <v>132.4911872370153</v>
+        <v>131.9197224294275</v>
       </c>
       <c r="J70" t="n">
-        <v>130.807681374163</v>
+        <v>129.42475152221</v>
       </c>
       <c r="K70" t="n">
-        <v>134.4981049384276</v>
+        <v>134.2350830284365</v>
       </c>
       <c r="L70" t="n">
-        <v>159.6566523847542</v>
+        <v>159.2417284936953</v>
       </c>
       <c r="M70" t="n">
-        <v>140.1102930916608</v>
+        <v>138.0924258797592</v>
       </c>
       <c r="N70" t="n">
-        <v>149.3612693467075</v>
+        <v>149.1876294019609</v>
       </c>
     </row>
     <row r="71">
@@ -3574,40 +3575,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>104.3738384596367</v>
+        <v>108.2414415266089</v>
       </c>
       <c r="D71" t="n">
-        <v>154.1102258911067</v>
+        <v>159.9424705687285</v>
       </c>
       <c r="E71" t="n">
-        <v>149.638763857722</v>
+        <v>155.5006570885481</v>
       </c>
       <c r="F71" t="n">
-        <v>167.9792698416926</v>
+        <v>174.4370056450559</v>
       </c>
       <c r="G71" t="n">
-        <v>129.5830617502714</v>
+        <v>134.7744435622994</v>
       </c>
       <c r="H71" t="n">
-        <v>164.5278905441878</v>
+        <v>170.98137344519</v>
       </c>
       <c r="I71" t="n">
-        <v>137.7754089695005</v>
+        <v>143.16918102956</v>
       </c>
       <c r="J71" t="n">
-        <v>108.7672213241414</v>
+        <v>113.0099935741609</v>
       </c>
       <c r="K71" t="n">
-        <v>113.8829134085456</v>
+        <v>118.3437488039141</v>
       </c>
       <c r="L71" t="n">
-        <v>123.1138356442631</v>
+        <v>127.9338469127421</v>
       </c>
       <c r="M71" t="n">
-        <v>145.5352424938131</v>
+        <v>151.2446143892527</v>
       </c>
       <c r="N71" t="n">
-        <v>150.6651688232743</v>
+        <v>156.5362653872056</v>
       </c>
     </row>
     <row r="72">
@@ -3618,40 +3619,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>127.3080404178823</v>
+        <v>122.1447007383974</v>
       </c>
       <c r="D72" t="n">
-        <v>166.0305479652662</v>
+        <v>150.1686870137607</v>
       </c>
       <c r="E72" t="n">
-        <v>157.9551228714018</v>
+        <v>154.1446445525399</v>
       </c>
       <c r="F72" t="n">
-        <v>171.5272251534405</v>
+        <v>166.3976880885772</v>
       </c>
       <c r="G72" t="n">
-        <v>140.3208688105378</v>
+        <v>130.6304322671113</v>
       </c>
       <c r="H72" t="n">
-        <v>174.1311550473395</v>
+        <v>170.0331032131345</v>
       </c>
       <c r="I72" t="n">
-        <v>150.1013228696649</v>
+        <v>140.5021074177743</v>
       </c>
       <c r="J72" t="n">
-        <v>129.2117954501296</v>
+        <v>123.2358578907211</v>
       </c>
       <c r="K72" t="n">
-        <v>134.3158286634639</v>
+        <v>134.5623951247591</v>
       </c>
       <c r="L72" t="n">
-        <v>138.48335728301</v>
+        <v>137.9647895137895</v>
       </c>
       <c r="M72" t="n">
-        <v>153.8608190984511</v>
+        <v>152.5630328687571</v>
       </c>
       <c r="N72" t="n">
-        <v>147.9850430930649</v>
+        <v>148.595650290922</v>
       </c>
     </row>
     <row r="73">
@@ -3662,40 +3663,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>125.5946765103569</v>
+        <v>117.5811780004145</v>
       </c>
       <c r="D73" t="n">
-        <v>151.9844621685164</v>
+        <v>153.8730019147752</v>
       </c>
       <c r="E73" t="n">
-        <v>142.7418735947783</v>
+        <v>144.7363458260441</v>
       </c>
       <c r="F73" t="n">
-        <v>164.1234133135116</v>
+        <v>162.852670953232</v>
       </c>
       <c r="G73" t="n">
-        <v>129.207476177803</v>
+        <v>127.5609337544216</v>
       </c>
       <c r="H73" t="n">
-        <v>159.6690190702031</v>
+        <v>151.4208454166754</v>
       </c>
       <c r="I73" t="n">
-        <v>139.3589844226216</v>
+        <v>145.8328593663979</v>
       </c>
       <c r="J73" t="n">
-        <v>120.0991592586677</v>
+        <v>104.2676494432101</v>
       </c>
       <c r="K73" t="n">
-        <v>124.2197566561775</v>
+        <v>114.2917698711965</v>
       </c>
       <c r="L73" t="n">
-        <v>125.0029300991811</v>
+        <v>119.175114581303</v>
       </c>
       <c r="M73" t="n">
-        <v>141.128138157301</v>
+        <v>125.7385168576103</v>
       </c>
       <c r="N73" t="n">
-        <v>137.0455463175727</v>
+        <v>138.0804958248557</v>
       </c>
     </row>
     <row r="74">
@@ -3708,40 +3709,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>170.7141475769046</v>
+        <v>170.4630905730839</v>
       </c>
       <c r="D74" t="n">
-        <v>160.585093007653</v>
+        <v>141.156271452046</v>
       </c>
       <c r="E74" t="n">
-        <v>172.1003683782208</v>
+        <v>174.3891492752069</v>
       </c>
       <c r="F74" t="n">
-        <v>160.3035807407529</v>
+        <v>160.6488416700597</v>
       </c>
       <c r="G74" t="n">
-        <v>152.526803406936</v>
+        <v>151.3194818590204</v>
       </c>
       <c r="H74" t="n">
-        <v>229.058385768324</v>
+        <v>239.7570785649787</v>
       </c>
       <c r="I74" t="n">
-        <v>162.3037158553475</v>
+        <v>200.0689066543477</v>
       </c>
       <c r="J74" t="n">
-        <v>124.3734909468773</v>
+        <v>118.3960912637549</v>
       </c>
       <c r="K74" t="n">
-        <v>167.0281544962556</v>
+        <v>186.2408011341046</v>
       </c>
       <c r="L74" t="n">
-        <v>137.1377566839864</v>
+        <v>123.746964229857</v>
       </c>
       <c r="M74" t="n">
-        <v>186.7635688999952</v>
+        <v>181.5140598401481</v>
       </c>
       <c r="N74" t="n">
-        <v>164.1478836584271</v>
+        <v>158.2657196860301</v>
       </c>
     </row>
     <row r="75">
@@ -3752,40 +3753,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>150.5943239772217</v>
+        <v>138.3774103999026</v>
       </c>
       <c r="D75" t="n">
-        <v>116.9023624205187</v>
+        <v>119.0048946057208</v>
       </c>
       <c r="E75" t="n">
-        <v>88.24858108996612</v>
+        <v>88.35369306578751</v>
       </c>
       <c r="F75" t="n">
-        <v>119.1250147169593</v>
+        <v>118.7972169116656</v>
       </c>
       <c r="G75" t="n">
-        <v>144.0067574019006</v>
+        <v>152.5194068429516</v>
       </c>
       <c r="H75" t="n">
-        <v>161.4740846687405</v>
+        <v>153.0725600281645</v>
       </c>
       <c r="I75" t="n">
-        <v>145.0784454017952</v>
+        <v>124.7827311878754</v>
       </c>
       <c r="J75" t="n">
-        <v>111.447748279445</v>
+        <v>91.56276695068726</v>
       </c>
       <c r="K75" t="n">
-        <v>142.6091162417446</v>
+        <v>85.03015141146651</v>
       </c>
       <c r="L75" t="n">
-        <v>143.2613960485449</v>
+        <v>158.5739707761331</v>
       </c>
       <c r="M75" t="n">
-        <v>158.1222370306346</v>
+        <v>115.9257614953415</v>
       </c>
       <c r="N75" t="n">
-        <v>137.9104436963881</v>
+        <v>147.2493457996321</v>
       </c>
     </row>
     <row r="76">
@@ -3796,40 +3797,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>168.1301088301594</v>
+        <v>170.9856063070127</v>
       </c>
       <c r="D76" t="n">
-        <v>148.9227513208189</v>
+        <v>144.971414740914</v>
       </c>
       <c r="E76" t="n">
-        <v>150.381382598714</v>
+        <v>152.1749340048763</v>
       </c>
       <c r="F76" t="n">
-        <v>159.9247401313652</v>
+        <v>160.283801981356</v>
       </c>
       <c r="G76" t="n">
-        <v>138.6123593282579</v>
+        <v>138.5840468287792</v>
       </c>
       <c r="H76" t="n">
-        <v>165.200345050071</v>
+        <v>164.6989512171241</v>
       </c>
       <c r="I76" t="n">
-        <v>139.262721291079</v>
+        <v>142.7681276165029</v>
       </c>
       <c r="J76" t="n">
-        <v>125.7272669531416</v>
+        <v>111.5420076816837</v>
       </c>
       <c r="K76" t="n">
-        <v>139.7775150479137</v>
+        <v>130.4548012625345</v>
       </c>
       <c r="L76" t="n">
-        <v>126.8021301365831</v>
+        <v>125.1739214460452</v>
       </c>
       <c r="M76" t="n">
-        <v>160.239411297688</v>
+        <v>161.2049701782582</v>
       </c>
       <c r="N76" t="n">
-        <v>142.0420418237525</v>
+        <v>138.1223113407596</v>
       </c>
     </row>
     <row r="77">
@@ -3840,40 +3841,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>131.5606199151045</v>
+        <v>131.6445900938412</v>
       </c>
       <c r="D77" t="n">
-        <v>121.6895460721727</v>
+        <v>121.9443661169297</v>
       </c>
       <c r="E77" t="n">
-        <v>140.574825960597</v>
+        <v>140.5605602662038</v>
       </c>
       <c r="F77" t="n">
-        <v>153.5859089734005</v>
+        <v>153.7848456232189</v>
       </c>
       <c r="G77" t="n">
-        <v>139.2828155673681</v>
+        <v>139.7456138530982</v>
       </c>
       <c r="H77" t="n">
-        <v>161.533090902641</v>
+        <v>163.4716460401255</v>
       </c>
       <c r="I77" t="n">
-        <v>127.8275802301384</v>
+        <v>128.3466351186743</v>
       </c>
       <c r="J77" t="n">
-        <v>106.7614161603734</v>
+        <v>107.940492675321</v>
       </c>
       <c r="K77" t="n">
-        <v>133.8421330944108</v>
+        <v>135.7218260563471</v>
       </c>
       <c r="L77" t="n">
-        <v>142.7041793907416</v>
+        <v>143.7569199809241</v>
       </c>
       <c r="M77" t="n">
-        <v>151.1359816520926</v>
+        <v>152.0146869229902</v>
       </c>
       <c r="N77" t="n">
-        <v>147.0521650644323</v>
+        <v>147.0710879900948</v>
       </c>
     </row>
     <row r="78">
@@ -3884,40 +3885,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>145.3404463598779</v>
+        <v>144.4404083610296</v>
       </c>
       <c r="D78" t="n">
-        <v>144.8625327976535</v>
+        <v>147.0371211590043</v>
       </c>
       <c r="E78" t="n">
-        <v>161.259843508705</v>
+        <v>160.2304729049623</v>
       </c>
       <c r="F78" t="n">
-        <v>120.8615379671758</v>
+        <v>120.6324411284642</v>
       </c>
       <c r="G78" t="n">
-        <v>156.064124185735</v>
+        <v>156.2183867402741</v>
       </c>
       <c r="H78" t="n">
-        <v>142.4962525217971</v>
+        <v>122.7066675298197</v>
       </c>
       <c r="I78" t="n">
-        <v>125.8257376569811</v>
+        <v>126.907679416056</v>
       </c>
       <c r="J78" t="n">
-        <v>106.1013204780293</v>
+        <v>105.8261273373138</v>
       </c>
       <c r="K78" t="n">
-        <v>141.0666179524536</v>
+        <v>134.6855609681737</v>
       </c>
       <c r="L78" t="n">
-        <v>117.3010282085918</v>
+        <v>115.6121429387338</v>
       </c>
       <c r="M78" t="n">
-        <v>151.4233356556966</v>
+        <v>144.6160764716576</v>
       </c>
       <c r="N78" t="n">
-        <v>141.370928025822</v>
+        <v>140.7946100201268</v>
       </c>
     </row>
     <row r="79">
@@ -3928,40 +3929,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>200.2585519695197</v>
+        <v>192.1402528534561</v>
       </c>
       <c r="D79" t="n">
-        <v>170.266257897464</v>
+        <v>157.7070616014218</v>
       </c>
       <c r="E79" t="n">
-        <v>178.6443090282965</v>
+        <v>178.8903605905523</v>
       </c>
       <c r="F79" t="n">
-        <v>177.8886565618353</v>
+        <v>175.7343714269885</v>
       </c>
       <c r="G79" t="n">
-        <v>166.798266658745</v>
+        <v>173.6843885211289</v>
       </c>
       <c r="H79" t="n">
-        <v>200.9360933127485</v>
+        <v>207.7063558948561</v>
       </c>
       <c r="I79" t="n">
-        <v>165.1418163914597</v>
+        <v>166.3386627476041</v>
       </c>
       <c r="J79" t="n">
-        <v>125.8422169868371</v>
+        <v>131.1839686560231</v>
       </c>
       <c r="K79" t="n">
-        <v>164.0811211572688</v>
+        <v>177.3114565648573</v>
       </c>
       <c r="L79" t="n">
-        <v>152.1016048381808</v>
+        <v>158.4323192790648</v>
       </c>
       <c r="M79" t="n">
-        <v>189.7189329299398</v>
+        <v>186.4103671738082</v>
       </c>
       <c r="N79" t="n">
-        <v>168.8102155736321</v>
+        <v>170.4920979703123</v>
       </c>
     </row>
     <row r="80">
@@ -3972,40 +3973,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>145.4068119567661</v>
+        <v>142.2274929762264</v>
       </c>
       <c r="D80" t="n">
-        <v>164.8009584237615</v>
+        <v>157.4690002214182</v>
       </c>
       <c r="E80" t="n">
-        <v>161.1524910828836</v>
+        <v>160.466901261555</v>
       </c>
       <c r="F80" t="n">
-        <v>180.4695357335412</v>
+        <v>180.0655074655688</v>
       </c>
       <c r="G80" t="n">
-        <v>144.8380091861386</v>
+        <v>146.366277602393</v>
       </c>
       <c r="H80" t="n">
-        <v>188.9349865196756</v>
+        <v>187.1935521824329</v>
       </c>
       <c r="I80" t="n">
-        <v>148.9293941174632</v>
+        <v>149.0792825068249</v>
       </c>
       <c r="J80" t="n">
-        <v>116.024028407838</v>
+        <v>112.0794971741136</v>
       </c>
       <c r="K80" t="n">
-        <v>147.3696857741989</v>
+        <v>143.6143069059445</v>
       </c>
       <c r="L80" t="n">
-        <v>117.5799239065505</v>
+        <v>117.1146691170221</v>
       </c>
       <c r="M80" t="n">
-        <v>136.2373571537881</v>
+        <v>137.1485432992918</v>
       </c>
       <c r="N80" t="n">
-        <v>159.656344132799</v>
+        <v>160.160367096292</v>
       </c>
     </row>
     <row r="81">
@@ -4016,40 +4017,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>97.71950550148429</v>
+        <v>98.46932535727149</v>
       </c>
       <c r="D81" t="n">
-        <v>114.1575256397714</v>
+        <v>115.3640373896089</v>
       </c>
       <c r="E81" t="n">
-        <v>114.7016331699982</v>
+        <v>116.504233481782</v>
       </c>
       <c r="F81" t="n">
-        <v>160.2239195741037</v>
+        <v>160.9100613812736</v>
       </c>
       <c r="G81" t="n">
-        <v>108.8629425388006</v>
+        <v>112.0021042429533</v>
       </c>
       <c r="H81" t="n">
-        <v>140.7437515506938</v>
+        <v>140.3021290329546</v>
       </c>
       <c r="I81" t="n">
-        <v>114.295355574717</v>
+        <v>115.7760148997108</v>
       </c>
       <c r="J81" t="n">
-        <v>94.81683299269109</v>
+        <v>96.24944611553848</v>
       </c>
       <c r="K81" t="n">
-        <v>127.3380538752888</v>
+        <v>126.9105302097348</v>
       </c>
       <c r="L81" t="n">
-        <v>94.41199648128632</v>
+        <v>93.80332274435716</v>
       </c>
       <c r="M81" t="n">
-        <v>131.3099403216311</v>
+        <v>131.7139199962421</v>
       </c>
       <c r="N81" t="n">
-        <v>139.21868592103</v>
+        <v>136.449523089536</v>
       </c>
     </row>
     <row r="82">
@@ -4060,40 +4061,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>178.3252295355543</v>
+        <v>178.3060733275872</v>
       </c>
       <c r="D82" t="n">
-        <v>147.8378326316776</v>
+        <v>147.9764578296233</v>
       </c>
       <c r="E82" t="n">
-        <v>154.841741903538</v>
+        <v>154.7477332568691</v>
       </c>
       <c r="F82" t="n">
-        <v>161.8433646179938</v>
+        <v>161.620311397344</v>
       </c>
       <c r="G82" t="n">
-        <v>166.5608639101538</v>
+        <v>166.1395671249807</v>
       </c>
       <c r="H82" t="n">
-        <v>167.026139425474</v>
+        <v>165.5106817722385</v>
       </c>
       <c r="I82" t="n">
-        <v>152.8518704924674</v>
+        <v>152.3547419873923</v>
       </c>
       <c r="J82" t="n">
-        <v>148.9708682313434</v>
+        <v>147.3530284633144</v>
       </c>
       <c r="K82" t="n">
-        <v>148.2008912865926</v>
+        <v>147.9779114395896</v>
       </c>
       <c r="L82" t="n">
-        <v>195.9562456979622</v>
+        <v>195.3747607713621</v>
       </c>
       <c r="M82" t="n">
-        <v>164.5767353316779</v>
+        <v>162.4000046335745</v>
       </c>
       <c r="N82" t="n">
-        <v>180.9781048050062</v>
+        <v>180.8289373842957</v>
       </c>
     </row>
     <row r="83">
@@ -4104,40 +4105,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>104.1794057983406</v>
+        <v>108.6728473777263</v>
       </c>
       <c r="D83" t="n">
-        <v>163.2986112995148</v>
+        <v>170.3037843250492</v>
       </c>
       <c r="E83" t="n">
-        <v>161.399127623342</v>
+        <v>168.3691390464251</v>
       </c>
       <c r="F83" t="n">
-        <v>177.8551206727454</v>
+        <v>185.5363716326682</v>
       </c>
       <c r="G83" t="n">
-        <v>131.903274564412</v>
+        <v>137.5983204689442</v>
       </c>
       <c r="H83" t="n">
-        <v>177.1936427583499</v>
+        <v>184.8443117622663</v>
       </c>
       <c r="I83" t="n">
-        <v>146.4670193223483</v>
+        <v>152.7910494855287</v>
       </c>
       <c r="J83" t="n">
-        <v>109.0028348286332</v>
+        <v>113.7083443382724</v>
       </c>
       <c r="K83" t="n">
-        <v>124.2969990293479</v>
+        <v>129.6630401953891</v>
       </c>
       <c r="L83" t="n">
-        <v>107.7928323108079</v>
+        <v>112.4466828987995</v>
       </c>
       <c r="M83" t="n">
-        <v>151.1539284498885</v>
+        <v>157.6803919390601</v>
       </c>
       <c r="N83" t="n">
-        <v>158.204760830552</v>
+        <v>165.0453966268192</v>
       </c>
     </row>
     <row r="84">
@@ -4148,40 +4149,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>134.0443611203913</v>
+        <v>127.1326543749157</v>
       </c>
       <c r="D84" t="n">
-        <v>184.909242037409</v>
+        <v>164.1125269408874</v>
       </c>
       <c r="E84" t="n">
-        <v>166.5635114018849</v>
+        <v>161.9250257514425</v>
       </c>
       <c r="F84" t="n">
-        <v>178.3649173736635</v>
+        <v>172.0113387866253</v>
       </c>
       <c r="G84" t="n">
-        <v>150.3431787519791</v>
+        <v>138.5292422198568</v>
       </c>
       <c r="H84" t="n">
-        <v>194.6505555947357</v>
+        <v>190.4378286764498</v>
       </c>
       <c r="I84" t="n">
-        <v>156.1226884987483</v>
+        <v>146.1151006323704</v>
       </c>
       <c r="J84" t="n">
-        <v>131.6025064058763</v>
+        <v>126.4999782600977</v>
       </c>
       <c r="K84" t="n">
-        <v>148.8479875228845</v>
+        <v>148.9626846147848</v>
       </c>
       <c r="L84" t="n">
-        <v>134.3346472736493</v>
+        <v>133.3918048055088</v>
       </c>
       <c r="M84" t="n">
-        <v>167.7808864626218</v>
+        <v>166.7214767382266</v>
       </c>
       <c r="N84" t="n">
-        <v>154.7434799349829</v>
+        <v>155.012232712447</v>
       </c>
     </row>
     <row r="85">
@@ -4192,40 +4193,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>135.6291955632387</v>
+        <v>118.9819407025642</v>
       </c>
       <c r="D85" t="n">
-        <v>153.5349495267263</v>
+        <v>156.1530676922232</v>
       </c>
       <c r="E85" t="n">
-        <v>140.2964117497702</v>
+        <v>144.9747071554889</v>
       </c>
       <c r="F85" t="n">
-        <v>176.8768066414596</v>
+        <v>160.8971482763177</v>
       </c>
       <c r="G85" t="n">
-        <v>126.1090044926324</v>
+        <v>130.2282979921364</v>
       </c>
       <c r="H85" t="n">
-        <v>164.6168474735309</v>
+        <v>156.9797462349964</v>
       </c>
       <c r="I85" t="n">
-        <v>134.8875108803785</v>
+        <v>151.5541043401749</v>
       </c>
       <c r="J85" t="n">
-        <v>112.150525806307</v>
+        <v>99.60303517515014</v>
       </c>
       <c r="K85" t="n">
-        <v>125.2690514716335</v>
+        <v>113.9557525907076</v>
       </c>
       <c r="L85" t="n">
-        <v>113.7401217009588</v>
+        <v>108.3189143848562</v>
       </c>
       <c r="M85" t="n">
-        <v>141.72383469854</v>
+        <v>128.5967896269895</v>
       </c>
       <c r="N85" t="n">
-        <v>132.356824256739</v>
+        <v>150.6753511531189</v>
       </c>
     </row>
     <row r="86">
@@ -4238,40 +4239,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>155.404802873022</v>
+        <v>153.4227665343682</v>
       </c>
       <c r="D86" t="n">
-        <v>171.8603762296163</v>
+        <v>148.1067097790588</v>
       </c>
       <c r="E86" t="n">
-        <v>161.223605664207</v>
+        <v>163.8006269264011</v>
       </c>
       <c r="F86" t="n">
-        <v>155.2284448719458</v>
+        <v>129.591000705919</v>
       </c>
       <c r="G86" t="n">
-        <v>160.6442943522005</v>
+        <v>156.2067399055868</v>
       </c>
       <c r="H86" t="n">
-        <v>198.5230510343801</v>
+        <v>207.0266770763068</v>
       </c>
       <c r="I86" t="n">
-        <v>172.8119565095158</v>
+        <v>181.8008028366622</v>
       </c>
       <c r="J86" t="n">
-        <v>122.8292484946597</v>
+        <v>111.2464880678414</v>
       </c>
       <c r="K86" t="n">
-        <v>147.1990124969489</v>
+        <v>146.6707898407396</v>
       </c>
       <c r="L86" t="n">
-        <v>121.6873942266284</v>
+        <v>111.3833378459456</v>
       </c>
       <c r="M86" t="n">
-        <v>173.492442791408</v>
+        <v>169.8458929924381</v>
       </c>
       <c r="N86" t="n">
-        <v>145.0387713861927</v>
+        <v>137.0056885565763</v>
       </c>
     </row>
     <row r="87">
@@ -4282,40 +4283,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>165.224923019837</v>
+        <v>152.7276590996251</v>
       </c>
       <c r="D87" t="n">
-        <v>116.0736486175033</v>
+        <v>119.5441506983592</v>
       </c>
       <c r="E87" t="n">
-        <v>104.2996128933861</v>
+        <v>104.6155443852533</v>
       </c>
       <c r="F87" t="n">
-        <v>126.7328067457372</v>
+        <v>120.8575121399618</v>
       </c>
       <c r="G87" t="n">
-        <v>148.2568224486774</v>
+        <v>158.1814303817264</v>
       </c>
       <c r="H87" t="n">
-        <v>178.7277429738435</v>
+        <v>163.9423777628648</v>
       </c>
       <c r="I87" t="n">
-        <v>167.0926823098763</v>
+        <v>147.585667392664</v>
       </c>
       <c r="J87" t="n">
-        <v>113.3386618350973</v>
+        <v>93.50139499740776</v>
       </c>
       <c r="K87" t="n">
-        <v>133.6338592649403</v>
+        <v>77.3077422746281</v>
       </c>
       <c r="L87" t="n">
-        <v>116.464165374817</v>
+        <v>129.4497875424675</v>
       </c>
       <c r="M87" t="n">
-        <v>174.2143889615879</v>
+        <v>129.6949005814567</v>
       </c>
       <c r="N87" t="n">
-        <v>144.8889284787305</v>
+        <v>163.2072086721649</v>
       </c>
     </row>
     <row r="88">
@@ -4326,40 +4327,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>165.6483666317339</v>
+        <v>170.1182907830983</v>
       </c>
       <c r="D88" t="n">
-        <v>159.6100420943484</v>
+        <v>158.7128994962666</v>
       </c>
       <c r="E88" t="n">
-        <v>152.8717484166579</v>
+        <v>154.4683405086884</v>
       </c>
       <c r="F88" t="n">
-        <v>160.1250951197526</v>
+        <v>162.1052818305923</v>
       </c>
       <c r="G88" t="n">
-        <v>142.7026650157599</v>
+        <v>141.9032062148856</v>
       </c>
       <c r="H88" t="n">
-        <v>171.324945786316</v>
+        <v>170.0104275727838</v>
       </c>
       <c r="I88" t="n">
-        <v>149.2125485201584</v>
+        <v>153.8938862047509</v>
       </c>
       <c r="J88" t="n">
-        <v>126.5326131200739</v>
+        <v>112.7351503552504</v>
       </c>
       <c r="K88" t="n">
-        <v>133.7336945334319</v>
+        <v>122.3376732490293</v>
       </c>
       <c r="L88" t="n">
-        <v>109.0418905404234</v>
+        <v>105.0275071584876</v>
       </c>
       <c r="M88" t="n">
-        <v>168.0962417810228</v>
+        <v>167.8868244316588</v>
       </c>
       <c r="N88" t="n">
-        <v>148.1234049341224</v>
+        <v>143.6550131913301</v>
       </c>
     </row>
     <row r="89">
@@ -4370,40 +4371,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>135.6250437879688</v>
+        <v>136.5914296861353</v>
       </c>
       <c r="D89" t="n">
-        <v>143.9881430381084</v>
+        <v>144.821658837664</v>
       </c>
       <c r="E89" t="n">
-        <v>156.1867696821362</v>
+        <v>155.7782848556355</v>
       </c>
       <c r="F89" t="n">
-        <v>198.1813742322567</v>
+        <v>199.615978606316</v>
       </c>
       <c r="G89" t="n">
-        <v>155.0649497684876</v>
+        <v>154.809832448127</v>
       </c>
       <c r="H89" t="n">
-        <v>181.561569791783</v>
+        <v>183.6780475216734</v>
       </c>
       <c r="I89" t="n">
-        <v>150.4618836842509</v>
+        <v>150.6528953925208</v>
       </c>
       <c r="J89" t="n">
-        <v>121.4024564200886</v>
+        <v>123.0975998781956</v>
       </c>
       <c r="K89" t="n">
-        <v>145.589459435381</v>
+        <v>147.5702127834165</v>
       </c>
       <c r="L89" t="n">
-        <v>176.5713878839373</v>
+        <v>176.6879623470792</v>
       </c>
       <c r="M89" t="n">
-        <v>167.1023994920818</v>
+        <v>167.3676288812958</v>
       </c>
       <c r="N89" t="n">
-        <v>150.5033096275098</v>
+        <v>149.0719336599749</v>
       </c>
     </row>
     <row r="90">
@@ -4414,40 +4415,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>149.294512004803</v>
+        <v>148.2412618118561</v>
       </c>
       <c r="D90" t="n">
-        <v>159.979487766166</v>
+        <v>161.8991302987705</v>
       </c>
       <c r="E90" t="n">
-        <v>175.6992308863294</v>
+        <v>174.9526545589356</v>
       </c>
       <c r="F90" t="n">
-        <v>121.6894132249888</v>
+        <v>121.0440964171381</v>
       </c>
       <c r="G90" t="n">
-        <v>154.9643823922794</v>
+        <v>155.255498166285</v>
       </c>
       <c r="H90" t="n">
-        <v>148.0421772245998</v>
+        <v>135.3012882120139</v>
       </c>
       <c r="I90" t="n">
-        <v>131.9766096905233</v>
+        <v>133.7748482268811</v>
       </c>
       <c r="J90" t="n">
-        <v>103.1700223213008</v>
+        <v>103.1605044093517</v>
       </c>
       <c r="K90" t="n">
-        <v>129.5521850942539</v>
+        <v>124.9462637175136</v>
       </c>
       <c r="L90" t="n">
-        <v>105.8726241426257</v>
+        <v>104.7645944565922</v>
       </c>
       <c r="M90" t="n">
-        <v>153.1276059168954</v>
+        <v>148.1680033004143</v>
       </c>
       <c r="N90" t="n">
-        <v>143.8063228808668</v>
+        <v>143.0326303138736</v>
       </c>
     </row>
     <row r="91">
@@ -4458,40 +4459,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>200.5116296489299</v>
+        <v>184.4001835926903</v>
       </c>
       <c r="D91" t="n">
-        <v>186.7369818661149</v>
+        <v>173.5774037476559</v>
       </c>
       <c r="E91" t="n">
-        <v>184.7719944028009</v>
+        <v>182.9417809350958</v>
       </c>
       <c r="F91" t="n">
-        <v>187.2753760786762</v>
+        <v>187.879295676291</v>
       </c>
       <c r="G91" t="n">
-        <v>175.7649538733829</v>
+        <v>193.2155218701132</v>
       </c>
       <c r="H91" t="n">
-        <v>210.8060093935386</v>
+        <v>218.1700385151134</v>
       </c>
       <c r="I91" t="n">
-        <v>182.0322416094607</v>
+        <v>180.1834476624458</v>
       </c>
       <c r="J91" t="n">
-        <v>128.5218165155258</v>
+        <v>131.6014967232303</v>
       </c>
       <c r="K91" t="n">
-        <v>162.4370026657564</v>
+        <v>174.2567713948502</v>
       </c>
       <c r="L91" t="n">
-        <v>135.2764485746015</v>
+        <v>154.9763561030493</v>
       </c>
       <c r="M91" t="n">
-        <v>202.5188321302101</v>
+        <v>202.9815817955736</v>
       </c>
       <c r="N91" t="n">
-        <v>176.1843850863724</v>
+        <v>179.924171545352</v>
       </c>
     </row>
     <row r="92">
@@ -4502,40 +4503,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>156.555997282598</v>
+        <v>153.6171705089145</v>
       </c>
       <c r="D92" t="n">
-        <v>159.6284914022274</v>
+        <v>153.666629510748</v>
       </c>
       <c r="E92" t="n">
-        <v>166.070277140486</v>
+        <v>165.5796234323167</v>
       </c>
       <c r="F92" t="n">
-        <v>198.8377797403757</v>
+        <v>197.7475262849702</v>
       </c>
       <c r="G92" t="n">
-        <v>148.8107545738126</v>
+        <v>152.7343326048576</v>
       </c>
       <c r="H92" t="n">
-        <v>202.0107891031359</v>
+        <v>200.1982896980505</v>
       </c>
       <c r="I92" t="n">
-        <v>175.3150595276514</v>
+        <v>175.574024881207</v>
       </c>
       <c r="J92" t="n">
-        <v>119.937689830281</v>
+        <v>117.1308169947407</v>
       </c>
       <c r="K92" t="n">
-        <v>145.0188983320274</v>
+        <v>141.4309411262451</v>
       </c>
       <c r="L92" t="n">
-        <v>119.6902061465646</v>
+        <v>120.1701512217679</v>
       </c>
       <c r="M92" t="n">
-        <v>144.4690873763803</v>
+        <v>146.2138380676913</v>
       </c>
       <c r="N92" t="n">
-        <v>161.1413984952166</v>
+        <v>161.457194312105</v>
       </c>
     </row>
     <row r="93">
@@ -4546,40 +4547,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>91.24493890080778</v>
+        <v>86.11489165109793</v>
       </c>
       <c r="D93" t="n">
-        <v>123.4343558594351</v>
+        <v>125.2559770869525</v>
       </c>
       <c r="E93" t="n">
-        <v>119.054193767537</v>
+        <v>120.9176549240185</v>
       </c>
       <c r="F93" t="n">
-        <v>168.6461268421168</v>
+        <v>171.3319053553114</v>
       </c>
       <c r="G93" t="n">
-        <v>109.5458760056202</v>
+        <v>112.5090813311817</v>
       </c>
       <c r="H93" t="n">
-        <v>151.8897366853039</v>
+        <v>152.6005574622966</v>
       </c>
       <c r="I93" t="n">
-        <v>128.391561960305</v>
+        <v>131.1563742123145</v>
       </c>
       <c r="J93" t="n">
-        <v>98.48466741885109</v>
+        <v>100.0445136859189</v>
       </c>
       <c r="K93" t="n">
-        <v>130.853814550874</v>
+        <v>131.5668096745317</v>
       </c>
       <c r="L93" t="n">
-        <v>108.5708197667685</v>
+        <v>108.0822249064992</v>
       </c>
       <c r="M93" t="n">
-        <v>138.2548297490765</v>
+        <v>138.0573238748693</v>
       </c>
       <c r="N93" t="n">
-        <v>140.2698187784477</v>
+        <v>137.802071137518</v>
       </c>
     </row>
     <row r="94">
@@ -4590,40 +4591,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>176.4929836165267</v>
+        <v>176.4780039892842</v>
       </c>
       <c r="D94" t="n">
-        <v>148.589574247308</v>
+        <v>148.8696817399459</v>
       </c>
       <c r="E94" t="n">
-        <v>158.3419171952623</v>
+        <v>158.287323336912</v>
       </c>
       <c r="F94" t="n">
-        <v>162.7439849106084</v>
+        <v>162.5987667139192</v>
       </c>
       <c r="G94" t="n">
-        <v>166.1580175391229</v>
+        <v>165.7979883784261</v>
       </c>
       <c r="H94" t="n">
-        <v>165.8050214205205</v>
+        <v>165.0725527575096</v>
       </c>
       <c r="I94" t="n">
-        <v>154.6731462855518</v>
+        <v>154.4136565396658</v>
       </c>
       <c r="J94" t="n">
-        <v>149.6284626562013</v>
+        <v>148.1745678424527</v>
       </c>
       <c r="K94" t="n">
-        <v>159.7097421569804</v>
+        <v>159.4709021312888</v>
       </c>
       <c r="L94" t="n">
-        <v>186.1114873916559</v>
+        <v>185.7032335811834</v>
       </c>
       <c r="M94" t="n">
-        <v>162.6272038552095</v>
+        <v>161.2060658528666</v>
       </c>
       <c r="N94" t="n">
-        <v>171.146612440557</v>
+        <v>171.0515862265266</v>
       </c>
     </row>
     <row r="95">
@@ -4634,40 +4635,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>133.6414172711272</v>
+        <v>140.8535526582782</v>
       </c>
       <c r="D95" t="n">
-        <v>175.9282853591178</v>
+        <v>185.3809252061057</v>
       </c>
       <c r="E95" t="n">
-        <v>163.5077758614137</v>
+        <v>172.3404758726842</v>
       </c>
       <c r="F95" t="n">
-        <v>172.8236426227183</v>
+        <v>182.1601641456196</v>
       </c>
       <c r="G95" t="n">
-        <v>129.6390099315077</v>
+        <v>136.6409364219074</v>
       </c>
       <c r="H95" t="n">
-        <v>183.6030277337074</v>
+        <v>193.5197798937378</v>
       </c>
       <c r="I95" t="n">
-        <v>160.5311161515922</v>
+        <v>169.2017553973437</v>
       </c>
       <c r="J95" t="n">
-        <v>111.1178399613269</v>
+        <v>117.1186081055603</v>
       </c>
       <c r="K95" t="n">
-        <v>120.7145334019553</v>
+        <v>127.2338549210477</v>
       </c>
       <c r="L95" t="n">
-        <v>128.072350935371</v>
+        <v>134.9894150728668</v>
       </c>
       <c r="M95" t="n">
-        <v>161.2356632702985</v>
+        <v>169.9444276883887</v>
       </c>
       <c r="N95" t="n">
-        <v>162.8480770729514</v>
+        <v>171.6540562863338</v>
       </c>
     </row>
     <row r="96">
@@ -4678,40 +4679,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>134.7601928946305</v>
+        <v>129.8274139168187</v>
       </c>
       <c r="D96" t="n">
-        <v>192.663310849046</v>
+        <v>174.3653843797998</v>
       </c>
       <c r="E96" t="n">
-        <v>169.2727872164823</v>
+        <v>165.5446546936105</v>
       </c>
       <c r="F96" t="n">
-        <v>167.4231317655908</v>
+        <v>161.9522079852919</v>
       </c>
       <c r="G96" t="n">
-        <v>138.4384942207881</v>
+        <v>128.9456103099804</v>
       </c>
       <c r="H96" t="n">
-        <v>204.4114500251122</v>
+        <v>200.9186093634552</v>
       </c>
       <c r="I96" t="n">
-        <v>163.249669822654</v>
+        <v>155.2787535976248</v>
       </c>
       <c r="J96" t="n">
-        <v>132.7225110415184</v>
+        <v>129.1904831991156</v>
       </c>
       <c r="K96" t="n">
-        <v>147.0053832359568</v>
+        <v>147.2278690209389</v>
       </c>
       <c r="L96" t="n">
-        <v>156.4870549342894</v>
+        <v>154.6837541719596</v>
       </c>
       <c r="M96" t="n">
-        <v>179.6602166413616</v>
+        <v>179.4054990727853</v>
       </c>
       <c r="N96" t="n">
-        <v>156.9839551080057</v>
+        <v>156.3957103587468</v>
       </c>
     </row>
     <row r="97">
@@ -4722,40 +4723,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>155.3158978893873</v>
+        <v>122.4568464762185</v>
       </c>
       <c r="D97" t="n">
-        <v>143.4424534272887</v>
+        <v>143.1582802602827</v>
       </c>
       <c r="E97" t="n">
-        <v>137.2408582338767</v>
+        <v>137.4946120294883</v>
       </c>
       <c r="F97" t="n">
-        <v>244.0164810978954</v>
+        <v>144.030377979322</v>
       </c>
       <c r="G97" t="n">
-        <v>109.6027168099066</v>
+        <v>115.3726957157296</v>
       </c>
       <c r="H97" t="n">
-        <v>161.8045532134945</v>
+        <v>141.0843168954534</v>
       </c>
       <c r="I97" t="n">
-        <v>134.0646295278539</v>
+        <v>145.9827288807475</v>
       </c>
       <c r="J97" t="n">
-        <v>103.1587787581678</v>
+        <v>86.88655663130375</v>
       </c>
       <c r="K97" t="n">
-        <v>112.6181636323756</v>
+        <v>93.41153223376405</v>
       </c>
       <c r="L97" t="n">
-        <v>121.1717438573453</v>
+        <v>108.4030059767353</v>
       </c>
       <c r="M97" t="n">
-        <v>140.9427265176686</v>
+        <v>129.7690081829961</v>
       </c>
       <c r="N97" t="n">
-        <v>124.5205587053947</v>
+        <v>171.8771298228457</v>
       </c>
     </row>
     <row r="98">
@@ -4768,40 +4769,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>166.6705907393678</v>
+        <v>164.9377448255681</v>
       </c>
       <c r="D98" t="n">
-        <v>196.5145528275254</v>
+        <v>171.4460828978313</v>
       </c>
       <c r="E98" t="n">
-        <v>170.5061819756204</v>
+        <v>171.7025082966306</v>
       </c>
       <c r="F98" t="n">
-        <v>166.4571005022382</v>
+        <v>139.4109400773824</v>
       </c>
       <c r="G98" t="n">
-        <v>162.0808012666231</v>
+        <v>158.2801634552999</v>
       </c>
       <c r="H98" t="n">
-        <v>222.5383860263898</v>
+        <v>233.3977998264157</v>
       </c>
       <c r="I98" t="n">
-        <v>173.1455841563117</v>
+        <v>190.9320586706864</v>
       </c>
       <c r="J98" t="n">
-        <v>122.5029103037494</v>
+        <v>109.7680271760607</v>
       </c>
       <c r="K98" t="n">
-        <v>142.0464729044557</v>
+        <v>139.9852160205345</v>
       </c>
       <c r="L98" t="n">
-        <v>121.6594986634339</v>
+        <v>111.7698082236628</v>
       </c>
       <c r="M98" t="n">
-        <v>173.8444793110856</v>
+        <v>169.3232331822499</v>
       </c>
       <c r="N98" t="n">
-        <v>152.0308541678301</v>
+        <v>141.8443708859202</v>
       </c>
     </row>
     <row r="99">
@@ -4812,40 +4813,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>211.0985444898763</v>
+        <v>197.4423885776667</v>
       </c>
       <c r="D99" t="n">
-        <v>136.7316995668173</v>
+        <v>138.6614880580004</v>
       </c>
       <c r="E99" t="n">
-        <v>155.0337728718144</v>
+        <v>156.1970819479628</v>
       </c>
       <c r="F99" t="n">
-        <v>158.6144076939298</v>
+        <v>154.4458903784996</v>
       </c>
       <c r="G99" t="n">
-        <v>145.0040163737493</v>
+        <v>150.2197620372808</v>
       </c>
       <c r="H99" t="n">
-        <v>205.3775225195691</v>
+        <v>189.2753745492761</v>
       </c>
       <c r="I99" t="n">
-        <v>204.4278727620546</v>
+        <v>173.4823606111191</v>
       </c>
       <c r="J99" t="n">
-        <v>121.140194972181</v>
+        <v>107.5147176627828</v>
       </c>
       <c r="K99" t="n">
-        <v>135.1845312098511</v>
+        <v>84.7978045167429</v>
       </c>
       <c r="L99" t="n">
-        <v>119.7111177924385</v>
+        <v>131.9604688286757</v>
       </c>
       <c r="M99" t="n">
-        <v>198.7840316829447</v>
+        <v>146.574955232823</v>
       </c>
       <c r="N99" t="n">
-        <v>159.7815477141115</v>
+        <v>185.1594172714407</v>
       </c>
     </row>
     <row r="100">
@@ -4856,40 +4857,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>195.7973786967154</v>
+        <v>201.1992349578761</v>
       </c>
       <c r="D100" t="n">
-        <v>204.0906026831105</v>
+        <v>200.2696733938745</v>
       </c>
       <c r="E100" t="n">
-        <v>177.4066287622982</v>
+        <v>179.0178238025863</v>
       </c>
       <c r="F100" t="n">
-        <v>189.5290555232774</v>
+        <v>191.6291833831714</v>
       </c>
       <c r="G100" t="n">
-        <v>149.6927358630679</v>
+        <v>148.7842960560168</v>
       </c>
       <c r="H100" t="n">
-        <v>190.9903150698724</v>
+        <v>191.3649642846584</v>
       </c>
       <c r="I100" t="n">
-        <v>168.408640017592</v>
+        <v>177.9484467858598</v>
       </c>
       <c r="J100" t="n">
-        <v>138.2473862720533</v>
+        <v>121.8638132690387</v>
       </c>
       <c r="K100" t="n">
-        <v>142.3960654906047</v>
+        <v>131.585577422463</v>
       </c>
       <c r="L100" t="n">
-        <v>119.2517963144694</v>
+        <v>114.5574426976812</v>
       </c>
       <c r="M100" t="n">
-        <v>182.8344640892436</v>
+        <v>182.1389950379301</v>
       </c>
       <c r="N100" t="n">
-        <v>155.6013047082408</v>
+        <v>151.805371862467</v>
       </c>
     </row>
     <row r="101">
@@ -4900,40 +4901,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>151.6169667561236</v>
+        <v>152.5705171159593</v>
       </c>
       <c r="D101" t="n">
-        <v>151.7427837767503</v>
+        <v>152.5976682758181</v>
       </c>
       <c r="E101" t="n">
-        <v>157.9610074714629</v>
+        <v>157.6554152108667</v>
       </c>
       <c r="F101" t="n">
-        <v>213.5751923132262</v>
+        <v>214.9372972255564</v>
       </c>
       <c r="G101" t="n">
-        <v>163.9897333697248</v>
+        <v>163.2740161053952</v>
       </c>
       <c r="H101" t="n">
-        <v>199.0694068848478</v>
+        <v>200.7385794886472</v>
       </c>
       <c r="I101" t="n">
-        <v>161.2050194182822</v>
+        <v>161.2716659041473</v>
       </c>
       <c r="J101" t="n">
-        <v>128.730515578513</v>
+        <v>130.1552633076504</v>
       </c>
       <c r="K101" t="n">
-        <v>159.460723932201</v>
+        <v>160.9103493569975</v>
       </c>
       <c r="L101" t="n">
-        <v>187.3845704831351</v>
+        <v>186.6214367638285</v>
       </c>
       <c r="M101" t="n">
-        <v>182.8548037863213</v>
+        <v>182.8456865132367</v>
       </c>
       <c r="N101" t="n">
-        <v>162.7933739303141</v>
+        <v>161.5046754345271</v>
       </c>
     </row>
     <row r="102">
@@ -4944,40 +4945,40 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>153.1647818310385</v>
+        <v>152.5121187249386</v>
       </c>
       <c r="D102" t="n">
-        <v>196.8742516817975</v>
+        <v>198.4597568389624</v>
       </c>
       <c r="E102" t="n">
-        <v>197.7178221619647</v>
+        <v>196.8867028529757</v>
       </c>
       <c r="F102" t="n">
-        <v>132.6591451833336</v>
+        <v>130.6998196969051</v>
       </c>
       <c r="G102" t="n">
-        <v>153.8797045366351</v>
+        <v>154.3302998187642</v>
       </c>
       <c r="H102" t="n">
-        <v>151.7264927620369</v>
+        <v>140.9644653714414</v>
       </c>
       <c r="I102" t="n">
-        <v>142.3626201848621</v>
+        <v>143.483590633521</v>
       </c>
       <c r="J102" t="n">
-        <v>103.3042148335351</v>
+        <v>103.3912892202799</v>
       </c>
       <c r="K102" t="n">
-        <v>127.7504023680371</v>
+        <v>123.5656718027806</v>
       </c>
       <c r="L102" t="n">
-        <v>107.3470900053069</v>
+        <v>106.3686862005473</v>
       </c>
       <c r="M102" t="n">
-        <v>163.5412350380733</v>
+        <v>158.4399872898295</v>
       </c>
       <c r="N102" t="n">
-        <v>150.4478827218043</v>
+        <v>149.2203944510332</v>
       </c>
     </row>
     <row r="103">
@@ -4988,40 +4989,40 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>221.1049571549742</v>
+        <v>206.2103049648094</v>
       </c>
       <c r="D103" t="n">
-        <v>222.5117087424915</v>
+        <v>203.3919877486814</v>
       </c>
       <c r="E103" t="n">
-        <v>199.5263094012156</v>
+        <v>193.2831449084439</v>
       </c>
       <c r="F103" t="n">
-        <v>199.2332346106531</v>
+        <v>202.8256269757551</v>
       </c>
       <c r="G103" t="n">
-        <v>172.6762631841316</v>
+        <v>192.2369157897829</v>
       </c>
       <c r="H103" t="n">
-        <v>217.8369428330373</v>
+        <v>221.2513521550517</v>
       </c>
       <c r="I103" t="n">
-        <v>190.6273951943671</v>
+        <v>172.0292888672207</v>
       </c>
       <c r="J103" t="n">
-        <v>127.236371156934</v>
+        <v>129.5875332545475</v>
       </c>
       <c r="K103" t="n">
-        <v>162.1369158548051</v>
+        <v>176.965167227404</v>
       </c>
       <c r="L103" t="n">
-        <v>138.0072221029232</v>
+        <v>159.8032761755381</v>
       </c>
       <c r="M103" t="n">
-        <v>206.343774844961</v>
+        <v>208.7734708474646</v>
       </c>
       <c r="N103" t="n">
-        <v>176.5904390864658</v>
+        <v>180.9359971771825</v>
       </c>
     </row>
     <row r="104">
@@ -5032,40 +5033,40 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>169.4545031869183</v>
+        <v>164.9206797843464</v>
       </c>
       <c r="D104" t="n">
-        <v>185.8947502623995</v>
+        <v>176.4082122856696</v>
       </c>
       <c r="E104" t="n">
-        <v>181.6972103572144</v>
+        <v>180.2679435290371</v>
       </c>
       <c r="F104" t="n">
-        <v>214.4033498804731</v>
+        <v>212.100001465966</v>
       </c>
       <c r="G104" t="n">
-        <v>143.7785770256273</v>
+        <v>148.310781753275</v>
       </c>
       <c r="H104" t="n">
-        <v>218.3800810075684</v>
+        <v>216.1207522119657</v>
       </c>
       <c r="I104" t="n">
-        <v>186.9449952418017</v>
+        <v>187.8966129352021</v>
       </c>
       <c r="J104" t="n">
-        <v>121.6911495051715</v>
+        <v>116.928613710726</v>
       </c>
       <c r="K104" t="n">
-        <v>147.3433829880695</v>
+        <v>141.988786513359</v>
       </c>
       <c r="L104" t="n">
-        <v>121.9863454180897</v>
+        <v>121.2673651882181</v>
       </c>
       <c r="M104" t="n">
-        <v>151.0503669371827</v>
+        <v>150.5879571354236</v>
       </c>
       <c r="N104" t="n">
-        <v>169.0284771770965</v>
+        <v>169.5408497936977</v>
       </c>
     </row>
     <row r="105">
@@ -5076,40 +5077,40 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>116.6353076078487</v>
+        <v>101.5044843682765</v>
       </c>
       <c r="D105" t="n">
-        <v>144.0090547389953</v>
+        <v>145.0669396395079</v>
       </c>
       <c r="E105" t="n">
-        <v>124.9465355664315</v>
+        <v>126.2318316875598</v>
       </c>
       <c r="F105" t="n">
-        <v>181.3668371550899</v>
+        <v>183.5047339776631</v>
       </c>
       <c r="G105" t="n">
-        <v>104.4531343676808</v>
+        <v>106.436353256579</v>
       </c>
       <c r="H105" t="n">
-        <v>159.5951053429217</v>
+        <v>161.4272073412897</v>
       </c>
       <c r="I105" t="n">
-        <v>129.0939710812848</v>
+        <v>131.1805226186926</v>
       </c>
       <c r="J105" t="n">
-        <v>99.17714026549748</v>
+        <v>101.1358749130414</v>
       </c>
       <c r="K105" t="n">
-        <v>133.8731386930672</v>
+        <v>134.4473090711331</v>
       </c>
       <c r="L105" t="n">
-        <v>109.5573909601927</v>
+        <v>109.6950642491427</v>
       </c>
       <c r="M105" t="n">
-        <v>142.6092843199424</v>
+        <v>142.2370990279958</v>
       </c>
       <c r="N105" t="n">
-        <v>150.8527807131621</v>
+        <v>147.2217213449265</v>
       </c>
     </row>
     <row r="106">
@@ -5120,40 +5121,40 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>170.7815099633546</v>
+        <v>170.7723370203047</v>
       </c>
       <c r="D106" t="n">
-        <v>146.8654048442949</v>
+        <v>147.2941692385753</v>
       </c>
       <c r="E106" t="n">
-        <v>158.9808105149734</v>
+        <v>158.9366549919546</v>
       </c>
       <c r="F106" t="n">
-        <v>160.8331628557813</v>
+        <v>160.6989528286182</v>
       </c>
       <c r="G106" t="n">
-        <v>162.9816924266895</v>
+        <v>162.5139660387508</v>
       </c>
       <c r="H106" t="n">
-        <v>163.3438258057306</v>
+        <v>162.6517903334738</v>
       </c>
       <c r="I106" t="n">
-        <v>153.5693027039475</v>
+        <v>153.2302241582539</v>
       </c>
       <c r="J106" t="n">
-        <v>149.3463894011963</v>
+        <v>147.797544190946</v>
       </c>
       <c r="K106" t="n">
-        <v>166.3862466583337</v>
+        <v>166.1144849589822</v>
       </c>
       <c r="L106" t="n">
-        <v>172.4339289705993</v>
+        <v>172.060126877633</v>
       </c>
       <c r="M106" t="n">
-        <v>157.6456974889117</v>
+        <v>156.2213348114304</v>
       </c>
       <c r="N106" t="n">
-        <v>160.8402852919293</v>
+        <v>160.7692910268835</v>
       </c>
     </row>
     <row r="107">
@@ -5164,40 +5165,40 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>139.3356913723693</v>
+        <v>146.9659082026581</v>
       </c>
       <c r="D107" t="n">
-        <v>208.2487983322823</v>
+        <v>219.603555369233</v>
       </c>
       <c r="E107" t="n">
-        <v>173.1253998809264</v>
+        <v>182.6152970619423</v>
       </c>
       <c r="F107" t="n">
-        <v>183.2040983414003</v>
+        <v>193.2470741161096</v>
       </c>
       <c r="G107" t="n">
-        <v>120.0206159994408</v>
+        <v>126.5984718071757</v>
       </c>
       <c r="H107" t="n">
-        <v>191.3936459664336</v>
+        <v>201.8833608861101</v>
       </c>
       <c r="I107" t="n">
-        <v>165.4779316326074</v>
+        <v>174.5473303218023</v>
       </c>
       <c r="J107" t="n">
-        <v>113.2163833784394</v>
+        <v>119.4204978016907</v>
       </c>
       <c r="K107" t="n">
-        <v>122.5147771282125</v>
+        <v>129.2287334015838</v>
       </c>
       <c r="L107" t="n">
-        <v>126.3765945277606</v>
+        <v>133.3025539019741</v>
       </c>
       <c r="M107" t="n">
-        <v>164.8704734140817</v>
+        <v>173.9066516348995</v>
       </c>
       <c r="N107" t="n">
-        <v>172.0447900315407</v>
+        <v>181.4848801918566</v>
       </c>
     </row>
     <row r="108">
@@ -5208,40 +5209,40 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>144.9274258115308</v>
+        <v>134.7871508814796</v>
       </c>
       <c r="D108" t="n">
-        <v>222.182414179054</v>
+        <v>196.5188766482674</v>
       </c>
       <c r="E108" t="n">
-        <v>177.9196218860527</v>
+        <v>173.3637909219552</v>
       </c>
       <c r="F108" t="n">
-        <v>180.0206206878356</v>
+        <v>173.6026956703157</v>
       </c>
       <c r="G108" t="n">
-        <v>127.0991896838536</v>
+        <v>118.2832648280018</v>
       </c>
       <c r="H108" t="n">
-        <v>212.8376446383119</v>
+        <v>208.3044787569647</v>
       </c>
       <c r="I108" t="n">
-        <v>162.6089179937192</v>
+        <v>154.8687255491205</v>
       </c>
       <c r="J108" t="n">
-        <v>135.8174150897494</v>
+        <v>131.6901584956764</v>
       </c>
       <c r="K108" t="n">
-        <v>148.7856283444468</v>
+        <v>148.8472283575574</v>
       </c>
       <c r="L108" t="n">
-        <v>155.8946533232214</v>
+        <v>153.7387891447372</v>
       </c>
       <c r="M108" t="n">
-        <v>191.806699289045</v>
+        <v>191.5389951462689</v>
       </c>
       <c r="N108" t="n">
-        <v>166.8673477357857</v>
+        <v>165.5608681683607</v>
       </c>
     </row>
     <row r="109">
@@ -5252,40 +5253,40 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>186.1420368550277</v>
+        <v>185.0115680037227</v>
       </c>
       <c r="D109" t="n">
-        <v>164.5572272596785</v>
+        <v>178.4625656811734</v>
       </c>
       <c r="E109" t="n">
-        <v>150.2126112101903</v>
+        <v>156.6816199933249</v>
       </c>
       <c r="F109" t="n">
-        <v>269.8549340902765</v>
+        <v>158.7481824499519</v>
       </c>
       <c r="G109" t="n">
-        <v>106.3951951386887</v>
+        <v>117.2046156102116</v>
       </c>
       <c r="H109" t="n">
-        <v>169.1122428888389</v>
+        <v>147.6517883453998</v>
       </c>
       <c r="I109" t="n">
-        <v>138.8225959480852</v>
+        <v>154.4234818202402</v>
       </c>
       <c r="J109" t="n">
-        <v>103.5926135737517</v>
+        <v>88.07875235877658</v>
       </c>
       <c r="K109" t="n">
-        <v>111.4084051650194</v>
+        <v>94.08758533765997</v>
       </c>
       <c r="L109" t="n">
-        <v>117.4167051504905</v>
+        <v>105.4128734703988</v>
       </c>
       <c r="M109" t="n">
-        <v>148.8610376499454</v>
+        <v>140.1782473157336</v>
       </c>
       <c r="N109" t="n">
-        <v>130.3395112912582</v>
+        <v>187.503189524975</v>
       </c>
     </row>
   </sheetData>
@@ -5426,40 +5427,40 @@
         <v>2011</v>
       </c>
       <c r="B3" t="n">
-        <v>109.4441832710935</v>
+        <v>109.2818651975474</v>
       </c>
       <c r="C3" t="n">
-        <v>127.716078807196</v>
+        <v>127.8633998524115</v>
       </c>
       <c r="D3" t="n">
-        <v>107.8784400361595</v>
+        <v>108.2375505161463</v>
       </c>
       <c r="E3" t="n">
-        <v>102.7261013237849</v>
+        <v>102.700950585587</v>
       </c>
       <c r="F3" t="n">
-        <v>106.3153418021849</v>
+        <v>106.3592140841332</v>
       </c>
       <c r="G3" t="n">
-        <v>110.9800698447608</v>
+        <v>110.7995597204967</v>
       </c>
       <c r="H3" t="n">
-        <v>106.6680493936857</v>
+        <v>106.5827637877585</v>
       </c>
       <c r="I3" t="n">
-        <v>103.4756292992757</v>
+        <v>103.3037068185208</v>
       </c>
       <c r="J3" t="n">
-        <v>106.2398891334339</v>
+        <v>105.468975235646</v>
       </c>
       <c r="K3" t="n">
-        <v>110.0932347050584</v>
+        <v>110.1848430545836</v>
       </c>
       <c r="L3" t="n">
-        <v>107.8794976187534</v>
+        <v>107.7122638579995</v>
       </c>
       <c r="M3" t="n">
-        <v>108.4789790165515</v>
+        <v>108.5762969610577</v>
       </c>
     </row>
     <row r="4">
@@ -5467,40 +5468,40 @@
         <v>2012</v>
       </c>
       <c r="B4" t="n">
-        <v>121.4113923665812</v>
+        <v>120.621087200379</v>
       </c>
       <c r="C4" t="n">
-        <v>132.3530822140507</v>
+        <v>132.0384245602406</v>
       </c>
       <c r="D4" t="n">
-        <v>118.0718544517183</v>
+        <v>118.8686118540779</v>
       </c>
       <c r="E4" t="n">
-        <v>108.2393106858954</v>
+        <v>108.2372527667138</v>
       </c>
       <c r="F4" t="n">
-        <v>116.4601941243352</v>
+        <v>116.5667220532078</v>
       </c>
       <c r="G4" t="n">
-        <v>124.0969036373828</v>
+        <v>123.6236985189447</v>
       </c>
       <c r="H4" t="n">
-        <v>113.9116566409424</v>
+        <v>114.4595228568344</v>
       </c>
       <c r="I4" t="n">
-        <v>102.314140672916</v>
+        <v>101.7719143257803</v>
       </c>
       <c r="J4" t="n">
-        <v>110.5816348804098</v>
+        <v>110.2639546485425</v>
       </c>
       <c r="K4" t="n">
-        <v>122.3733384546636</v>
+        <v>121.8233128150541</v>
       </c>
       <c r="L4" t="n">
-        <v>119.7975117807188</v>
+        <v>119.9249129741176</v>
       </c>
       <c r="M4" t="n">
-        <v>115.8812127816514</v>
+        <v>115.9943107223593</v>
       </c>
     </row>
     <row r="5">
@@ -5508,40 +5509,40 @@
         <v>2013</v>
       </c>
       <c r="B5" t="n">
-        <v>131.4816456395973</v>
+        <v>130.6614987924891</v>
       </c>
       <c r="C5" t="n">
-        <v>144.7427394707199</v>
+        <v>144.136987587326</v>
       </c>
       <c r="D5" t="n">
-        <v>126.1965490616222</v>
+        <v>126.1759703507807</v>
       </c>
       <c r="E5" t="n">
-        <v>104.4910917279919</v>
+        <v>103.5805192733645</v>
       </c>
       <c r="F5" t="n">
-        <v>122.1973484425646</v>
+        <v>122.3319693721819</v>
       </c>
       <c r="G5" t="n">
-        <v>134.2028848768966</v>
+        <v>134.8981787364138</v>
       </c>
       <c r="H5" t="n">
-        <v>120.3540815505372</v>
+        <v>120.7925384286936</v>
       </c>
       <c r="I5" t="n">
-        <v>105.2713169000408</v>
+        <v>104.4489168801957</v>
       </c>
       <c r="J5" t="n">
-        <v>113.631829408624</v>
+        <v>113.4623928458324</v>
       </c>
       <c r="K5" t="n">
-        <v>136.037431224445</v>
+        <v>135.0317740511489</v>
       </c>
       <c r="L5" t="n">
-        <v>132.5896532633116</v>
+        <v>133.1451690774662</v>
       </c>
       <c r="M5" t="n">
-        <v>128.8526085293681</v>
+        <v>128.8424454994511</v>
       </c>
     </row>
     <row r="6">
@@ -5549,40 +5550,40 @@
         <v>2014</v>
       </c>
       <c r="B6" t="n">
-        <v>133.6196600133995</v>
+        <v>132.717754213715</v>
       </c>
       <c r="C6" t="n">
-        <v>134.3572634188953</v>
+        <v>133.3944843908846</v>
       </c>
       <c r="D6" t="n">
-        <v>137.1728262949016</v>
+        <v>136.1379855773152</v>
       </c>
       <c r="E6" t="n">
-        <v>113.8831195290566</v>
+        <v>112.8739719643249</v>
       </c>
       <c r="F6" t="n">
-        <v>132.705731868096</v>
+        <v>132.831756769785</v>
       </c>
       <c r="G6" t="n">
-        <v>146.284444098277</v>
+        <v>147.8437497922197</v>
       </c>
       <c r="H6" t="n">
-        <v>128.079329077771</v>
+        <v>129.0318362559387</v>
       </c>
       <c r="I6" t="n">
-        <v>107.3146186414598</v>
+        <v>106.573728975866</v>
       </c>
       <c r="J6" t="n">
-        <v>128.8377573721</v>
+        <v>129.2819472119193</v>
       </c>
       <c r="K6" t="n">
-        <v>149.3937493326896</v>
+        <v>147.8838364134771</v>
       </c>
       <c r="L6" t="n">
-        <v>145.7458605339829</v>
+        <v>146.6717836660703</v>
       </c>
       <c r="M6" t="n">
-        <v>140.2852772564499</v>
+        <v>140.2959277509457</v>
       </c>
     </row>
     <row r="7">
@@ -5590,40 +5591,40 @@
         <v>2015</v>
       </c>
       <c r="B7" t="n">
-        <v>146.3976192591259</v>
+        <v>144.649740617227</v>
       </c>
       <c r="C7" t="n">
-        <v>102.5147302922353</v>
+        <v>101.479412171674</v>
       </c>
       <c r="D7" t="n">
-        <v>150.3378214607046</v>
+        <v>150.3694745162526</v>
       </c>
       <c r="E7" t="n">
-        <v>142.4519790435683</v>
+        <v>141.6698232276875</v>
       </c>
       <c r="F7" t="n">
-        <v>140.198802994624</v>
+        <v>140.3730901746339</v>
       </c>
       <c r="G7" t="n">
-        <v>163.5693226880774</v>
+        <v>163.4033958501819</v>
       </c>
       <c r="H7" t="n">
-        <v>139.7897028813667</v>
+        <v>140.981705675456</v>
       </c>
       <c r="I7" t="n">
-        <v>112.6030012717224</v>
+        <v>112.1641019211263</v>
       </c>
       <c r="J7" t="n">
-        <v>145.4309970973279</v>
+        <v>146.4019780308391</v>
       </c>
       <c r="K7" t="n">
-        <v>162.0831356454941</v>
+        <v>160.3142769378389</v>
       </c>
       <c r="L7" t="n">
-        <v>158.285683366021</v>
+        <v>161.0201666360305</v>
       </c>
       <c r="M7" t="n">
-        <v>152.5210870191062</v>
+        <v>152.5329409646496</v>
       </c>
     </row>
     <row r="8">
@@ -5631,40 +5632,40 @@
         <v>2016</v>
       </c>
       <c r="B8" t="n">
-        <v>166.8094298284582</v>
+        <v>164.1563331688651</v>
       </c>
       <c r="C8" t="n">
-        <v>94.17553608188126</v>
+        <v>94.12795316651761</v>
       </c>
       <c r="D8" t="n">
-        <v>160.0475502265218</v>
+        <v>159.5422900407183</v>
       </c>
       <c r="E8" t="n">
-        <v>150.0104060938669</v>
+        <v>149.2323097511772</v>
       </c>
       <c r="F8" t="n">
-        <v>145.5569743789411</v>
+        <v>145.694755204907</v>
       </c>
       <c r="G8" t="n">
-        <v>180.6317173366587</v>
+        <v>179.8346572831655</v>
       </c>
       <c r="H8" t="n">
-        <v>151.4217898441204</v>
+        <v>152.5536306927009</v>
       </c>
       <c r="I8" t="n">
-        <v>114.9178788118361</v>
+        <v>114.4200484586032</v>
       </c>
       <c r="J8" t="n">
-        <v>170.9226024347757</v>
+        <v>171.9195034008404</v>
       </c>
       <c r="K8" t="n">
-        <v>171.943414224591</v>
+        <v>169.9276363151907</v>
       </c>
       <c r="L8" t="n">
-        <v>171.6027274587557</v>
+        <v>174.5559294329068</v>
       </c>
       <c r="M8" t="n">
-        <v>163.5193040532673</v>
+        <v>163.3786659953539</v>
       </c>
     </row>
     <row r="9">
@@ -5672,40 +5673,40 @@
         <v>2017</v>
       </c>
       <c r="B9" t="n">
-        <v>149.5574835714482</v>
+        <v>146.9001461811561</v>
       </c>
       <c r="C9" t="n">
-        <v>113.7456528780738</v>
+        <v>113.6181995209421</v>
       </c>
       <c r="D9" t="n">
-        <v>162.5434364762427</v>
+        <v>162.0497461743863</v>
       </c>
       <c r="E9" t="n">
-        <v>153.7280974659575</v>
+        <v>152.8335911052359</v>
       </c>
       <c r="F9" t="n">
-        <v>145.141727601525</v>
+        <v>145.2016634936244</v>
       </c>
       <c r="G9" t="n">
-        <v>187.8549455626923</v>
+        <v>187.2854770275868</v>
       </c>
       <c r="H9" t="n">
-        <v>161.8651368250004</v>
+        <v>162.4709392686861</v>
       </c>
       <c r="I9" t="n">
-        <v>119.5758930667914</v>
+        <v>118.8767315255358</v>
       </c>
       <c r="J9" t="n">
-        <v>178.0207780438807</v>
+        <v>178.8970911985359</v>
       </c>
       <c r="K9" t="n">
-        <v>178.346132409708</v>
+        <v>176.004209112986</v>
       </c>
       <c r="L9" t="n">
-        <v>181.6201859731513</v>
+        <v>183.7131801593925</v>
       </c>
       <c r="M9" t="n">
-        <v>170.7029079805672</v>
+        <v>170.6267007665055</v>
       </c>
     </row>
     <row r="10">
@@ -5713,40 +5714,40 @@
         <v>2018</v>
       </c>
       <c r="B10" t="n">
-        <v>161.5582182511274</v>
+        <v>159.915803929415</v>
       </c>
       <c r="C10" t="n">
-        <v>158.1751252470779</v>
+        <v>157.0813207813158</v>
       </c>
       <c r="D10" t="n">
-        <v>177.4322816291646</v>
+        <v>176.3516981768722</v>
       </c>
       <c r="E10" t="n">
-        <v>169.1262190296432</v>
+        <v>168.453059701188</v>
       </c>
       <c r="F10" t="n">
-        <v>148.2049194088204</v>
+        <v>148.2771999627352</v>
       </c>
       <c r="G10" t="n">
-        <v>191.2935999976935</v>
+        <v>194.4717908276851</v>
       </c>
       <c r="H10" t="n">
-        <v>169.0491472071332</v>
+        <v>170.899038250212</v>
       </c>
       <c r="I10" t="n">
-        <v>123.5085363774727</v>
+        <v>122.9128666236359</v>
       </c>
       <c r="J10" t="n">
-        <v>178.2253534939904</v>
+        <v>179.1513734236229</v>
       </c>
       <c r="K10" t="n">
-        <v>180.6842251675777</v>
+        <v>178.4291594859991</v>
       </c>
       <c r="L10" t="n">
-        <v>191.886537072842</v>
+        <v>194.5642700159326</v>
       </c>
       <c r="M10" t="n">
-        <v>177.8085969352874</v>
+        <v>177.6345863486934</v>
       </c>
     </row>
   </sheetData>
@@ -5891,7 +5892,7 @@
         <v>106.391290868567</v>
       </c>
       <c r="G3" t="n">
-        <v>111.0970089708504</v>
+        <v>111.0970089708503</v>
       </c>
       <c r="H3" t="n">
         <v>108.2361164674123</v>
@@ -5917,40 +5918,40 @@
         <v>2012</v>
       </c>
       <c r="B4" t="n">
-        <v>121.1429750118911</v>
+        <v>120.9633063100939</v>
       </c>
       <c r="C4" t="n">
-        <v>140.466373368601</v>
+        <v>140.6284019333327</v>
       </c>
       <c r="D4" t="n">
-        <v>116.7847438880332</v>
+        <v>117.1735020626852</v>
       </c>
       <c r="E4" t="n">
-        <v>110.3971267943834</v>
+        <v>110.3700979361086</v>
       </c>
       <c r="F4" t="n">
-        <v>116.3950416279002</v>
+        <v>116.4430734170768</v>
       </c>
       <c r="G4" t="n">
-        <v>123.5256492244924</v>
+        <v>123.324733597727</v>
       </c>
       <c r="H4" t="n">
-        <v>113.0611760013861</v>
+        <v>112.9707788210034</v>
       </c>
       <c r="I4" t="n">
-        <v>103.6671145963902</v>
+        <v>103.4948739670284</v>
       </c>
       <c r="J4" t="n">
-        <v>111.5576455817363</v>
+        <v>110.7481441780268</v>
       </c>
       <c r="K4" t="n">
-        <v>121.1893079474661</v>
+        <v>121.2901493162469</v>
       </c>
       <c r="L4" t="n">
-        <v>118.4396425798443</v>
+        <v>118.2560385838285</v>
       </c>
       <c r="M4" t="n">
-        <v>116.0037438869581</v>
+        <v>116.107812398779</v>
       </c>
     </row>
     <row r="5">
@@ -5958,40 +5959,40 @@
         <v>2013</v>
       </c>
       <c r="B5" t="n">
-        <v>130.2591539466183</v>
+        <v>129.4112559009528</v>
       </c>
       <c r="C5" t="n">
-        <v>142.0355653678104</v>
+        <v>141.6978884734866</v>
       </c>
       <c r="D5" t="n">
-        <v>126.2044586951079</v>
+        <v>127.056095498333</v>
       </c>
       <c r="E5" t="n">
-        <v>104.9270969921938</v>
+        <v>104.9251020470653</v>
       </c>
       <c r="F5" t="n">
-        <v>122.0875206754012</v>
+        <v>122.199196006329</v>
       </c>
       <c r="G5" t="n">
-        <v>134.5272333442256</v>
+        <v>134.014255392948</v>
       </c>
       <c r="H5" t="n">
-        <v>123.9932926455591</v>
+        <v>124.5896472069876</v>
       </c>
       <c r="I5" t="n">
-        <v>105.257816673794</v>
+        <v>104.6999899543675</v>
       </c>
       <c r="J5" t="n">
-        <v>114.0435431138724</v>
+        <v>113.7159174709836</v>
       </c>
       <c r="K5" t="n">
-        <v>134.6289523411162</v>
+        <v>134.0238419751127</v>
       </c>
       <c r="L5" t="n">
-        <v>131.3550011475119</v>
+        <v>131.4946933970114</v>
       </c>
       <c r="M5" t="n">
-        <v>128.4324142411729</v>
+        <v>128.5577619245647</v>
       </c>
     </row>
     <row r="6">
@@ -5999,40 +6000,40 @@
         <v>2014</v>
       </c>
       <c r="B6" t="n">
-        <v>135.4842263194132</v>
+        <v>134.6391124595415</v>
       </c>
       <c r="C6" t="n">
-        <v>142.206434662705</v>
+        <v>141.6112972765903</v>
       </c>
       <c r="D6" t="n">
-        <v>137.2070159200869</v>
+        <v>137.1846417464107</v>
       </c>
       <c r="E6" t="n">
-        <v>116.4978799621919</v>
+        <v>115.4826760939788</v>
       </c>
       <c r="F6" t="n">
-        <v>132.7614760469787</v>
+        <v>132.9077351397544</v>
       </c>
       <c r="G6" t="n">
-        <v>146.6990992170416</v>
+        <v>147.4591349120707</v>
       </c>
       <c r="H6" t="n">
-        <v>129.9547793260475</v>
+        <v>130.428212101328</v>
       </c>
       <c r="I6" t="n">
-        <v>107.4414629414289</v>
+        <v>106.6021093182657</v>
       </c>
       <c r="J6" t="n">
-        <v>127.5025245295012</v>
+        <v>127.3124053558863</v>
       </c>
       <c r="K6" t="n">
-        <v>149.5254680041121</v>
+        <v>148.4201004730192</v>
       </c>
       <c r="L6" t="n">
-        <v>145.3972339697529</v>
+        <v>146.0064101823501</v>
       </c>
       <c r="M6" t="n">
-        <v>140.0672130384214</v>
+        <v>140.0561654756848</v>
       </c>
     </row>
     <row r="7">
@@ -6040,40 +6041,40 @@
         <v>2015</v>
       </c>
       <c r="B7" t="n">
-        <v>143.1151289428856</v>
+        <v>142.149130639917</v>
       </c>
       <c r="C7" t="n">
-        <v>106.2453916188499</v>
+        <v>105.4840570078993</v>
       </c>
       <c r="D7" t="n">
-        <v>149.171163858912</v>
+        <v>148.0458069028696</v>
       </c>
       <c r="E7" t="n">
-        <v>138.1008492130952</v>
+        <v>136.8771021270732</v>
       </c>
       <c r="F7" t="n">
-        <v>140.0300314668737</v>
+        <v>140.1630119395382</v>
       </c>
       <c r="G7" t="n">
-        <v>163.1409308346699</v>
+        <v>164.8799167120384</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5182789486182</v>
+        <v>139.5484190653412</v>
       </c>
       <c r="I7" t="n">
-        <v>111.6474704608607</v>
+        <v>110.8766672086915</v>
       </c>
       <c r="J7" t="n">
-        <v>146.4864055335167</v>
+        <v>146.9914420564804</v>
       </c>
       <c r="K7" t="n">
-        <v>161.6127917191534</v>
+        <v>159.9793817323451</v>
       </c>
       <c r="L7" t="n">
-        <v>158.29227317219</v>
+        <v>159.2979036362309</v>
       </c>
       <c r="M7" t="n">
-        <v>152.5613331981257</v>
+        <v>152.5729156939604</v>
       </c>
     </row>
     <row r="8">
@@ -6081,40 +6082,40 @@
         <v>2016</v>
       </c>
       <c r="B8" t="n">
-        <v>168.8824771864517</v>
+        <v>166.8661460715126</v>
       </c>
       <c r="C8" t="n">
-        <v>84.01549722255423</v>
+        <v>83.16700680137745</v>
       </c>
       <c r="D8" t="n">
-        <v>159.0081116322593</v>
+        <v>159.0415901843707</v>
       </c>
       <c r="E8" t="n">
-        <v>145.3480070699188</v>
+        <v>144.5499501399997</v>
       </c>
       <c r="F8" t="n">
-        <v>145.9732522708155</v>
+        <v>146.1547179178234</v>
       </c>
       <c r="G8" t="n">
-        <v>179.4966234560875</v>
+        <v>179.3145397581573</v>
       </c>
       <c r="H8" t="n">
-        <v>149.7608746274445</v>
+        <v>151.0379027441196</v>
       </c>
       <c r="I8" t="n">
-        <v>116.2502054009637</v>
+        <v>115.7970901280055</v>
       </c>
       <c r="J8" t="n">
-        <v>169.5739376877285</v>
+        <v>170.7061107705068</v>
       </c>
       <c r="K8" t="n">
-        <v>171.7890275955978</v>
+        <v>169.9142457675443</v>
       </c>
       <c r="L8" t="n">
-        <v>170.7032683388973</v>
+        <v>173.6522730845082</v>
       </c>
       <c r="M8" t="n">
-        <v>163.1857006396677</v>
+        <v>163.1983834394474</v>
       </c>
     </row>
     <row r="9">
@@ -6122,40 +6123,40 @@
         <v>2017</v>
       </c>
       <c r="B9" t="n">
-        <v>152.4457309917814</v>
+        <v>150.0210883317145</v>
       </c>
       <c r="C9" t="n">
-        <v>110.6434777060329</v>
+        <v>110.5875742362544</v>
       </c>
       <c r="D9" t="n">
-        <v>163.1137787559371</v>
+        <v>162.5988386769125</v>
       </c>
       <c r="E9" t="n">
-        <v>167.1894161188702</v>
+        <v>166.3222131253852</v>
       </c>
       <c r="F9" t="n">
-        <v>145.2833565346361</v>
+        <v>145.4208783603532</v>
       </c>
       <c r="G9" t="n">
-        <v>188.0397571690208</v>
+        <v>187.2100082128691</v>
       </c>
       <c r="H9" t="n">
-        <v>160.9617054636315</v>
+        <v>162.1648548484623</v>
       </c>
       <c r="I9" t="n">
-        <v>119.7329890354012</v>
+        <v>119.2142993689942</v>
       </c>
       <c r="J9" t="n">
-        <v>174.6599783038405</v>
+        <v>175.6786774028692</v>
       </c>
       <c r="K9" t="n">
-        <v>178.5312889878687</v>
+        <v>176.4382781557792</v>
       </c>
       <c r="L9" t="n">
-        <v>179.2774537070607</v>
+        <v>182.3627340988641</v>
       </c>
       <c r="M9" t="n">
-        <v>170.4559085124898</v>
+        <v>170.3093044887518</v>
       </c>
     </row>
     <row r="10">
@@ -6163,43 +6164,2939 @@
         <v>2018</v>
       </c>
       <c r="B10" t="n">
-        <v>159.9547345006367</v>
+        <v>157.1126587542919</v>
       </c>
       <c r="C10" t="n">
-        <v>159.3528761640195</v>
+        <v>159.174319370667</v>
       </c>
       <c r="D10" t="n">
-        <v>181.1444139653657</v>
+        <v>180.5942272439029</v>
       </c>
       <c r="E10" t="n">
-        <v>166.175286831601</v>
+        <v>165.2083533073081</v>
       </c>
       <c r="F10" t="n">
-        <v>148.329860557447</v>
+        <v>148.3911129806087</v>
       </c>
       <c r="G10" t="n">
-        <v>195.3373869937704</v>
+        <v>194.7452359844398</v>
       </c>
       <c r="H10" t="n">
-        <v>172.8247733030722</v>
+        <v>173.4715936873136</v>
       </c>
       <c r="I10" t="n">
-        <v>123.5429574783011</v>
+        <v>122.8206004684852</v>
       </c>
       <c r="J10" t="n">
-        <v>176.9766575130139</v>
+        <v>177.8478309498996</v>
       </c>
       <c r="K10" t="n">
-        <v>181.297899534391</v>
+        <v>178.9172155866675</v>
       </c>
       <c r="L10" t="n">
-        <v>191.2524389896228</v>
+        <v>193.4564354273805</v>
       </c>
       <c r="M10" t="n">
-        <v>177.8874149337449</v>
+        <v>177.8080003269928</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H109"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Exportação
+de bens e
+serviços (1)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo
+do governo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo
+das
+ ISFLSF</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo 
+das famílias</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Formação bruta
+de capital fixo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Variação
+de estoque</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Agropecuária</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Indústrias extrativas</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Indústrias de transformação</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Eletricidade e gás, água, esgoto, atividades de gestão de resíduos</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>100</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>100</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Comércio</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>100</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>100</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Informação e comunicação</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Atividades financeiras, de seguros e serviços relacionados</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>100</v>
+      </c>
+      <c r="E10" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>100</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Atividades imobiliárias</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" t="n">
+        <v>100</v>
+      </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>100</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Outras atividades de serviços</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>100</v>
+      </c>
+      <c r="E12" t="n">
+        <v>100</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>100</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Administração, defesa, saúde e educação públicas e seguridade social</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>100</v>
+      </c>
+      <c r="E13" t="n">
+        <v>100</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>100</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>Agropecuária</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>126.7712319295691</v>
+      </c>
+      <c r="D14" t="n">
+        <v>103.444485870254</v>
+      </c>
+      <c r="E14" t="n">
+        <v>100</v>
+      </c>
+      <c r="F14" t="n">
+        <v>104.0452744117684</v>
+      </c>
+      <c r="G14" t="n">
+        <v>96.42091012342473</v>
+      </c>
+      <c r="H14" t="n">
+        <v>77.43893326567394</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Indústrias extrativas</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>131.4334948185137</v>
+      </c>
+      <c r="D15" t="n">
+        <v>89.80949970665716</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100</v>
+      </c>
+      <c r="F15" t="n">
+        <v>84.97057155088713</v>
+      </c>
+      <c r="G15" t="n">
+        <v>110.1739930906538</v>
+      </c>
+      <c r="H15" t="n">
+        <v>141.283630871076</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Indústrias de transformação</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>111.7963193954372</v>
+      </c>
+      <c r="D16" t="n">
+        <v>104.3000982300163</v>
+      </c>
+      <c r="E16" t="n">
+        <v>100</v>
+      </c>
+      <c r="F16" t="n">
+        <v>107.9669876651926</v>
+      </c>
+      <c r="G16" t="n">
+        <v>101.7496967144878</v>
+      </c>
+      <c r="H16" t="n">
+        <v>128.9683553939161</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>Eletricidade e gás, água, esgoto, atividades de gestão de resíduos</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>139.9185242968339</v>
+      </c>
+      <c r="D17" t="n">
+        <v>100.2062181695996</v>
+      </c>
+      <c r="E17" t="n">
+        <v>100</v>
+      </c>
+      <c r="F17" t="n">
+        <v>102.3655661535559</v>
+      </c>
+      <c r="G17" t="n">
+        <v>103.9080243695664</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>95.11258877985564</v>
+      </c>
+      <c r="D18" t="n">
+        <v>100</v>
+      </c>
+      <c r="E18" t="n">
+        <v>100</v>
+      </c>
+      <c r="F18" t="n">
+        <v>81.63895070837029</v>
+      </c>
+      <c r="G18" t="n">
+        <v>106.4869911358119</v>
+      </c>
+      <c r="H18" t="n">
+        <v>195.6344646585681</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Comércio</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>113.3807273427824</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.0360597920903</v>
+      </c>
+      <c r="E19" t="n">
+        <v>100</v>
+      </c>
+      <c r="F19" t="n">
+        <v>110.0187881060629</v>
+      </c>
+      <c r="G19" t="n">
+        <v>112.9999341361474</v>
+      </c>
+      <c r="H19" t="n">
+        <v>94.37756679241791</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>102.3945375445617</v>
+      </c>
+      <c r="D20" t="n">
+        <v>104.8727782591858</v>
+      </c>
+      <c r="E20" t="n">
+        <v>100</v>
+      </c>
+      <c r="F20" t="n">
+        <v>107.672859054898</v>
+      </c>
+      <c r="G20" t="n">
+        <v>105.134839279034</v>
+      </c>
+      <c r="H20" t="n">
+        <v>117.019559710682</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>Informação e comunicação</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>89.4699058995774</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-126.6325002438637</v>
+      </c>
+      <c r="E21" t="n">
+        <v>100</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100.8612724146369</v>
+      </c>
+      <c r="G21" t="n">
+        <v>109.9283120766428</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-115.563182970188</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>Atividades financeiras, de seguros e serviços relacionados</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>99.46927175009576</v>
+      </c>
+      <c r="D22" t="n">
+        <v>104.4724818161393</v>
+      </c>
+      <c r="E22" t="n">
+        <v>91.80064625220641</v>
+      </c>
+      <c r="F22" t="n">
+        <v>105.725671534614</v>
+      </c>
+      <c r="G22" t="n">
+        <v>109.8372154744742</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>Atividades imobiliárias</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>95.46161415855531</v>
+      </c>
+      <c r="D23" t="n">
+        <v>100</v>
+      </c>
+      <c r="E23" t="n">
+        <v>100</v>
+      </c>
+      <c r="F23" t="n">
+        <v>110.3383194106308</v>
+      </c>
+      <c r="G23" t="n">
+        <v>100</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>Outras atividades de serviços</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>96.40435337645881</v>
+      </c>
+      <c r="D24" t="n">
+        <v>102.2079248275799</v>
+      </c>
+      <c r="E24" t="n">
+        <v>107.6541767398788</v>
+      </c>
+      <c r="F24" t="n">
+        <v>109.1719358987057</v>
+      </c>
+      <c r="G24" t="n">
+        <v>105.7180879785719</v>
+      </c>
+      <c r="H24" t="n">
+        <v>92.72764159188911</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Administração, defesa, saúde e educação públicas e seguridade social</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>127.6522705258803</v>
+      </c>
+      <c r="D25" t="n">
+        <v>108.433668331653</v>
+      </c>
+      <c r="E25" t="n">
+        <v>95.39646470796959</v>
+      </c>
+      <c r="F25" t="n">
+        <v>110.1008125952255</v>
+      </c>
+      <c r="G25" t="n">
+        <v>112.7628937714963</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-714.2702981323974</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>Agropecuária</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>148.1009592170081</v>
+      </c>
+      <c r="D26" t="n">
+        <v>118.3114549283792</v>
+      </c>
+      <c r="E26" t="n">
+        <v>100</v>
+      </c>
+      <c r="F26" t="n">
+        <v>115.2150879695583</v>
+      </c>
+      <c r="G26" t="n">
+        <v>101.3839041554727</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-6.378240722449934</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Indústrias extrativas</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>129.6211727879411</v>
+      </c>
+      <c r="D27" t="n">
+        <v>78.92342140890179</v>
+      </c>
+      <c r="E27" t="n">
+        <v>100</v>
+      </c>
+      <c r="F27" t="n">
+        <v>99.3405822467833</v>
+      </c>
+      <c r="G27" t="n">
+        <v>129.4358868989427</v>
+      </c>
+      <c r="H27" t="n">
+        <v>64.25148001353188</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Indústrias de transformação</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>128.7837527502883</v>
+      </c>
+      <c r="D28" t="n">
+        <v>105.093785902836</v>
+      </c>
+      <c r="E28" t="n">
+        <v>100</v>
+      </c>
+      <c r="F28" t="n">
+        <v>115.6028315218105</v>
+      </c>
+      <c r="G28" t="n">
+        <v>111.2324152118018</v>
+      </c>
+      <c r="H28" t="n">
+        <v>190.5466346479108</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Eletricidade e gás, água, esgoto, atividades de gestão de resíduos</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>137.0249429265619</v>
+      </c>
+      <c r="D29" t="n">
+        <v>103.3635360538128</v>
+      </c>
+      <c r="E29" t="n">
+        <v>100</v>
+      </c>
+      <c r="F29" t="n">
+        <v>107.7718091210257</v>
+      </c>
+      <c r="G29" t="n">
+        <v>112.7239481860307</v>
+      </c>
+      <c r="H29" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>109.616820567192</v>
+      </c>
+      <c r="D30" t="n">
+        <v>100</v>
+      </c>
+      <c r="E30" t="n">
+        <v>100</v>
+      </c>
+      <c r="F30" t="n">
+        <v>53.01456447136997</v>
+      </c>
+      <c r="G30" t="n">
+        <v>116.7561869300364</v>
+      </c>
+      <c r="H30" t="n">
+        <v>146.0230558962353</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>Comércio</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>129.0191333870085</v>
+      </c>
+      <c r="D31" t="n">
+        <v>120.1529849002628</v>
+      </c>
+      <c r="E31" t="n">
+        <v>100</v>
+      </c>
+      <c r="F31" t="n">
+        <v>123.0060553540196</v>
+      </c>
+      <c r="G31" t="n">
+        <v>121.5196273548995</v>
+      </c>
+      <c r="H31" t="n">
+        <v>354.2839420668219</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>117.9520207623417</v>
+      </c>
+      <c r="D32" t="n">
+        <v>107.6337160385847</v>
+      </c>
+      <c r="E32" t="n">
+        <v>100</v>
+      </c>
+      <c r="F32" t="n">
+        <v>113.6346161552593</v>
+      </c>
+      <c r="G32" t="n">
+        <v>111.4265438685562</v>
+      </c>
+      <c r="H32" t="n">
+        <v>185.5500684725856</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>Informação e comunicação</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>103.9758568146275</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-76.54562766139775</v>
+      </c>
+      <c r="E33" t="n">
+        <v>100</v>
+      </c>
+      <c r="F33" t="n">
+        <v>97.34971419617906</v>
+      </c>
+      <c r="G33" t="n">
+        <v>111.2184612579005</v>
+      </c>
+      <c r="H33" t="n">
+        <v>118.96569265269</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>Atividades financeiras, de seguros e serviços relacionados</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>112.3538524187564</v>
+      </c>
+      <c r="D34" t="n">
+        <v>109.918346542707</v>
+      </c>
+      <c r="E34" t="n">
+        <v>90.26646006618719</v>
+      </c>
+      <c r="F34" t="n">
+        <v>110.1425169276625</v>
+      </c>
+      <c r="G34" t="n">
+        <v>142.1656847229069</v>
+      </c>
+      <c r="H34" t="n">
+        <v>125.6332012555961</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>Atividades imobiliárias</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>114.2505436592993</v>
+      </c>
+      <c r="D35" t="n">
+        <v>100</v>
+      </c>
+      <c r="E35" t="n">
+        <v>100</v>
+      </c>
+      <c r="F35" t="n">
+        <v>121.9082405275515</v>
+      </c>
+      <c r="G35" t="n">
+        <v>100</v>
+      </c>
+      <c r="H35" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>Outras atividades de serviços</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>111.8916457073887</v>
+      </c>
+      <c r="D36" t="n">
+        <v>113.3628084566956</v>
+      </c>
+      <c r="E36" t="n">
+        <v>117.5278165132151</v>
+      </c>
+      <c r="F36" t="n">
+        <v>121.637333847923</v>
+      </c>
+      <c r="G36" t="n">
+        <v>112.4431313862638</v>
+      </c>
+      <c r="H36" t="n">
+        <v>115.7250562016871</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>Administração, defesa, saúde e educação públicas e seguridade social</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>151.1127291666158</v>
+      </c>
+      <c r="D37" t="n">
+        <v>115.6441235679448</v>
+      </c>
+      <c r="E37" t="n">
+        <v>95.7722778420215</v>
+      </c>
+      <c r="F37" t="n">
+        <v>123.5548166896847</v>
+      </c>
+      <c r="G37" t="n">
+        <v>124.6017530363365</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-618.9331753092229</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>Agropecuária</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>151.7571594214123</v>
+      </c>
+      <c r="D38" t="n">
+        <v>145.3241528618966</v>
+      </c>
+      <c r="E38" t="n">
+        <v>100</v>
+      </c>
+      <c r="F38" t="n">
+        <v>132.4220498685313</v>
+      </c>
+      <c r="G38" t="n">
+        <v>105.760458267665</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-6.546794962978188</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>Indústrias extrativas</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>142.6813529361625</v>
+      </c>
+      <c r="D39" t="n">
+        <v>38.8589125966714</v>
+      </c>
+      <c r="E39" t="n">
+        <v>100</v>
+      </c>
+      <c r="F39" t="n">
+        <v>77.46705810185215</v>
+      </c>
+      <c r="G39" t="n">
+        <v>136.8667594476318</v>
+      </c>
+      <c r="H39" t="n">
+        <v>72.62481717035901</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>Indústrias de transformação</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>137.8466560828828</v>
+      </c>
+      <c r="D40" t="n">
+        <v>111.5475478588435</v>
+      </c>
+      <c r="E40" t="n">
+        <v>100</v>
+      </c>
+      <c r="F40" t="n">
+        <v>122.4444081794261</v>
+      </c>
+      <c r="G40" t="n">
+        <v>116.0400719633511</v>
+      </c>
+      <c r="H40" t="n">
+        <v>226.5343415460562</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>Eletricidade e gás, água, esgoto, atividades de gestão de resíduos</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>166.3711709285503</v>
+      </c>
+      <c r="D41" t="n">
+        <v>38.24061107078225</v>
+      </c>
+      <c r="E41" t="n">
+        <v>100</v>
+      </c>
+      <c r="F41" t="n">
+        <v>103.0691825739721</v>
+      </c>
+      <c r="G41" t="n">
+        <v>104.7944234162113</v>
+      </c>
+      <c r="H41" t="n">
+        <v>106.4552492434861</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>121.0405915717059</v>
+      </c>
+      <c r="D42" t="n">
+        <v>100</v>
+      </c>
+      <c r="E42" t="n">
+        <v>100</v>
+      </c>
+      <c r="F42" t="n">
+        <v>46.1486614379643</v>
+      </c>
+      <c r="G42" t="n">
+        <v>122.520119743059</v>
+      </c>
+      <c r="H42" t="n">
+        <v>168.9050698925487</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>Comércio</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>141.2262722878571</v>
+      </c>
+      <c r="D43" t="n">
+        <v>123.0290709751163</v>
+      </c>
+      <c r="E43" t="n">
+        <v>100</v>
+      </c>
+      <c r="F43" t="n">
+        <v>135.0992650225924</v>
+      </c>
+      <c r="G43" t="n">
+        <v>127.670908673315</v>
+      </c>
+      <c r="H43" t="n">
+        <v>405.9936437173097</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>130.5687727554302</v>
+      </c>
+      <c r="D44" t="n">
+        <v>113.9649248889427</v>
+      </c>
+      <c r="E44" t="n">
+        <v>100</v>
+      </c>
+      <c r="F44" t="n">
+        <v>118.3814874408177</v>
+      </c>
+      <c r="G44" t="n">
+        <v>123.1923518829814</v>
+      </c>
+      <c r="H44" t="n">
+        <v>142.1784047022635</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>Informação e comunicação</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>111.2298380898006</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-162.9543071563829</v>
+      </c>
+      <c r="E45" t="n">
+        <v>100</v>
+      </c>
+      <c r="F45" t="n">
+        <v>97.57212675183422</v>
+      </c>
+      <c r="G45" t="n">
+        <v>120.8047238333724</v>
+      </c>
+      <c r="H45" t="n">
+        <v>55.44536187822364</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>Atividades financeiras, de seguros e serviços relacionados</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>122.3200821056155</v>
+      </c>
+      <c r="D46" t="n">
+        <v>131.5320698687176</v>
+      </c>
+      <c r="E46" t="n">
+        <v>87.32340642552442</v>
+      </c>
+      <c r="F46" t="n">
+        <v>112.8782600124862</v>
+      </c>
+      <c r="G46" t="n">
+        <v>146.8060926511005</v>
+      </c>
+      <c r="H46" t="n">
+        <v>119.7984453539858</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>Atividades imobiliárias</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>127.2782799066928</v>
+      </c>
+      <c r="D47" t="n">
+        <v>100</v>
+      </c>
+      <c r="E47" t="n">
+        <v>100</v>
+      </c>
+      <c r="F47" t="n">
+        <v>135.1204538037028</v>
+      </c>
+      <c r="G47" t="n">
+        <v>100</v>
+      </c>
+      <c r="H47" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>Outras atividades de serviços</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>123.1958570624514</v>
+      </c>
+      <c r="D48" t="n">
+        <v>117.7754375675999</v>
+      </c>
+      <c r="E48" t="n">
+        <v>124.2525639502453</v>
+      </c>
+      <c r="F48" t="n">
+        <v>136.8781964496443</v>
+      </c>
+      <c r="G48" t="n">
+        <v>114.1053452538994</v>
+      </c>
+      <c r="H48" t="n">
+        <v>50.13669153707375</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>Administração, defesa, saúde e educação públicas e seguridade social</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>149.754956364863</v>
+      </c>
+      <c r="D49" t="n">
+        <v>128.9681342771705</v>
+      </c>
+      <c r="E49" t="n">
+        <v>95.80308375737619</v>
+      </c>
+      <c r="F49" t="n">
+        <v>122.1328652272239</v>
+      </c>
+      <c r="G49" t="n">
+        <v>127.7183609862121</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-445.7469375300445</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>Agropecuária</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>158.3442348214515</v>
+      </c>
+      <c r="D50" t="n">
+        <v>142.8968587220038</v>
+      </c>
+      <c r="E50" t="n">
+        <v>100</v>
+      </c>
+      <c r="F50" t="n">
+        <v>132.4279099022833</v>
+      </c>
+      <c r="G50" t="n">
+        <v>109.1987761911696</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-5.729821517377564</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>Indústrias extrativas</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>127.3292735342139</v>
+      </c>
+      <c r="D51" t="n">
+        <v>35.80762691512233</v>
+      </c>
+      <c r="E51" t="n">
+        <v>100</v>
+      </c>
+      <c r="F51" t="n">
+        <v>83.22970990816069</v>
+      </c>
+      <c r="G51" t="n">
+        <v>143.6746503936079</v>
+      </c>
+      <c r="H51" t="n">
+        <v>80.56733296700681</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>Indústrias de transformação</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>148.176700198398</v>
+      </c>
+      <c r="D52" t="n">
+        <v>117.4790269975618</v>
+      </c>
+      <c r="E52" t="n">
+        <v>100</v>
+      </c>
+      <c r="F52" t="n">
+        <v>131.1906117619991</v>
+      </c>
+      <c r="G52" t="n">
+        <v>122.8640092280149</v>
+      </c>
+      <c r="H52" t="n">
+        <v>479.1948831846002</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>Eletricidade e gás, água, esgoto, atividades de gestão de resíduos</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>180.7498787463851</v>
+      </c>
+      <c r="D53" t="n">
+        <v>9.566202695862437</v>
+      </c>
+      <c r="E53" t="n">
+        <v>100</v>
+      </c>
+      <c r="F53" t="n">
+        <v>112.3006900119094</v>
+      </c>
+      <c r="G53" t="n">
+        <v>112.8280732446675</v>
+      </c>
+      <c r="H53" t="n">
+        <v>120.7536953718147</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>131.2491778514947</v>
+      </c>
+      <c r="D54" t="n">
+        <v>100</v>
+      </c>
+      <c r="E54" t="n">
+        <v>100</v>
+      </c>
+      <c r="F54" t="n">
+        <v>52.94024977344274</v>
+      </c>
+      <c r="G54" t="n">
+        <v>133.0285488094254</v>
+      </c>
+      <c r="H54" t="n">
+        <v>135.5127134696367</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>Comércio</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>148.8791909583778</v>
+      </c>
+      <c r="D55" t="n">
+        <v>130.2033600072349</v>
+      </c>
+      <c r="E55" t="n">
+        <v>106.5140145196532</v>
+      </c>
+      <c r="F55" t="n">
+        <v>148.9275365728372</v>
+      </c>
+      <c r="G55" t="n">
+        <v>139.6552634926455</v>
+      </c>
+      <c r="H55" t="n">
+        <v>507.1001601044041</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>135.6384838833989</v>
+      </c>
+      <c r="D56" t="n">
+        <v>125.8332807035959</v>
+      </c>
+      <c r="E56" t="n">
+        <v>100</v>
+      </c>
+      <c r="F56" t="n">
+        <v>127.0313028688629</v>
+      </c>
+      <c r="G56" t="n">
+        <v>137.9764674161958</v>
+      </c>
+      <c r="H56" t="n">
+        <v>17.66365919541281</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>Informação e comunicação</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>138.1472568924277</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-162.9033231834661</v>
+      </c>
+      <c r="E57" t="n">
+        <v>100</v>
+      </c>
+      <c r="F57" t="n">
+        <v>98.93288654709772</v>
+      </c>
+      <c r="G57" t="n">
+        <v>122.9548413432218</v>
+      </c>
+      <c r="H57" t="n">
+        <v>76.51984862180652</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>Atividades financeiras, de seguros e serviços relacionados</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>133.1863261323089</v>
+      </c>
+      <c r="D58" t="n">
+        <v>173.2872076909037</v>
+      </c>
+      <c r="E58" t="n">
+        <v>88.1091714748345</v>
+      </c>
+      <c r="F58" t="n">
+        <v>128.7212507297297</v>
+      </c>
+      <c r="G58" t="n">
+        <v>158.7445772208067</v>
+      </c>
+      <c r="H58" t="n">
+        <v>137.8816307185675</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>Atividades imobiliárias</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>161.0219386239484</v>
+      </c>
+      <c r="D59" t="n">
+        <v>100</v>
+      </c>
+      <c r="E59" t="n">
+        <v>100</v>
+      </c>
+      <c r="F59" t="n">
+        <v>147.7753522822853</v>
+      </c>
+      <c r="G59" t="n">
+        <v>100</v>
+      </c>
+      <c r="H59" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>Outras atividades de serviços</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>129.7354159723203</v>
+      </c>
+      <c r="D60" t="n">
+        <v>129.3889702076495</v>
+      </c>
+      <c r="E60" t="n">
+        <v>133.6226480235966</v>
+      </c>
+      <c r="F60" t="n">
+        <v>151.8523117170639</v>
+      </c>
+      <c r="G60" t="n">
+        <v>122.8383113506623</v>
+      </c>
+      <c r="H60" t="n">
+        <v>27.13354397400532</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>Administração, defesa, saúde e educação públicas e seguridade social</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>134.140875593566</v>
+      </c>
+      <c r="D61" t="n">
+        <v>140.5686019981946</v>
+      </c>
+      <c r="E61" t="n">
+        <v>90.31331933651954</v>
+      </c>
+      <c r="F61" t="n">
+        <v>122.0379550202426</v>
+      </c>
+      <c r="G61" t="n">
+        <v>141.2827610099761</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-389.4325265613481</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>Agropecuária</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>183.622273803195</v>
+      </c>
+      <c r="D62" t="n">
+        <v>161.0348688292928</v>
+      </c>
+      <c r="E62" t="n">
+        <v>100</v>
+      </c>
+      <c r="F62" t="n">
+        <v>142.0979765311906</v>
+      </c>
+      <c r="G62" t="n">
+        <v>122.8638186407913</v>
+      </c>
+      <c r="H62" t="n">
+        <v>16.50073329065974</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>Indústrias extrativas</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>93.32553435990393</v>
+      </c>
+      <c r="D63" t="n">
+        <v>61.24937990556182</v>
+      </c>
+      <c r="E63" t="n">
+        <v>100</v>
+      </c>
+      <c r="F63" t="n">
+        <v>79.8609946932028</v>
+      </c>
+      <c r="G63" t="n">
+        <v>151.6335178967196</v>
+      </c>
+      <c r="H63" t="n">
+        <v>56.4015737148607</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>Indústrias de transformação</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>181.395596761378</v>
+      </c>
+      <c r="D64" t="n">
+        <v>119.9974735597919</v>
+      </c>
+      <c r="E64" t="n">
+        <v>100</v>
+      </c>
+      <c r="F64" t="n">
+        <v>138.6274453544139</v>
+      </c>
+      <c r="G64" t="n">
+        <v>130.3218057736551</v>
+      </c>
+      <c r="H64" t="n">
+        <v>343.8730800152099</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>Eletricidade e gás, água, esgoto, atividades de gestão de resíduos</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>191.9049738290686</v>
+      </c>
+      <c r="D65" t="n">
+        <v>7.336382786898818</v>
+      </c>
+      <c r="E65" t="n">
+        <v>100</v>
+      </c>
+      <c r="F65" t="n">
+        <v>141.057240423361</v>
+      </c>
+      <c r="G65" t="n">
+        <v>146.5541933026326</v>
+      </c>
+      <c r="H65" t="n">
+        <v>130.6135712584712</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>184.2927609296632</v>
+      </c>
+      <c r="D66" t="n">
+        <v>100</v>
+      </c>
+      <c r="E66" t="n">
+        <v>100</v>
+      </c>
+      <c r="F66" t="n">
+        <v>46.28117231933855</v>
+      </c>
+      <c r="G66" t="n">
+        <v>140.3169485708455</v>
+      </c>
+      <c r="H66" t="n">
+        <v>181.0992988335789</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>Comércio</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>183.1302358186145</v>
+      </c>
+      <c r="D67" t="n">
+        <v>137.734582688759</v>
+      </c>
+      <c r="E67" t="n">
+        <v>114.3522928420745</v>
+      </c>
+      <c r="F67" t="n">
+        <v>162.1860433474334</v>
+      </c>
+      <c r="G67" t="n">
+        <v>152.955482156069</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3632.211487661101</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>160.0932611515695</v>
+      </c>
+      <c r="D68" t="n">
+        <v>131.5428048801076</v>
+      </c>
+      <c r="E68" t="n">
+        <v>100</v>
+      </c>
+      <c r="F68" t="n">
+        <v>136.3365061069734</v>
+      </c>
+      <c r="G68" t="n">
+        <v>147.5111696872841</v>
+      </c>
+      <c r="H68" t="n">
+        <v>33.01931870560281</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t>Informação e comunicação</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>198.7743367631065</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-1885.85893867905</v>
+      </c>
+      <c r="E69" t="n">
+        <v>100</v>
+      </c>
+      <c r="F69" t="n">
+        <v>100.755384493897</v>
+      </c>
+      <c r="G69" t="n">
+        <v>133.9416112768151</v>
+      </c>
+      <c r="H69" t="n">
+        <v>89.7369729438755</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>Atividades financeiras, de seguros e serviços relacionados</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>162.4692191736785</v>
+      </c>
+      <c r="D70" t="n">
+        <v>189.8016499316533</v>
+      </c>
+      <c r="E70" t="n">
+        <v>132.2653262424451</v>
+      </c>
+      <c r="F70" t="n">
+        <v>145.2605033379693</v>
+      </c>
+      <c r="G70" t="n">
+        <v>166.0373904582592</v>
+      </c>
+      <c r="H70" t="n">
+        <v>118.6217138674532</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>Atividades imobiliárias</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>176.2392443434482</v>
+      </c>
+      <c r="D71" t="n">
+        <v>100</v>
+      </c>
+      <c r="E71" t="n">
+        <v>100</v>
+      </c>
+      <c r="F71" t="n">
+        <v>160.1342576103535</v>
+      </c>
+      <c r="G71" t="n">
+        <v>100</v>
+      </c>
+      <c r="H71" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t>Outras atividades de serviços</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>181.8251258843275</v>
+      </c>
+      <c r="D72" t="n">
+        <v>140.9953192409194</v>
+      </c>
+      <c r="E72" t="n">
+        <v>145.0830859285259</v>
+      </c>
+      <c r="F72" t="n">
+        <v>164.1632298964737</v>
+      </c>
+      <c r="G72" t="n">
+        <v>123.3591966269944</v>
+      </c>
+      <c r="H72" t="n">
+        <v>36.47995388526535</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>Administração, defesa, saúde e educação públicas e seguridade social</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>165.1233532138034</v>
+      </c>
+      <c r="D73" t="n">
+        <v>152.7963153411611</v>
+      </c>
+      <c r="E73" t="n">
+        <v>93.65337134454376</v>
+      </c>
+      <c r="F73" t="n">
+        <v>130.9706851168501</v>
+      </c>
+      <c r="G73" t="n">
+        <v>154.3638943679154</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-216.2447158183732</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>Agropecuária</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>189.6148891272904</v>
+      </c>
+      <c r="D74" t="n">
+        <v>223.2997069318778</v>
+      </c>
+      <c r="E74" t="n">
+        <v>100</v>
+      </c>
+      <c r="F74" t="n">
+        <v>170.8091833980285</v>
+      </c>
+      <c r="G74" t="n">
+        <v>134.4552220689992</v>
+      </c>
+      <c r="H74" t="n">
+        <v>33.92915771207423</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>Indústrias extrativas</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>84.34258570955649</v>
+      </c>
+      <c r="D75" t="n">
+        <v>63.39374100869335</v>
+      </c>
+      <c r="E75" t="n">
+        <v>100</v>
+      </c>
+      <c r="F75" t="n">
+        <v>83.24120562682654</v>
+      </c>
+      <c r="G75" t="n">
+        <v>146.0774876456434</v>
+      </c>
+      <c r="H75" t="n">
+        <v>32.61970708905211</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t>Indústrias de transformação</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>180.3135087897644</v>
+      </c>
+      <c r="D76" t="n">
+        <v>127.7272397700111</v>
+      </c>
+      <c r="E76" t="n">
+        <v>100</v>
+      </c>
+      <c r="F76" t="n">
+        <v>151.1059045238228</v>
+      </c>
+      <c r="G76" t="n">
+        <v>135.7742373803755</v>
+      </c>
+      <c r="H76" t="n">
+        <v>346.0712044084445</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t>Eletricidade e gás, água, esgoto, atividades de gestão de resíduos</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>202.4986258000174</v>
+      </c>
+      <c r="D77" t="n">
+        <v>11.6630697817382</v>
+      </c>
+      <c r="E77" t="n">
+        <v>100</v>
+      </c>
+      <c r="F77" t="n">
+        <v>148.714027980998</v>
+      </c>
+      <c r="G77" t="n">
+        <v>132.6820322007658</v>
+      </c>
+      <c r="H77" t="n">
+        <v>117.6292822193095</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>194.5335199302104</v>
+      </c>
+      <c r="D78" t="n">
+        <v>100</v>
+      </c>
+      <c r="E78" t="n">
+        <v>100</v>
+      </c>
+      <c r="F78" t="n">
+        <v>47.68968683147323</v>
+      </c>
+      <c r="G78" t="n">
+        <v>145.617665959937</v>
+      </c>
+      <c r="H78" t="n">
+        <v>72.71957614087653</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t>Comércio</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>188.2751502831887</v>
+      </c>
+      <c r="D79" t="n">
+        <v>161.9245379794711</v>
+      </c>
+      <c r="E79" t="n">
+        <v>215.5318458019317</v>
+      </c>
+      <c r="F79" t="n">
+        <v>180.0682719469421</v>
+      </c>
+      <c r="G79" t="n">
+        <v>171.7366171520442</v>
+      </c>
+      <c r="H79" t="n">
+        <v>7877.153658598366</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>164.4048917369321</v>
+      </c>
+      <c r="D80" t="n">
+        <v>138.8216199168691</v>
+      </c>
+      <c r="E80" t="n">
+        <v>100</v>
+      </c>
+      <c r="F80" t="n">
+        <v>149.4804249382597</v>
+      </c>
+      <c r="G80" t="n">
+        <v>156.4586098954651</v>
+      </c>
+      <c r="H80" t="n">
+        <v>73.36511225044094</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t>Informação e comunicação</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>215.0296795396713</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-1946.641853367627</v>
+      </c>
+      <c r="E81" t="n">
+        <v>100</v>
+      </c>
+      <c r="F81" t="n">
+        <v>103.2394091671189</v>
+      </c>
+      <c r="G81" t="n">
+        <v>134.5206835137887</v>
+      </c>
+      <c r="H81" t="n">
+        <v>95.70805119928167</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>Atividades financeiras, de seguros e serviços relacionados</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>175.2780950034886</v>
+      </c>
+      <c r="D82" t="n">
+        <v>201.2155552665494</v>
+      </c>
+      <c r="E82" t="n">
+        <v>115.9791991243934</v>
+      </c>
+      <c r="F82" t="n">
+        <v>171.4778736329961</v>
+      </c>
+      <c r="G82" t="n">
+        <v>173.2125785560295</v>
+      </c>
+      <c r="H82" t="n">
+        <v>117.6170947952442</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t>Atividades imobiliárias</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>184.9706924774383</v>
+      </c>
+      <c r="D83" t="n">
+        <v>100</v>
+      </c>
+      <c r="E83" t="n">
+        <v>100</v>
+      </c>
+      <c r="F83" t="n">
+        <v>169.7953558300392</v>
+      </c>
+      <c r="G83" t="n">
+        <v>100</v>
+      </c>
+      <c r="H83" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t>Outras atividades de serviços</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>194.2436702014741</v>
+      </c>
+      <c r="D84" t="n">
+        <v>153.5469842152213</v>
+      </c>
+      <c r="E84" t="n">
+        <v>158.8284905582183</v>
+      </c>
+      <c r="F84" t="n">
+        <v>178.1268115599389</v>
+      </c>
+      <c r="G84" t="n">
+        <v>121.9723076748433</v>
+      </c>
+      <c r="H84" t="n">
+        <v>30.48973800822649</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <t>Administração, defesa, saúde e educação públicas e seguridade social</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>168.0101884811955</v>
+      </c>
+      <c r="D85" t="n">
+        <v>164.1805333566693</v>
+      </c>
+      <c r="E85" t="n">
+        <v>99.649490437049</v>
+      </c>
+      <c r="F85" t="n">
+        <v>140.2758597974261</v>
+      </c>
+      <c r="G85" t="n">
+        <v>144.9311966892471</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-173.8753987093148</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B86" s="1" t="inlineStr">
+        <is>
+          <t>Agropecuária</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>172.3428439182698</v>
+      </c>
+      <c r="D86" t="n">
+        <v>175.7854006748786</v>
+      </c>
+      <c r="E86" t="n">
+        <v>100</v>
+      </c>
+      <c r="F86" t="n">
+        <v>156.8772102083632</v>
+      </c>
+      <c r="G86" t="n">
+        <v>139.0283902438367</v>
+      </c>
+      <c r="H86" t="n">
+        <v>16.53297644743794</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t>Indústrias extrativas</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>105.0557457575966</v>
+      </c>
+      <c r="D87" t="n">
+        <v>152.5515798341521</v>
+      </c>
+      <c r="E87" t="n">
+        <v>100</v>
+      </c>
+      <c r="F87" t="n">
+        <v>96.64105061700859</v>
+      </c>
+      <c r="G87" t="n">
+        <v>146.3560104648559</v>
+      </c>
+      <c r="H87" t="n">
+        <v>152.254007864637</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <t>Indústrias de transformação</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>178.1874470793119</v>
+      </c>
+      <c r="D88" t="n">
+        <v>142.7141207750825</v>
+      </c>
+      <c r="E88" t="n">
+        <v>100</v>
+      </c>
+      <c r="F88" t="n">
+        <v>154.0395727178024</v>
+      </c>
+      <c r="G88" t="n">
+        <v>141.4633900417265</v>
+      </c>
+      <c r="H88" t="n">
+        <v>258.8752673143975</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t>Eletricidade e gás, água, esgoto, atividades de gestão de resíduos</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>205.8494013250122</v>
+      </c>
+      <c r="D89" t="n">
+        <v>6.776398109966355</v>
+      </c>
+      <c r="E89" t="n">
+        <v>100</v>
+      </c>
+      <c r="F89" t="n">
+        <v>152.3559509252513</v>
+      </c>
+      <c r="G89" t="n">
+        <v>118.3751904111174</v>
+      </c>
+      <c r="H89" t="n">
+        <v>120.4218709356689</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="1" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>179.2840268212296</v>
+      </c>
+      <c r="D90" t="n">
+        <v>100</v>
+      </c>
+      <c r="E90" t="n">
+        <v>100</v>
+      </c>
+      <c r="F90" t="n">
+        <v>81.77666456575891</v>
+      </c>
+      <c r="G90" t="n">
+        <v>145.0850469142598</v>
+      </c>
+      <c r="H90" t="n">
+        <v>95.6235176817555</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="1" t="inlineStr">
+        <is>
+          <t>Comércio</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>189.9531727976241</v>
+      </c>
+      <c r="D91" t="n">
+        <v>171.8256533471482</v>
+      </c>
+      <c r="E91" t="n">
+        <v>148.0499824210849</v>
+      </c>
+      <c r="F91" t="n">
+        <v>188.4272760913824</v>
+      </c>
+      <c r="G91" t="n">
+        <v>178.650527747557</v>
+      </c>
+      <c r="H91" t="n">
+        <v>18869.45174126005</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n"/>
+      <c r="B92" s="1" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>168.224302936643</v>
+      </c>
+      <c r="D92" t="n">
+        <v>151.8875940850044</v>
+      </c>
+      <c r="E92" t="n">
+        <v>100</v>
+      </c>
+      <c r="F92" t="n">
+        <v>160.6082011609156</v>
+      </c>
+      <c r="G92" t="n">
+        <v>171.9784905651941</v>
+      </c>
+      <c r="H92" t="n">
+        <v>45.46988971588192</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n"/>
+      <c r="B93" s="1" t="inlineStr">
+        <is>
+          <t>Informação e comunicação</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>195.4188240395669</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-1318.016708012309</v>
+      </c>
+      <c r="E93" t="n">
+        <v>100</v>
+      </c>
+      <c r="F93" t="n">
+        <v>105.4772244157834</v>
+      </c>
+      <c r="G93" t="n">
+        <v>146.2126859351599</v>
+      </c>
+      <c r="H93" t="n">
+        <v>88.05765409104231</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n"/>
+      <c r="B94" s="1" t="inlineStr">
+        <is>
+          <t>Atividades financeiras, de seguros e serviços relacionados</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>172.9540572145438</v>
+      </c>
+      <c r="D94" t="n">
+        <v>217.1777161824467</v>
+      </c>
+      <c r="E94" t="n">
+        <v>122.4081013612125</v>
+      </c>
+      <c r="F94" t="n">
+        <v>178.6686052174151</v>
+      </c>
+      <c r="G94" t="n">
+        <v>185.365888972359</v>
+      </c>
+      <c r="H94" t="n">
+        <v>118.9385240783325</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="1" t="inlineStr">
+        <is>
+          <t>Atividades imobiliárias</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>171.1930533801026</v>
+      </c>
+      <c r="D95" t="n">
+        <v>100</v>
+      </c>
+      <c r="E95" t="n">
+        <v>100</v>
+      </c>
+      <c r="F95" t="n">
+        <v>175.9805811194976</v>
+      </c>
+      <c r="G95" t="n">
+        <v>100</v>
+      </c>
+      <c r="H95" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n"/>
+      <c r="B96" s="1" t="inlineStr">
+        <is>
+          <t>Outras atividades de serviços</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>182.5879841765966</v>
+      </c>
+      <c r="D96" t="n">
+        <v>161.7844893788259</v>
+      </c>
+      <c r="E96" t="n">
+        <v>168.1542242179283</v>
+      </c>
+      <c r="F96" t="n">
+        <v>189.0970264421199</v>
+      </c>
+      <c r="G96" t="n">
+        <v>124.8592753170522</v>
+      </c>
+      <c r="H96" t="n">
+        <v>30.96385140750019</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n"/>
+      <c r="B97" s="1" t="inlineStr">
+        <is>
+          <t>Administração, defesa, saúde e educação públicas e seguridade social</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>167.479169248449</v>
+      </c>
+      <c r="D97" t="n">
+        <v>171.7037232798133</v>
+      </c>
+      <c r="E97" t="n">
+        <v>110.2155150291994</v>
+      </c>
+      <c r="F97" t="n">
+        <v>158.9715460301096</v>
+      </c>
+      <c r="G97" t="n">
+        <v>135.4167446366555</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-159.3134241815301</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B98" s="1" t="inlineStr">
+        <is>
+          <t>Agropecuária</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>204.3650616481871</v>
+      </c>
+      <c r="D98" t="n">
+        <v>139.8581497022798</v>
+      </c>
+      <c r="E98" t="n">
+        <v>100</v>
+      </c>
+      <c r="F98" t="n">
+        <v>157.4178653255188</v>
+      </c>
+      <c r="G98" t="n">
+        <v>143.1185621285109</v>
+      </c>
+      <c r="H98" t="n">
+        <v>23.38243267867674</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="1" t="inlineStr">
+        <is>
+          <t>Indústrias extrativas</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>145.3716966648082</v>
+      </c>
+      <c r="D99" t="n">
+        <v>71.15119884279341</v>
+      </c>
+      <c r="E99" t="n">
+        <v>100</v>
+      </c>
+      <c r="F99" t="n">
+        <v>111.6502980511576</v>
+      </c>
+      <c r="G99" t="n">
+        <v>154.7369487106889</v>
+      </c>
+      <c r="H99" t="n">
+        <v>133.9696887694489</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n"/>
+      <c r="B100" s="1" t="inlineStr">
+        <is>
+          <t>Indústrias de transformação</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>210.4364722361319</v>
+      </c>
+      <c r="D100" t="n">
+        <v>144.5621565871093</v>
+      </c>
+      <c r="E100" t="n">
+        <v>100</v>
+      </c>
+      <c r="F100" t="n">
+        <v>161.3410695194527</v>
+      </c>
+      <c r="G100" t="n">
+        <v>149.4936357683046</v>
+      </c>
+      <c r="H100" t="n">
+        <v>12089.71188361437</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n"/>
+      <c r="B101" s="1" t="inlineStr">
+        <is>
+          <t>Eletricidade e gás, água, esgoto, atividades de gestão de resíduos</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>229.872876043076</v>
+      </c>
+      <c r="D101" t="n">
+        <v>9.243363179541531</v>
+      </c>
+      <c r="E101" t="n">
+        <v>100</v>
+      </c>
+      <c r="F101" t="n">
+        <v>167.9822948941761</v>
+      </c>
+      <c r="G101" t="n">
+        <v>122.6266724786046</v>
+      </c>
+      <c r="H101" t="n">
+        <v>113.7850698513371</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n"/>
+      <c r="B102" s="1" t="inlineStr">
+        <is>
+          <t>Construção</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>205.9108582709381</v>
+      </c>
+      <c r="D102" t="n">
+        <v>100</v>
+      </c>
+      <c r="E102" t="n">
+        <v>100</v>
+      </c>
+      <c r="F102" t="n">
+        <v>88.54384561152665</v>
+      </c>
+      <c r="G102" t="n">
+        <v>147.995620455764</v>
+      </c>
+      <c r="H102" t="n">
+        <v>95.6235176817555</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n"/>
+      <c r="B103" s="1" t="inlineStr">
+        <is>
+          <t>Comércio</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>211.9554326976971</v>
+      </c>
+      <c r="D103" t="n">
+        <v>162.5254467902016</v>
+      </c>
+      <c r="E103" t="n">
+        <v>164.8907871994155</v>
+      </c>
+      <c r="F103" t="n">
+        <v>192.7064298895285</v>
+      </c>
+      <c r="G103" t="n">
+        <v>188.9638648059966</v>
+      </c>
+      <c r="H103" t="n">
+        <v>51369.61110018827</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n"/>
+      <c r="B104" s="1" t="inlineStr">
+        <is>
+          <t>Transporte, armazenagem e correio</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>189.2099826432298</v>
+      </c>
+      <c r="D104" t="n">
+        <v>160.305989310604</v>
+      </c>
+      <c r="E104" t="n">
+        <v>100</v>
+      </c>
+      <c r="F104" t="n">
+        <v>166.1109365217216</v>
+      </c>
+      <c r="G104" t="n">
+        <v>184.6352037006004</v>
+      </c>
+      <c r="H104" t="n">
+        <v>112.817164396535</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n"/>
+      <c r="B105" s="1" t="inlineStr">
+        <is>
+          <t>Informação e comunicação</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>224.8365503474608</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-1459.406955092254</v>
+      </c>
+      <c r="E105" t="n">
+        <v>100</v>
+      </c>
+      <c r="F105" t="n">
+        <v>107.2655676689694</v>
+      </c>
+      <c r="G105" t="n">
+        <v>152.8220759169254</v>
+      </c>
+      <c r="H105" t="n">
+        <v>66.70637198821815</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n"/>
+      <c r="B106" s="1" t="inlineStr">
+        <is>
+          <t>Atividades financeiras, de seguros e serviços relacionados</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>189.3532758430244</v>
+      </c>
+      <c r="D106" t="n">
+        <v>234.1228801804759</v>
+      </c>
+      <c r="E106" t="n">
+        <v>105.788309673034</v>
+      </c>
+      <c r="F106" t="n">
+        <v>178.5130128906382</v>
+      </c>
+      <c r="G106" t="n">
+        <v>203.0957910078925</v>
+      </c>
+      <c r="H106" t="n">
+        <v>120.345599877362</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n"/>
+      <c r="B107" s="1" t="inlineStr">
+        <is>
+          <t>Atividades imobiliárias</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>196.430312153835</v>
+      </c>
+      <c r="D107" t="n">
+        <v>100</v>
+      </c>
+      <c r="E107" t="n">
+        <v>100</v>
+      </c>
+      <c r="F107" t="n">
+        <v>178.2899225937607</v>
+      </c>
+      <c r="G107" t="n">
+        <v>100</v>
+      </c>
+      <c r="H107" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n"/>
+      <c r="B108" s="1" t="inlineStr">
+        <is>
+          <t>Outras atividades de serviços</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>205.4109382169377</v>
+      </c>
+      <c r="D108" t="n">
+        <v>168.8058803325833</v>
+      </c>
+      <c r="E108" t="n">
+        <v>182.2447036875295</v>
+      </c>
+      <c r="F108" t="n">
+        <v>198.9610693992409</v>
+      </c>
+      <c r="G108" t="n">
+        <v>132.360770430423</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-44.27270461028319</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n"/>
+      <c r="B109" s="1" t="inlineStr">
+        <is>
+          <t>Administração, defesa, saúde e educação públicas e seguridade social</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>196.5838951270244</v>
+      </c>
+      <c r="D109" t="n">
+        <v>178.7932853884637</v>
+      </c>
+      <c r="E109" t="n">
+        <v>106.1017341894184</v>
+      </c>
+      <c r="F109" t="n">
+        <v>171.9136198774663</v>
+      </c>
+      <c r="G109" t="n">
+        <v>134.6438046405005</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-111.1634409719551</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="A38:A49"/>
+    <mergeCell ref="A50:A61"/>
+    <mergeCell ref="A62:A73"/>
+    <mergeCell ref="A74:A85"/>
+    <mergeCell ref="A86:A97"/>
+    <mergeCell ref="A98:A109"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>